--- a/Data/Rae_2021_Boron_Data.xlsx
+++ b/Data/Rae_2021_Boron_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ross\Documents\Work\Postdoc\St_Andrews\Output\Analysis\PETM_deltaCO2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jet/Dropbox/DADT/EoceneDANew/alt code and data/BoronCalcs/PETM_deltaCO2-main/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F55459-F0E5-4E8A-8F29-928AC2D44414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADDF8FE-006F-1344-8720-C09718C78683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="13880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5031" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5031" uniqueCount="237">
   <si>
     <t>Hönisch et al., 2009</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>LP</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>a</t>
@@ -2534,9 +2531,9 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.71875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2809,32 +2806,32 @@
   <dimension ref="A1:P820"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Z1" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomLeft" activeCell="P749" sqref="P749"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.27734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="10" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.71875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.71875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.71875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="10.71875" style="3"/>
+    <col min="11" max="11" width="5.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="20" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="20" customFormat="1" ht="16">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -2884,7 +2881,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.4">
+    <row r="2" spans="1:16" ht="16">
       <c r="A2" s="77" t="s">
         <v>63</v>
       </c>
@@ -2925,10 +2922,10 @@
         <v>153</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16">
       <c r="A3" s="77" t="s">
         <v>63</v>
       </c>
@@ -2969,10 +2966,10 @@
         <v>153</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16">
       <c r="A4" s="77" t="s">
         <v>63</v>
       </c>
@@ -3013,10 +3010,10 @@
         <v>153</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16">
       <c r="A5" s="77" t="s">
         <v>63</v>
       </c>
@@ -3057,10 +3054,10 @@
         <v>153</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16">
       <c r="A6" s="77" t="s">
         <v>63</v>
       </c>
@@ -3101,7 +3098,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.4">
+    <row r="7" spans="1:16" ht="16">
       <c r="A7" s="77" t="s">
         <v>63</v>
       </c>
@@ -3142,7 +3139,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.4">
+    <row r="8" spans="1:16" ht="16">
       <c r="A8" s="77" t="s">
         <v>63</v>
       </c>
@@ -3183,7 +3180,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.4">
+    <row r="9" spans="1:16" ht="16">
       <c r="A9" s="77" t="s">
         <v>63</v>
       </c>
@@ -3224,7 +3221,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.4">
+    <row r="10" spans="1:16" ht="16">
       <c r="A10" s="77" t="s">
         <v>63</v>
       </c>
@@ -3265,7 +3262,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.4">
+    <row r="11" spans="1:16" ht="16">
       <c r="A11" s="77" t="s">
         <v>63</v>
       </c>
@@ -3306,7 +3303,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.4">
+    <row r="12" spans="1:16" ht="16">
       <c r="A12" s="77" t="s">
         <v>63</v>
       </c>
@@ -3347,7 +3344,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.4">
+    <row r="13" spans="1:16" ht="16">
       <c r="A13" s="77" t="s">
         <v>63</v>
       </c>
@@ -3388,7 +3385,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.4">
+    <row r="14" spans="1:16" ht="16">
       <c r="A14" s="77" t="s">
         <v>63</v>
       </c>
@@ -3429,7 +3426,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.4">
+    <row r="15" spans="1:16" ht="16">
       <c r="A15" s="77" t="s">
         <v>63</v>
       </c>
@@ -3470,7 +3467,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.4">
+    <row r="16" spans="1:16" ht="16">
       <c r="A16" s="77" t="s">
         <v>63</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.4">
+    <row r="17" spans="1:15" ht="16">
       <c r="A17" s="77" t="s">
         <v>63</v>
       </c>
@@ -3552,7 +3549,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.4">
+    <row r="18" spans="1:15" ht="16">
       <c r="A18" s="77" t="s">
         <v>63</v>
       </c>
@@ -3593,7 +3590,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.4">
+    <row r="19" spans="1:15" ht="16">
       <c r="A19" s="77" t="s">
         <v>63</v>
       </c>
@@ -3634,7 +3631,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.4">
+    <row r="20" spans="1:15" ht="16">
       <c r="A20" s="77" t="s">
         <v>63</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.4">
+    <row r="21" spans="1:15" ht="16">
       <c r="A21" s="77" t="s">
         <v>63</v>
       </c>
@@ -3716,7 +3713,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.4">
+    <row r="22" spans="1:15" ht="16">
       <c r="A22" s="77" t="s">
         <v>63</v>
       </c>
@@ -3757,7 +3754,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.4">
+    <row r="23" spans="1:15" ht="16">
       <c r="A23" s="77" t="s">
         <v>63</v>
       </c>
@@ -3798,7 +3795,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.4">
+    <row r="24" spans="1:15" ht="16">
       <c r="A24" s="77" t="s">
         <v>63</v>
       </c>
@@ -3839,7 +3836,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.4">
+    <row r="25" spans="1:15" ht="16">
       <c r="A25" s="77" t="s">
         <v>63</v>
       </c>
@@ -3880,7 +3877,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.4">
+    <row r="26" spans="1:15" ht="16">
       <c r="A26" s="77" t="s">
         <v>63</v>
       </c>
@@ -3921,7 +3918,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.4">
+    <row r="27" spans="1:15" ht="16">
       <c r="A27" s="77" t="s">
         <v>63</v>
       </c>
@@ -3962,7 +3959,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.4">
+    <row r="28" spans="1:15" ht="16">
       <c r="A28" s="77" t="s">
         <v>63</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.4">
+    <row r="29" spans="1:15" ht="16">
       <c r="A29" s="77" t="s">
         <v>63</v>
       </c>
@@ -4044,7 +4041,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.4">
+    <row r="30" spans="1:15" ht="16">
       <c r="A30" s="77" t="s">
         <v>63</v>
       </c>
@@ -4085,7 +4082,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.4">
+    <row r="31" spans="1:15" ht="16">
       <c r="A31" s="77" t="s">
         <v>63</v>
       </c>
@@ -4126,7 +4123,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.4">
+    <row r="32" spans="1:15" ht="16">
       <c r="A32" s="77" t="s">
         <v>63</v>
       </c>
@@ -4167,7 +4164,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.4">
+    <row r="33" spans="1:15" ht="16">
       <c r="A33" s="77" t="s">
         <v>63</v>
       </c>
@@ -4208,7 +4205,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.4">
+    <row r="34" spans="1:15" ht="16">
       <c r="A34" s="77" t="s">
         <v>63</v>
       </c>
@@ -4249,7 +4246,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.4">
+    <row r="35" spans="1:15" ht="16">
       <c r="A35" s="77" t="s">
         <v>63</v>
       </c>
@@ -4290,7 +4287,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.4">
+    <row r="36" spans="1:15" ht="16">
       <c r="A36" s="77" t="s">
         <v>63</v>
       </c>
@@ -4331,7 +4328,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.4">
+    <row r="37" spans="1:15" ht="16">
       <c r="A37" s="7" t="s">
         <v>116</v>
       </c>
@@ -4376,7 +4373,7 @@
       </c>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15" ht="15.4">
+    <row r="38" spans="1:15" ht="16">
       <c r="A38" s="7" t="s">
         <v>116</v>
       </c>
@@ -4421,7 +4418,7 @@
       </c>
       <c r="O38" s="11"/>
     </row>
-    <row r="39" spans="1:15" ht="15.4">
+    <row r="39" spans="1:15" ht="16">
       <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
@@ -4466,7 +4463,7 @@
       </c>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="1:15" ht="15.4">
+    <row r="40" spans="1:15" ht="16">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
@@ -4511,7 +4508,7 @@
       </c>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15" ht="15.4">
+    <row r="41" spans="1:15" ht="16">
       <c r="A41" s="7" t="s">
         <v>116</v>
       </c>
@@ -4556,7 +4553,7 @@
       </c>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15" ht="15.4">
+    <row r="42" spans="1:15" ht="16">
       <c r="A42" s="7" t="s">
         <v>116</v>
       </c>
@@ -4601,7 +4598,7 @@
       </c>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" ht="15.4">
+    <row r="43" spans="1:15" ht="16">
       <c r="A43" s="7" t="s">
         <v>116</v>
       </c>
@@ -4646,7 +4643,7 @@
       </c>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="1:15" ht="15.4">
+    <row r="44" spans="1:15" ht="16">
       <c r="A44" s="7" t="s">
         <v>116</v>
       </c>
@@ -4691,7 +4688,7 @@
       </c>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="1:15" ht="15.4">
+    <row r="45" spans="1:15" ht="16">
       <c r="A45" s="7" t="s">
         <v>116</v>
       </c>
@@ -4736,7 +4733,7 @@
       </c>
       <c r="O45" s="11"/>
     </row>
-    <row r="46" spans="1:15" ht="15.4">
+    <row r="46" spans="1:15" ht="16">
       <c r="A46" s="7" t="s">
         <v>116</v>
       </c>
@@ -4781,7 +4778,7 @@
       </c>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="1:15" ht="15.4">
+    <row r="47" spans="1:15" ht="16">
       <c r="A47" s="7" t="s">
         <v>116</v>
       </c>
@@ -4826,7 +4823,7 @@
       </c>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15" ht="15.4">
+    <row r="48" spans="1:15" ht="16">
       <c r="A48" s="7" t="s">
         <v>116</v>
       </c>
@@ -4871,7 +4868,7 @@
       </c>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="1:15" ht="15.4">
+    <row r="49" spans="1:15" ht="16">
       <c r="A49" s="7" t="s">
         <v>116</v>
       </c>
@@ -4916,7 +4913,7 @@
       </c>
       <c r="O49" s="11"/>
     </row>
-    <row r="50" spans="1:15" ht="15.4">
+    <row r="50" spans="1:15" ht="16">
       <c r="A50" s="7" t="s">
         <v>116</v>
       </c>
@@ -4961,7 +4958,7 @@
       </c>
       <c r="O50" s="11"/>
     </row>
-    <row r="51" spans="1:15" ht="15.4">
+    <row r="51" spans="1:15" ht="16">
       <c r="A51" s="7" t="s">
         <v>116</v>
       </c>
@@ -5006,7 +5003,7 @@
       </c>
       <c r="O51" s="11"/>
     </row>
-    <row r="52" spans="1:15" ht="15.4">
+    <row r="52" spans="1:15" ht="16">
       <c r="A52" s="7" t="s">
         <v>116</v>
       </c>
@@ -5051,7 +5048,7 @@
       </c>
       <c r="O52" s="11"/>
     </row>
-    <row r="53" spans="1:15" ht="15.4">
+    <row r="53" spans="1:15" ht="16">
       <c r="A53" s="7" t="s">
         <v>116</v>
       </c>
@@ -5096,7 +5093,7 @@
       </c>
       <c r="O53" s="11"/>
     </row>
-    <row r="54" spans="1:15" ht="15.4">
+    <row r="54" spans="1:15" ht="16">
       <c r="A54" s="7" t="s">
         <v>116</v>
       </c>
@@ -5141,7 +5138,7 @@
       </c>
       <c r="O54" s="11"/>
     </row>
-    <row r="55" spans="1:15" ht="15.4">
+    <row r="55" spans="1:15" ht="16">
       <c r="A55" s="7" t="s">
         <v>116</v>
       </c>
@@ -5186,7 +5183,7 @@
       </c>
       <c r="O55" s="11"/>
     </row>
-    <row r="56" spans="1:15" ht="15.4">
+    <row r="56" spans="1:15" ht="16">
       <c r="A56" s="7" t="s">
         <v>116</v>
       </c>
@@ -5231,7 +5228,7 @@
       </c>
       <c r="O56" s="11"/>
     </row>
-    <row r="57" spans="1:15" ht="15.4">
+    <row r="57" spans="1:15" ht="16">
       <c r="A57" s="7" t="s">
         <v>116</v>
       </c>
@@ -5276,7 +5273,7 @@
       </c>
       <c r="O57" s="11"/>
     </row>
-    <row r="58" spans="1:15" ht="15.4">
+    <row r="58" spans="1:15" ht="16">
       <c r="A58" s="7" t="s">
         <v>116</v>
       </c>
@@ -5321,7 +5318,7 @@
       </c>
       <c r="O58" s="11"/>
     </row>
-    <row r="59" spans="1:15" ht="15.4">
+    <row r="59" spans="1:15" ht="16">
       <c r="A59" s="7" t="s">
         <v>116</v>
       </c>
@@ -5366,7 +5363,7 @@
       </c>
       <c r="O59" s="11"/>
     </row>
-    <row r="60" spans="1:15" ht="15.4">
+    <row r="60" spans="1:15" ht="16">
       <c r="A60" s="7" t="s">
         <v>116</v>
       </c>
@@ -5411,7 +5408,7 @@
       </c>
       <c r="O60" s="11"/>
     </row>
-    <row r="61" spans="1:15" ht="15.4">
+    <row r="61" spans="1:15" ht="16">
       <c r="A61" s="7" t="s">
         <v>116</v>
       </c>
@@ -5456,7 +5453,7 @@
       </c>
       <c r="O61" s="11"/>
     </row>
-    <row r="62" spans="1:15" ht="15.4">
+    <row r="62" spans="1:15" ht="16">
       <c r="A62" s="7" t="s">
         <v>116</v>
       </c>
@@ -5501,7 +5498,7 @@
       </c>
       <c r="O62" s="11"/>
     </row>
-    <row r="63" spans="1:15" ht="15.4">
+    <row r="63" spans="1:15" ht="16">
       <c r="A63" s="7" t="s">
         <v>116</v>
       </c>
@@ -5546,7 +5543,7 @@
       </c>
       <c r="O63" s="11"/>
     </row>
-    <row r="64" spans="1:15" ht="15.4">
+    <row r="64" spans="1:15" ht="16">
       <c r="A64" s="7" t="s">
         <v>116</v>
       </c>
@@ -5591,7 +5588,7 @@
       </c>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:15" ht="15.4">
+    <row r="65" spans="1:15" ht="16">
       <c r="A65" s="7" t="s">
         <v>116</v>
       </c>
@@ -5636,7 +5633,7 @@
       </c>
       <c r="O65" s="11"/>
     </row>
-    <row r="66" spans="1:15" ht="15.4">
+    <row r="66" spans="1:15" ht="16">
       <c r="A66" s="7" t="s">
         <v>116</v>
       </c>
@@ -5681,7 +5678,7 @@
       </c>
       <c r="O66" s="11"/>
     </row>
-    <row r="67" spans="1:15" ht="15.4">
+    <row r="67" spans="1:15" ht="16">
       <c r="A67" s="7" t="s">
         <v>116</v>
       </c>
@@ -5726,7 +5723,7 @@
       </c>
       <c r="O67" s="11"/>
     </row>
-    <row r="68" spans="1:15" ht="15.4">
+    <row r="68" spans="1:15" ht="16">
       <c r="A68" s="7" t="s">
         <v>116</v>
       </c>
@@ -5771,7 +5768,7 @@
       </c>
       <c r="O68" s="11"/>
     </row>
-    <row r="69" spans="1:15" ht="15.4">
+    <row r="69" spans="1:15" ht="16">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -5816,7 +5813,7 @@
       </c>
       <c r="O69" s="10"/>
     </row>
-    <row r="70" spans="1:15" ht="15.4">
+    <row r="70" spans="1:15" ht="16">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -5861,7 +5858,7 @@
       </c>
       <c r="O70" s="10"/>
     </row>
-    <row r="71" spans="1:15" ht="15.4">
+    <row r="71" spans="1:15" ht="16">
       <c r="A71" s="7" t="s">
         <v>0</v>
       </c>
@@ -5906,7 +5903,7 @@
       </c>
       <c r="O71" s="10"/>
     </row>
-    <row r="72" spans="1:15" ht="15.4">
+    <row r="72" spans="1:15" ht="16">
       <c r="A72" s="7" t="s">
         <v>0</v>
       </c>
@@ -5951,7 +5948,7 @@
       </c>
       <c r="O72" s="10"/>
     </row>
-    <row r="73" spans="1:15" ht="15.4">
+    <row r="73" spans="1:15" ht="16">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -5996,7 +5993,7 @@
       </c>
       <c r="O73" s="10"/>
     </row>
-    <row r="74" spans="1:15" ht="15.4">
+    <row r="74" spans="1:15" ht="16">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -6041,7 +6038,7 @@
       </c>
       <c r="O74" s="10"/>
     </row>
-    <row r="75" spans="1:15" ht="15.4">
+    <row r="75" spans="1:15" ht="16">
       <c r="A75" s="7" t="s">
         <v>0</v>
       </c>
@@ -6086,7 +6083,7 @@
       </c>
       <c r="O75" s="10"/>
     </row>
-    <row r="76" spans="1:15" ht="15.4">
+    <row r="76" spans="1:15" ht="16">
       <c r="A76" s="7" t="s">
         <v>0</v>
       </c>
@@ -6131,7 +6128,7 @@
       </c>
       <c r="O76" s="10"/>
     </row>
-    <row r="77" spans="1:15" ht="15.4">
+    <row r="77" spans="1:15" ht="16">
       <c r="A77" s="7" t="s">
         <v>0</v>
       </c>
@@ -6176,7 +6173,7 @@
       </c>
       <c r="O77" s="10"/>
     </row>
-    <row r="78" spans="1:15" ht="15.4">
+    <row r="78" spans="1:15" ht="16">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
@@ -6221,7 +6218,7 @@
       </c>
       <c r="O78" s="10"/>
     </row>
-    <row r="79" spans="1:15" ht="15.4">
+    <row r="79" spans="1:15" ht="16">
       <c r="A79" s="7" t="s">
         <v>0</v>
       </c>
@@ -6266,7 +6263,7 @@
       </c>
       <c r="O79" s="10"/>
     </row>
-    <row r="80" spans="1:15" ht="15.4">
+    <row r="80" spans="1:15" ht="16">
       <c r="A80" s="7" t="s">
         <v>0</v>
       </c>
@@ -6311,7 +6308,7 @@
       </c>
       <c r="O80" s="10"/>
     </row>
-    <row r="81" spans="1:15" ht="15.4">
+    <row r="81" spans="1:15" ht="16">
       <c r="A81" s="7" t="s">
         <v>0</v>
       </c>
@@ -6356,7 +6353,7 @@
       </c>
       <c r="O81" s="10"/>
     </row>
-    <row r="82" spans="1:15" ht="15.4">
+    <row r="82" spans="1:15" ht="16">
       <c r="A82" s="7" t="s">
         <v>0</v>
       </c>
@@ -6401,7 +6398,7 @@
       </c>
       <c r="O82" s="10"/>
     </row>
-    <row r="83" spans="1:15" ht="15.4">
+    <row r="83" spans="1:15" ht="16">
       <c r="A83" s="7" t="s">
         <v>0</v>
       </c>
@@ -6446,7 +6443,7 @@
       </c>
       <c r="O83" s="10"/>
     </row>
-    <row r="84" spans="1:15" ht="15.4">
+    <row r="84" spans="1:15" ht="16">
       <c r="A84" s="7" t="s">
         <v>0</v>
       </c>
@@ -6491,7 +6488,7 @@
       </c>
       <c r="O84" s="10"/>
     </row>
-    <row r="85" spans="1:15" ht="15.4">
+    <row r="85" spans="1:15" ht="16">
       <c r="A85" s="7" t="s">
         <v>0</v>
       </c>
@@ -6536,7 +6533,7 @@
       </c>
       <c r="O85" s="10"/>
     </row>
-    <row r="86" spans="1:15" ht="15.4">
+    <row r="86" spans="1:15" ht="16">
       <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
@@ -6581,7 +6578,7 @@
       </c>
       <c r="O86" s="10"/>
     </row>
-    <row r="87" spans="1:15" ht="15.4">
+    <row r="87" spans="1:15" ht="16">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -6626,7 +6623,7 @@
       </c>
       <c r="O87" s="10"/>
     </row>
-    <row r="88" spans="1:15" ht="15.4">
+    <row r="88" spans="1:15" ht="16">
       <c r="A88" s="7" t="s">
         <v>0</v>
       </c>
@@ -6671,7 +6668,7 @@
       </c>
       <c r="O88" s="10"/>
     </row>
-    <row r="89" spans="1:15" ht="15.4">
+    <row r="89" spans="1:15" ht="16">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
@@ -6716,7 +6713,7 @@
       </c>
       <c r="O89" s="10"/>
     </row>
-    <row r="90" spans="1:15" ht="15.4">
+    <row r="90" spans="1:15" ht="16">
       <c r="A90" s="7" t="s">
         <v>0</v>
       </c>
@@ -6761,7 +6758,7 @@
       </c>
       <c r="O90" s="10"/>
     </row>
-    <row r="91" spans="1:15" ht="15.4">
+    <row r="91" spans="1:15" ht="16">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -6806,7 +6803,7 @@
       </c>
       <c r="O91" s="10"/>
     </row>
-    <row r="92" spans="1:15" ht="15.4">
+    <row r="92" spans="1:15" ht="16">
       <c r="A92" s="7" t="s">
         <v>0</v>
       </c>
@@ -6851,7 +6848,7 @@
       </c>
       <c r="O92" s="10"/>
     </row>
-    <row r="93" spans="1:15" ht="15.4">
+    <row r="93" spans="1:15" ht="16">
       <c r="A93" s="7" t="s">
         <v>0</v>
       </c>
@@ -6896,7 +6893,7 @@
       </c>
       <c r="O93" s="10"/>
     </row>
-    <row r="94" spans="1:15" ht="15.4">
+    <row r="94" spans="1:15" ht="16">
       <c r="A94" s="7" t="s">
         <v>0</v>
       </c>
@@ -6941,7 +6938,7 @@
       </c>
       <c r="O94" s="10"/>
     </row>
-    <row r="95" spans="1:15" ht="15.4">
+    <row r="95" spans="1:15" ht="16">
       <c r="A95" s="7" t="s">
         <v>0</v>
       </c>
@@ -6986,7 +6983,7 @@
       </c>
       <c r="O95" s="10"/>
     </row>
-    <row r="96" spans="1:15" ht="15.4">
+    <row r="96" spans="1:15" ht="16">
       <c r="A96" s="7" t="s">
         <v>0</v>
       </c>
@@ -7031,7 +7028,7 @@
       </c>
       <c r="O96" s="10"/>
     </row>
-    <row r="97" spans="1:15" ht="15.4">
+    <row r="97" spans="1:15" ht="16">
       <c r="A97" s="7" t="s">
         <v>0</v>
       </c>
@@ -7076,7 +7073,7 @@
       </c>
       <c r="O97" s="10"/>
     </row>
-    <row r="98" spans="1:15" ht="15.4">
+    <row r="98" spans="1:15" ht="16">
       <c r="A98" s="7" t="s">
         <v>0</v>
       </c>
@@ -7121,7 +7118,7 @@
       </c>
       <c r="O98" s="10"/>
     </row>
-    <row r="99" spans="1:15" ht="15.4">
+    <row r="99" spans="1:15" ht="16">
       <c r="A99" s="7" t="s">
         <v>0</v>
       </c>
@@ -7166,7 +7163,7 @@
       </c>
       <c r="O99" s="10"/>
     </row>
-    <row r="100" spans="1:15" ht="15.4">
+    <row r="100" spans="1:15" ht="16">
       <c r="A100" s="7" t="s">
         <v>0</v>
       </c>
@@ -7211,7 +7208,7 @@
       </c>
       <c r="O100" s="10"/>
     </row>
-    <row r="101" spans="1:15" ht="15.4">
+    <row r="101" spans="1:15" ht="16">
       <c r="A101" s="7" t="s">
         <v>0</v>
       </c>
@@ -7256,7 +7253,7 @@
       </c>
       <c r="O101" s="10"/>
     </row>
-    <row r="102" spans="1:15" ht="15.4">
+    <row r="102" spans="1:15" ht="16">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -7301,7 +7298,7 @@
       </c>
       <c r="O102" s="10"/>
     </row>
-    <row r="103" spans="1:15" ht="15.4">
+    <row r="103" spans="1:15" ht="16">
       <c r="A103" s="7" t="s">
         <v>0</v>
       </c>
@@ -7346,7 +7343,7 @@
       </c>
       <c r="O103" s="10"/>
     </row>
-    <row r="104" spans="1:15" ht="15.4">
+    <row r="104" spans="1:15" ht="16">
       <c r="A104" s="7" t="s">
         <v>0</v>
       </c>
@@ -7391,7 +7388,7 @@
       </c>
       <c r="O104" s="10"/>
     </row>
-    <row r="105" spans="1:15" ht="15.4">
+    <row r="105" spans="1:15" ht="16">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
@@ -7436,7 +7433,7 @@
       </c>
       <c r="O105" s="10"/>
     </row>
-    <row r="106" spans="1:15" ht="15.4">
+    <row r="106" spans="1:15" ht="16">
       <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
@@ -7481,7 +7478,7 @@
       </c>
       <c r="O106" s="10"/>
     </row>
-    <row r="107" spans="1:15" ht="15.4">
+    <row r="107" spans="1:15" ht="16">
       <c r="A107" s="7" t="s">
         <v>0</v>
       </c>
@@ -7526,7 +7523,7 @@
       </c>
       <c r="O107" s="10"/>
     </row>
-    <row r="108" spans="1:15" ht="15.4">
+    <row r="108" spans="1:15" ht="16">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -7571,7 +7568,7 @@
       </c>
       <c r="O108" s="10"/>
     </row>
-    <row r="109" spans="1:15" ht="15.4">
+    <row r="109" spans="1:15" ht="16">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -7616,7 +7613,7 @@
       </c>
       <c r="O109" s="10"/>
     </row>
-    <row r="110" spans="1:15" ht="15.4">
+    <row r="110" spans="1:15" ht="16">
       <c r="A110" s="7" t="s">
         <v>0</v>
       </c>
@@ -7661,7 +7658,7 @@
       </c>
       <c r="O110" s="10"/>
     </row>
-    <row r="111" spans="1:15" ht="15.4">
+    <row r="111" spans="1:15" ht="16">
       <c r="A111" s="7" t="s">
         <v>0</v>
       </c>
@@ -7706,7 +7703,7 @@
       </c>
       <c r="O111" s="10"/>
     </row>
-    <row r="112" spans="1:15" ht="15.4">
+    <row r="112" spans="1:15" ht="16">
       <c r="A112" s="7" t="s">
         <v>0</v>
       </c>
@@ -7751,7 +7748,7 @@
       </c>
       <c r="O112" s="10"/>
     </row>
-    <row r="113" spans="1:15" ht="15.4">
+    <row r="113" spans="1:15" ht="16">
       <c r="A113" s="7" t="s">
         <v>0</v>
       </c>
@@ -7796,7 +7793,7 @@
       </c>
       <c r="O113" s="10"/>
     </row>
-    <row r="114" spans="1:15" ht="15.4">
+    <row r="114" spans="1:15" ht="16">
       <c r="A114" s="7" t="s">
         <v>0</v>
       </c>
@@ -7841,7 +7838,7 @@
       </c>
       <c r="O114" s="10"/>
     </row>
-    <row r="115" spans="1:15" ht="15.4">
+    <row r="115" spans="1:15" ht="16">
       <c r="A115" s="7" t="s">
         <v>0</v>
       </c>
@@ -7886,7 +7883,7 @@
       </c>
       <c r="O115" s="10"/>
     </row>
-    <row r="116" spans="1:15" ht="15.4">
+    <row r="116" spans="1:15" ht="16">
       <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
@@ -7931,7 +7928,7 @@
       </c>
       <c r="O116" s="10"/>
     </row>
-    <row r="117" spans="1:15" ht="15.4">
+    <row r="117" spans="1:15" ht="16">
       <c r="A117" s="7" t="s">
         <v>0</v>
       </c>
@@ -7976,7 +7973,7 @@
       </c>
       <c r="O117" s="10"/>
     </row>
-    <row r="118" spans="1:15" ht="15.4">
+    <row r="118" spans="1:15" ht="16">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -8023,7 +8020,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15.4">
+    <row r="119" spans="1:15" ht="16">
       <c r="A119" s="7" t="s">
         <v>0</v>
       </c>
@@ -8068,7 +8065,7 @@
       </c>
       <c r="O119" s="10"/>
     </row>
-    <row r="120" spans="1:15" ht="15.4">
+    <row r="120" spans="1:15" ht="16">
       <c r="A120" s="7" t="s">
         <v>0</v>
       </c>
@@ -8113,7 +8110,7 @@
       </c>
       <c r="O120" s="10"/>
     </row>
-    <row r="121" spans="1:15" ht="15.4">
+    <row r="121" spans="1:15" ht="16">
       <c r="A121" s="7" t="s">
         <v>0</v>
       </c>
@@ -8158,7 +8155,7 @@
       </c>
       <c r="O121" s="10"/>
     </row>
-    <row r="122" spans="1:15" ht="15.4">
+    <row r="122" spans="1:15" ht="16">
       <c r="A122" s="7" t="s">
         <v>0</v>
       </c>
@@ -8203,7 +8200,7 @@
       </c>
       <c r="O122" s="10"/>
     </row>
-    <row r="123" spans="1:15" ht="15.4">
+    <row r="123" spans="1:15" ht="16">
       <c r="A123" s="7" t="s">
         <v>0</v>
       </c>
@@ -8250,7 +8247,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15.4">
+    <row r="124" spans="1:15" ht="16">
       <c r="A124" s="7" t="s">
         <v>0</v>
       </c>
@@ -8295,7 +8292,7 @@
       </c>
       <c r="O124" s="10"/>
     </row>
-    <row r="125" spans="1:15" ht="15.4">
+    <row r="125" spans="1:15" ht="16">
       <c r="A125" s="7" t="s">
         <v>5</v>
       </c>
@@ -8340,7 +8337,7 @@
       </c>
       <c r="O125" s="10"/>
     </row>
-    <row r="126" spans="1:15" ht="15.4">
+    <row r="126" spans="1:15" ht="16">
       <c r="A126" s="7" t="s">
         <v>5</v>
       </c>
@@ -8385,7 +8382,7 @@
       </c>
       <c r="O126" s="10"/>
     </row>
-    <row r="127" spans="1:15" ht="15.4">
+    <row r="127" spans="1:15" ht="16">
       <c r="A127" s="7" t="s">
         <v>5</v>
       </c>
@@ -8430,7 +8427,7 @@
       </c>
       <c r="O127" s="10"/>
     </row>
-    <row r="128" spans="1:15" ht="15.4">
+    <row r="128" spans="1:15" ht="16">
       <c r="A128" s="7" t="s">
         <v>5</v>
       </c>
@@ -8475,7 +8472,7 @@
       </c>
       <c r="O128" s="10"/>
     </row>
-    <row r="129" spans="1:15" ht="15.4">
+    <row r="129" spans="1:15" ht="16">
       <c r="A129" s="7" t="s">
         <v>5</v>
       </c>
@@ -8520,7 +8517,7 @@
       </c>
       <c r="O129" s="10"/>
     </row>
-    <row r="130" spans="1:15" ht="15.4">
+    <row r="130" spans="1:15" ht="16">
       <c r="A130" s="7" t="s">
         <v>5</v>
       </c>
@@ -8565,7 +8562,7 @@
       </c>
       <c r="O130" s="10"/>
     </row>
-    <row r="131" spans="1:15" ht="15.4">
+    <row r="131" spans="1:15" ht="16">
       <c r="A131" s="7" t="s">
         <v>5</v>
       </c>
@@ -8610,7 +8607,7 @@
       </c>
       <c r="O131" s="10"/>
     </row>
-    <row r="132" spans="1:15" ht="15.4">
+    <row r="132" spans="1:15" ht="16">
       <c r="A132" s="7" t="s">
         <v>5</v>
       </c>
@@ -8655,7 +8652,7 @@
       </c>
       <c r="O132" s="10"/>
     </row>
-    <row r="133" spans="1:15" ht="15.4">
+    <row r="133" spans="1:15" ht="16">
       <c r="A133" s="7" t="s">
         <v>5</v>
       </c>
@@ -8700,7 +8697,7 @@
       </c>
       <c r="O133" s="10"/>
     </row>
-    <row r="134" spans="1:15" ht="15.4">
+    <row r="134" spans="1:15" ht="16">
       <c r="A134" s="7" t="s">
         <v>5</v>
       </c>
@@ -8745,7 +8742,7 @@
       </c>
       <c r="O134" s="10"/>
     </row>
-    <row r="135" spans="1:15" ht="15.4">
+    <row r="135" spans="1:15" ht="16">
       <c r="A135" s="7" t="s">
         <v>5</v>
       </c>
@@ -8790,7 +8787,7 @@
       </c>
       <c r="O135" s="10"/>
     </row>
-    <row r="136" spans="1:15" ht="15.4">
+    <row r="136" spans="1:15" ht="16">
       <c r="A136" s="7" t="s">
         <v>5</v>
       </c>
@@ -8835,7 +8832,7 @@
       </c>
       <c r="O136" s="10"/>
     </row>
-    <row r="137" spans="1:15" ht="15.4">
+    <row r="137" spans="1:15" ht="16">
       <c r="A137" s="7" t="s">
         <v>5</v>
       </c>
@@ -8880,7 +8877,7 @@
       </c>
       <c r="O137" s="10"/>
     </row>
-    <row r="138" spans="1:15" ht="15.4">
+    <row r="138" spans="1:15" ht="16">
       <c r="A138" s="7" t="s">
         <v>5</v>
       </c>
@@ -8925,7 +8922,7 @@
       </c>
       <c r="O138" s="10"/>
     </row>
-    <row r="139" spans="1:15" ht="15.4">
+    <row r="139" spans="1:15" ht="16">
       <c r="A139" s="7" t="s">
         <v>5</v>
       </c>
@@ -8970,7 +8967,7 @@
       </c>
       <c r="O139" s="10"/>
     </row>
-    <row r="140" spans="1:15" ht="15.4">
+    <row r="140" spans="1:15" ht="16">
       <c r="A140" s="7" t="s">
         <v>5</v>
       </c>
@@ -9015,7 +9012,7 @@
       </c>
       <c r="O140" s="10"/>
     </row>
-    <row r="141" spans="1:15" ht="15.4">
+    <row r="141" spans="1:15" ht="16">
       <c r="A141" s="7" t="s">
         <v>5</v>
       </c>
@@ -9060,7 +9057,7 @@
       </c>
       <c r="O141" s="10"/>
     </row>
-    <row r="142" spans="1:15" ht="15.4">
+    <row r="142" spans="1:15" ht="16">
       <c r="A142" s="7" t="s">
         <v>5</v>
       </c>
@@ -9105,7 +9102,7 @@
       </c>
       <c r="O142" s="10"/>
     </row>
-    <row r="143" spans="1:15" ht="15.4">
+    <row r="143" spans="1:15" ht="16">
       <c r="A143" s="7" t="s">
         <v>5</v>
       </c>
@@ -9150,7 +9147,7 @@
       </c>
       <c r="O143" s="10"/>
     </row>
-    <row r="144" spans="1:15" ht="15.4">
+    <row r="144" spans="1:15" ht="16">
       <c r="A144" s="7" t="s">
         <v>5</v>
       </c>
@@ -9195,7 +9192,7 @@
       </c>
       <c r="O144" s="10"/>
     </row>
-    <row r="145" spans="1:15" ht="15.4">
+    <row r="145" spans="1:15" ht="16">
       <c r="A145" s="7" t="s">
         <v>5</v>
       </c>
@@ -9240,7 +9237,7 @@
       </c>
       <c r="O145" s="10"/>
     </row>
-    <row r="146" spans="1:15" ht="15.4">
+    <row r="146" spans="1:15" ht="16">
       <c r="A146" s="7" t="s">
         <v>5</v>
       </c>
@@ -9285,7 +9282,7 @@
       </c>
       <c r="O146" s="10"/>
     </row>
-    <row r="147" spans="1:15" ht="15.4">
+    <row r="147" spans="1:15" ht="16">
       <c r="A147" s="7" t="s">
         <v>5</v>
       </c>
@@ -9330,7 +9327,7 @@
       </c>
       <c r="O147" s="10"/>
     </row>
-    <row r="148" spans="1:15" ht="15.4">
+    <row r="148" spans="1:15" ht="16">
       <c r="A148" s="7" t="s">
         <v>5</v>
       </c>
@@ -9375,7 +9372,7 @@
       </c>
       <c r="O148" s="10"/>
     </row>
-    <row r="149" spans="1:15" ht="15.4">
+    <row r="149" spans="1:15" ht="16">
       <c r="A149" s="7" t="s">
         <v>5</v>
       </c>
@@ -9420,7 +9417,7 @@
       </c>
       <c r="O149" s="10"/>
     </row>
-    <row r="150" spans="1:15" ht="15.4">
+    <row r="150" spans="1:15" ht="16">
       <c r="A150" s="7" t="s">
         <v>5</v>
       </c>
@@ -9465,7 +9462,7 @@
       </c>
       <c r="O150" s="10"/>
     </row>
-    <row r="151" spans="1:15" ht="15.4">
+    <row r="151" spans="1:15" ht="16">
       <c r="A151" s="7" t="s">
         <v>5</v>
       </c>
@@ -9510,7 +9507,7 @@
       </c>
       <c r="O151" s="10"/>
     </row>
-    <row r="152" spans="1:15" ht="15.4">
+    <row r="152" spans="1:15" ht="16">
       <c r="A152" s="7" t="s">
         <v>5</v>
       </c>
@@ -9555,7 +9552,7 @@
       </c>
       <c r="O152" s="10"/>
     </row>
-    <row r="153" spans="1:15" ht="15.4">
+    <row r="153" spans="1:15" ht="16">
       <c r="A153" s="7" t="s">
         <v>5</v>
       </c>
@@ -9600,7 +9597,7 @@
       </c>
       <c r="O153" s="10"/>
     </row>
-    <row r="154" spans="1:15" ht="15.4">
+    <row r="154" spans="1:15" ht="16">
       <c r="A154" s="7" t="s">
         <v>5</v>
       </c>
@@ -9645,7 +9642,7 @@
       </c>
       <c r="O154" s="10"/>
     </row>
-    <row r="155" spans="1:15" ht="15.4">
+    <row r="155" spans="1:15" ht="16">
       <c r="A155" s="7" t="s">
         <v>5</v>
       </c>
@@ -9690,7 +9687,7 @@
       </c>
       <c r="O155" s="10"/>
     </row>
-    <row r="156" spans="1:15" ht="15.4">
+    <row r="156" spans="1:15" ht="16">
       <c r="A156" s="7" t="s">
         <v>5</v>
       </c>
@@ -9735,7 +9732,7 @@
       </c>
       <c r="O156" s="10"/>
     </row>
-    <row r="157" spans="1:15" ht="15.4">
+    <row r="157" spans="1:15" ht="16">
       <c r="A157" s="7" t="s">
         <v>5</v>
       </c>
@@ -9780,7 +9777,7 @@
       </c>
       <c r="O157" s="10"/>
     </row>
-    <row r="158" spans="1:15" ht="15.4">
+    <row r="158" spans="1:15" ht="16">
       <c r="A158" s="77" t="s">
         <v>1</v>
       </c>
@@ -9827,7 +9824,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15.4">
+    <row r="159" spans="1:15" ht="16">
       <c r="A159" s="77" t="s">
         <v>1</v>
       </c>
@@ -9874,7 +9871,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15.4">
+    <row r="160" spans="1:15" ht="16">
       <c r="A160" s="77" t="s">
         <v>1</v>
       </c>
@@ -9921,7 +9918,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15.4">
+    <row r="161" spans="1:15" ht="16">
       <c r="A161" s="77" t="s">
         <v>1</v>
       </c>
@@ -9968,7 +9965,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15.4">
+    <row r="162" spans="1:15" ht="16">
       <c r="A162" s="77" t="s">
         <v>1</v>
       </c>
@@ -10015,7 +10012,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="15.4">
+    <row r="163" spans="1:15" ht="16">
       <c r="A163" s="77" t="s">
         <v>1</v>
       </c>
@@ -10062,7 +10059,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="15.4">
+    <row r="164" spans="1:15" ht="16">
       <c r="A164" s="77" t="s">
         <v>1</v>
       </c>
@@ -10109,7 +10106,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15.4">
+    <row r="165" spans="1:15" ht="16">
       <c r="A165" s="77" t="s">
         <v>1</v>
       </c>
@@ -10156,7 +10153,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="15.4">
+    <row r="166" spans="1:15" ht="16">
       <c r="A166" s="77" t="s">
         <v>1</v>
       </c>
@@ -10203,7 +10200,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15.4">
+    <row r="167" spans="1:15" ht="16">
       <c r="A167" s="77" t="s">
         <v>1</v>
       </c>
@@ -10250,7 +10247,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15.4">
+    <row r="168" spans="1:15" ht="16">
       <c r="A168" s="77" t="s">
         <v>1</v>
       </c>
@@ -10297,7 +10294,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15.4">
+    <row r="169" spans="1:15" ht="16">
       <c r="A169" s="77" t="s">
         <v>1</v>
       </c>
@@ -10344,7 +10341,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15.4">
+    <row r="170" spans="1:15" ht="16">
       <c r="A170" s="77" t="s">
         <v>1</v>
       </c>
@@ -10391,7 +10388,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="15.4">
+    <row r="171" spans="1:15" ht="16">
       <c r="A171" s="77" t="s">
         <v>1</v>
       </c>
@@ -10438,7 +10435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15.4">
+    <row r="172" spans="1:15" ht="16">
       <c r="A172" s="77" t="s">
         <v>1</v>
       </c>
@@ -10485,7 +10482,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15.4">
+    <row r="173" spans="1:15" ht="16">
       <c r="A173" s="77" t="s">
         <v>1</v>
       </c>
@@ -10532,7 +10529,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15.4">
+    <row r="174" spans="1:15" ht="16">
       <c r="A174" s="77" t="s">
         <v>1</v>
       </c>
@@ -10579,7 +10576,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15.4">
+    <row r="175" spans="1:15" ht="16">
       <c r="A175" s="77" t="s">
         <v>1</v>
       </c>
@@ -10626,7 +10623,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15.4">
+    <row r="176" spans="1:15" ht="16">
       <c r="A176" s="77" t="s">
         <v>1</v>
       </c>
@@ -10673,7 +10670,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="15.4">
+    <row r="177" spans="1:15" ht="16">
       <c r="A177" s="77" t="s">
         <v>1</v>
       </c>
@@ -10720,7 +10717,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15.4">
+    <row r="178" spans="1:15" ht="16">
       <c r="A178" s="77" t="s">
         <v>1</v>
       </c>
@@ -10767,7 +10764,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15.4">
+    <row r="179" spans="1:15" ht="16">
       <c r="A179" s="77" t="s">
         <v>1</v>
       </c>
@@ -10814,7 +10811,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15.4">
+    <row r="180" spans="1:15" ht="16">
       <c r="A180" s="77" t="s">
         <v>1</v>
       </c>
@@ -10861,7 +10858,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15.4">
+    <row r="181" spans="1:15" ht="16">
       <c r="A181" s="77" t="s">
         <v>1</v>
       </c>
@@ -10908,7 +10905,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15.4">
+    <row r="182" spans="1:15" ht="16">
       <c r="A182" s="77" t="s">
         <v>1</v>
       </c>
@@ -10955,7 +10952,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15.4">
+    <row r="183" spans="1:15" ht="16">
       <c r="A183" s="77" t="s">
         <v>1</v>
       </c>
@@ -11002,7 +10999,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15.4">
+    <row r="184" spans="1:15" ht="16">
       <c r="A184" s="77" t="s">
         <v>1</v>
       </c>
@@ -11049,7 +11046,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15.4">
+    <row r="185" spans="1:15" ht="16">
       <c r="A185" s="77" t="s">
         <v>1</v>
       </c>
@@ -11096,7 +11093,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15.4">
+    <row r="186" spans="1:15" ht="16">
       <c r="A186" s="77" t="s">
         <v>1</v>
       </c>
@@ -11143,7 +11140,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15.4">
+    <row r="187" spans="1:15" ht="16">
       <c r="A187" s="77" t="s">
         <v>1</v>
       </c>
@@ -11190,7 +11187,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15.4">
+    <row r="188" spans="1:15" ht="16">
       <c r="A188" s="77" t="s">
         <v>1</v>
       </c>
@@ -11237,7 +11234,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15.4">
+    <row r="189" spans="1:15" ht="16">
       <c r="A189" s="77" t="s">
         <v>1</v>
       </c>
@@ -11284,7 +11281,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15.4">
+    <row r="190" spans="1:15" ht="16">
       <c r="A190" s="77" t="s">
         <v>1</v>
       </c>
@@ -11331,7 +11328,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15.4">
+    <row r="191" spans="1:15" ht="16">
       <c r="A191" s="77" t="s">
         <v>1</v>
       </c>
@@ -11378,7 +11375,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15.4">
+    <row r="192" spans="1:15" ht="16">
       <c r="A192" s="77" t="s">
         <v>1</v>
       </c>
@@ -11425,7 +11422,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15.4">
+    <row r="193" spans="1:15" ht="16">
       <c r="A193" s="77" t="s">
         <v>1</v>
       </c>
@@ -11472,7 +11469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15.4">
+    <row r="194" spans="1:15" ht="16">
       <c r="A194" s="77" t="s">
         <v>1</v>
       </c>
@@ -11519,7 +11516,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15.4">
+    <row r="195" spans="1:15" ht="16">
       <c r="A195" s="77" t="s">
         <v>1</v>
       </c>
@@ -11566,7 +11563,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15.4">
+    <row r="196" spans="1:15" ht="16">
       <c r="A196" s="77" t="s">
         <v>1</v>
       </c>
@@ -11613,7 +11610,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="15.4">
+    <row r="197" spans="1:15" ht="16">
       <c r="A197" s="77" t="s">
         <v>1</v>
       </c>
@@ -11660,7 +11657,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15.4">
+    <row r="198" spans="1:15" ht="16">
       <c r="A198" s="77" t="s">
         <v>1</v>
       </c>
@@ -11707,7 +11704,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15.4">
+    <row r="199" spans="1:15" ht="16">
       <c r="A199" s="77" t="s">
         <v>1</v>
       </c>
@@ -11754,7 +11751,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15.4">
+    <row r="200" spans="1:15" ht="16">
       <c r="A200" s="7" t="s">
         <v>4</v>
       </c>
@@ -11799,7 +11796,7 @@
       </c>
       <c r="O200" s="11"/>
     </row>
-    <row r="201" spans="1:15" ht="15.4">
+    <row r="201" spans="1:15" ht="16">
       <c r="A201" s="7" t="s">
         <v>4</v>
       </c>
@@ -11844,7 +11841,7 @@
       </c>
       <c r="O201" s="11"/>
     </row>
-    <row r="202" spans="1:15" ht="15.4">
+    <row r="202" spans="1:15" ht="16">
       <c r="A202" s="7" t="s">
         <v>4</v>
       </c>
@@ -11889,7 +11886,7 @@
       </c>
       <c r="O202" s="11"/>
     </row>
-    <row r="203" spans="1:15" ht="15.4">
+    <row r="203" spans="1:15" ht="16">
       <c r="A203" s="7" t="s">
         <v>4</v>
       </c>
@@ -11934,7 +11931,7 @@
       </c>
       <c r="O203" s="11"/>
     </row>
-    <row r="204" spans="1:15" ht="15.4">
+    <row r="204" spans="1:15" ht="16">
       <c r="A204" s="7" t="s">
         <v>4</v>
       </c>
@@ -11979,7 +11976,7 @@
       </c>
       <c r="O204" s="11"/>
     </row>
-    <row r="205" spans="1:15" ht="15.4">
+    <row r="205" spans="1:15" ht="16">
       <c r="A205" s="7" t="s">
         <v>4</v>
       </c>
@@ -12024,7 +12021,7 @@
       </c>
       <c r="O205" s="11"/>
     </row>
-    <row r="206" spans="1:15" ht="15.4">
+    <row r="206" spans="1:15" ht="16">
       <c r="A206" s="7" t="s">
         <v>4</v>
       </c>
@@ -12069,7 +12066,7 @@
       </c>
       <c r="O206" s="11"/>
     </row>
-    <row r="207" spans="1:15" ht="15.4">
+    <row r="207" spans="1:15" ht="16">
       <c r="A207" s="7" t="s">
         <v>4</v>
       </c>
@@ -12114,7 +12111,7 @@
       </c>
       <c r="O207" s="11"/>
     </row>
-    <row r="208" spans="1:15" ht="15.4">
+    <row r="208" spans="1:15" ht="16">
       <c r="A208" s="7" t="s">
         <v>4</v>
       </c>
@@ -12159,7 +12156,7 @@
       </c>
       <c r="O208" s="11"/>
     </row>
-    <row r="209" spans="1:15" ht="15.4">
+    <row r="209" spans="1:15" ht="16">
       <c r="A209" s="7" t="s">
         <v>4</v>
       </c>
@@ -12204,7 +12201,7 @@
       </c>
       <c r="O209" s="11"/>
     </row>
-    <row r="210" spans="1:15" ht="15.4">
+    <row r="210" spans="1:15" ht="16">
       <c r="A210" s="7" t="s">
         <v>4</v>
       </c>
@@ -12249,7 +12246,7 @@
       </c>
       <c r="O210" s="11"/>
     </row>
-    <row r="211" spans="1:15" ht="15.4">
+    <row r="211" spans="1:15" ht="16">
       <c r="A211" s="7" t="s">
         <v>4</v>
       </c>
@@ -12294,7 +12291,7 @@
       </c>
       <c r="O211" s="11"/>
     </row>
-    <row r="212" spans="1:15" ht="15.4">
+    <row r="212" spans="1:15" ht="16">
       <c r="A212" s="7" t="s">
         <v>4</v>
       </c>
@@ -12339,7 +12336,7 @@
       </c>
       <c r="O212" s="11"/>
     </row>
-    <row r="213" spans="1:15" ht="15.4">
+    <row r="213" spans="1:15" ht="16">
       <c r="A213" s="7" t="s">
         <v>4</v>
       </c>
@@ -12384,7 +12381,7 @@
       </c>
       <c r="O213" s="11"/>
     </row>
-    <row r="214" spans="1:15" ht="15.4">
+    <row r="214" spans="1:15" ht="16">
       <c r="A214" s="7" t="s">
         <v>4</v>
       </c>
@@ -12429,7 +12426,7 @@
       </c>
       <c r="O214" s="11"/>
     </row>
-    <row r="215" spans="1:15" ht="15.4">
+    <row r="215" spans="1:15" ht="16">
       <c r="A215" s="7" t="s">
         <v>4</v>
       </c>
@@ -12474,7 +12471,7 @@
       </c>
       <c r="O215" s="11"/>
     </row>
-    <row r="216" spans="1:15" ht="15.4">
+    <row r="216" spans="1:15" ht="16">
       <c r="A216" s="7" t="s">
         <v>4</v>
       </c>
@@ -12519,7 +12516,7 @@
       </c>
       <c r="O216" s="11"/>
     </row>
-    <row r="217" spans="1:15" ht="15.4">
+    <row r="217" spans="1:15" ht="16">
       <c r="A217" s="7" t="s">
         <v>4</v>
       </c>
@@ -12564,7 +12561,7 @@
       </c>
       <c r="O217" s="11"/>
     </row>
-    <row r="218" spans="1:15" ht="15.4">
+    <row r="218" spans="1:15" ht="16">
       <c r="A218" s="7" t="s">
         <v>4</v>
       </c>
@@ -12609,7 +12606,7 @@
       </c>
       <c r="O218" s="11"/>
     </row>
-    <row r="219" spans="1:15" ht="15.4">
+    <row r="219" spans="1:15" ht="16">
       <c r="A219" s="7" t="s">
         <v>4</v>
       </c>
@@ -12654,7 +12651,7 @@
       </c>
       <c r="O219" s="11"/>
     </row>
-    <row r="220" spans="1:15" ht="15.4">
+    <row r="220" spans="1:15" ht="16">
       <c r="A220" s="7" t="s">
         <v>4</v>
       </c>
@@ -12699,7 +12696,7 @@
       </c>
       <c r="O220" s="11"/>
     </row>
-    <row r="221" spans="1:15" ht="15.4">
+    <row r="221" spans="1:15" ht="16">
       <c r="A221" s="7" t="s">
         <v>4</v>
       </c>
@@ -12744,7 +12741,7 @@
       </c>
       <c r="O221" s="11"/>
     </row>
-    <row r="222" spans="1:15" ht="15.4">
+    <row r="222" spans="1:15" ht="16">
       <c r="A222" s="7" t="s">
         <v>4</v>
       </c>
@@ -12789,7 +12786,7 @@
       </c>
       <c r="O222" s="11"/>
     </row>
-    <row r="223" spans="1:15" ht="15.4">
+    <row r="223" spans="1:15" ht="16">
       <c r="A223" s="7" t="s">
         <v>4</v>
       </c>
@@ -12834,7 +12831,7 @@
       </c>
       <c r="O223" s="11"/>
     </row>
-    <row r="224" spans="1:15" ht="15.4">
+    <row r="224" spans="1:15" ht="16">
       <c r="A224" s="7" t="s">
         <v>4</v>
       </c>
@@ -12879,7 +12876,7 @@
       </c>
       <c r="O224" s="11"/>
     </row>
-    <row r="225" spans="1:15" ht="15.4">
+    <row r="225" spans="1:15" ht="16">
       <c r="A225" s="7" t="s">
         <v>4</v>
       </c>
@@ -12924,7 +12921,7 @@
       </c>
       <c r="O225" s="11"/>
     </row>
-    <row r="226" spans="1:15" ht="15.4">
+    <row r="226" spans="1:15" ht="16">
       <c r="A226" s="7" t="s">
         <v>4</v>
       </c>
@@ -12969,7 +12966,7 @@
       </c>
       <c r="O226" s="11"/>
     </row>
-    <row r="227" spans="1:15" ht="15.4">
+    <row r="227" spans="1:15" ht="16">
       <c r="A227" s="7" t="s">
         <v>4</v>
       </c>
@@ -13014,7 +13011,7 @@
       </c>
       <c r="O227" s="11"/>
     </row>
-    <row r="228" spans="1:15" ht="15.4">
+    <row r="228" spans="1:15" ht="16">
       <c r="A228" s="7" t="s">
         <v>4</v>
       </c>
@@ -13059,7 +13056,7 @@
       </c>
       <c r="O228" s="11"/>
     </row>
-    <row r="229" spans="1:15" ht="15.4">
+    <row r="229" spans="1:15" ht="16">
       <c r="A229" s="7" t="s">
         <v>4</v>
       </c>
@@ -13104,7 +13101,7 @@
       </c>
       <c r="O229" s="11"/>
     </row>
-    <row r="230" spans="1:15" ht="15.4">
+    <row r="230" spans="1:15" ht="16">
       <c r="A230" s="7" t="s">
         <v>4</v>
       </c>
@@ -13149,7 +13146,7 @@
       </c>
       <c r="O230" s="11"/>
     </row>
-    <row r="231" spans="1:15" ht="15.4">
+    <row r="231" spans="1:15" ht="16">
       <c r="A231" s="7" t="s">
         <v>4</v>
       </c>
@@ -13194,7 +13191,7 @@
       </c>
       <c r="O231" s="11"/>
     </row>
-    <row r="232" spans="1:15" ht="15.4">
+    <row r="232" spans="1:15" ht="16">
       <c r="A232" s="7" t="s">
         <v>4</v>
       </c>
@@ -13239,7 +13236,7 @@
       </c>
       <c r="O232" s="11"/>
     </row>
-    <row r="233" spans="1:15" ht="15.4">
+    <row r="233" spans="1:15" ht="16">
       <c r="A233" s="7" t="s">
         <v>4</v>
       </c>
@@ -13284,7 +13281,7 @@
       </c>
       <c r="O233" s="11"/>
     </row>
-    <row r="234" spans="1:15" ht="15.4">
+    <row r="234" spans="1:15" ht="16">
       <c r="A234" s="7" t="s">
         <v>4</v>
       </c>
@@ -13329,7 +13326,7 @@
       </c>
       <c r="O234" s="11"/>
     </row>
-    <row r="235" spans="1:15" ht="15.4">
+    <row r="235" spans="1:15" ht="16">
       <c r="A235" s="7" t="s">
         <v>4</v>
       </c>
@@ -13374,7 +13371,7 @@
       </c>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:15" ht="15.4">
+    <row r="236" spans="1:15" ht="16">
       <c r="A236" s="7" t="s">
         <v>4</v>
       </c>
@@ -13419,7 +13416,7 @@
       </c>
       <c r="O236" s="11"/>
     </row>
-    <row r="237" spans="1:15" ht="15.4">
+    <row r="237" spans="1:15" ht="16">
       <c r="A237" s="7" t="s">
         <v>4</v>
       </c>
@@ -13464,7 +13461,7 @@
       </c>
       <c r="O237" s="11"/>
     </row>
-    <row r="238" spans="1:15" ht="15.4">
+    <row r="238" spans="1:15" ht="16">
       <c r="A238" s="7" t="s">
         <v>4</v>
       </c>
@@ -13509,7 +13506,7 @@
       </c>
       <c r="O238" s="11"/>
     </row>
-    <row r="239" spans="1:15" ht="15.4">
+    <row r="239" spans="1:15" ht="16">
       <c r="A239" s="7" t="s">
         <v>4</v>
       </c>
@@ -13554,7 +13551,7 @@
       </c>
       <c r="O239" s="11"/>
     </row>
-    <row r="240" spans="1:15" ht="15.4">
+    <row r="240" spans="1:15" ht="16">
       <c r="A240" s="7" t="s">
         <v>4</v>
       </c>
@@ -13599,7 +13596,7 @@
       </c>
       <c r="O240" s="11"/>
     </row>
-    <row r="241" spans="1:15" ht="15.4">
+    <row r="241" spans="1:15" ht="16">
       <c r="A241" s="7" t="s">
         <v>4</v>
       </c>
@@ -13644,7 +13641,7 @@
       </c>
       <c r="O241" s="11"/>
     </row>
-    <row r="242" spans="1:15" ht="15.4">
+    <row r="242" spans="1:15" ht="16">
       <c r="A242" s="7" t="s">
         <v>4</v>
       </c>
@@ -13689,7 +13686,7 @@
       </c>
       <c r="O242" s="11"/>
     </row>
-    <row r="243" spans="1:15" ht="15.4">
+    <row r="243" spans="1:15" ht="16">
       <c r="A243" s="7" t="s">
         <v>4</v>
       </c>
@@ -13734,7 +13731,7 @@
       </c>
       <c r="O243" s="11"/>
     </row>
-    <row r="244" spans="1:15" ht="15.4">
+    <row r="244" spans="1:15" ht="16">
       <c r="A244" s="7" t="s">
         <v>4</v>
       </c>
@@ -13779,7 +13776,7 @@
       </c>
       <c r="O244" s="11"/>
     </row>
-    <row r="245" spans="1:15" ht="15.4">
+    <row r="245" spans="1:15" ht="16">
       <c r="A245" s="7" t="s">
         <v>4</v>
       </c>
@@ -13824,7 +13821,7 @@
       </c>
       <c r="O245" s="11"/>
     </row>
-    <row r="246" spans="1:15" ht="15.4">
+    <row r="246" spans="1:15" ht="16">
       <c r="A246" s="7" t="s">
         <v>4</v>
       </c>
@@ -13869,7 +13866,7 @@
       </c>
       <c r="O246" s="11"/>
     </row>
-    <row r="247" spans="1:15" ht="15.4">
+    <row r="247" spans="1:15" ht="16">
       <c r="A247" s="7" t="s">
         <v>4</v>
       </c>
@@ -13914,7 +13911,7 @@
       </c>
       <c r="O247" s="11"/>
     </row>
-    <row r="248" spans="1:15" ht="15.4">
+    <row r="248" spans="1:15" ht="16">
       <c r="A248" s="7" t="s">
         <v>4</v>
       </c>
@@ -13959,7 +13956,7 @@
       </c>
       <c r="O248" s="11"/>
     </row>
-    <row r="249" spans="1:15" ht="15.4">
+    <row r="249" spans="1:15" ht="16">
       <c r="A249" s="7" t="s">
         <v>4</v>
       </c>
@@ -14004,7 +14001,7 @@
       </c>
       <c r="O249" s="11"/>
     </row>
-    <row r="250" spans="1:15" ht="15.4">
+    <row r="250" spans="1:15" ht="16">
       <c r="A250" s="7" t="s">
         <v>4</v>
       </c>
@@ -14049,7 +14046,7 @@
       </c>
       <c r="O250" s="11"/>
     </row>
-    <row r="251" spans="1:15" ht="15.4">
+    <row r="251" spans="1:15" ht="16">
       <c r="A251" s="7" t="s">
         <v>4</v>
       </c>
@@ -14094,7 +14091,7 @@
       </c>
       <c r="O251" s="11"/>
     </row>
-    <row r="252" spans="1:15" ht="15.4">
+    <row r="252" spans="1:15" ht="16">
       <c r="A252" s="7" t="s">
         <v>4</v>
       </c>
@@ -14139,7 +14136,7 @@
       </c>
       <c r="O252" s="11"/>
     </row>
-    <row r="253" spans="1:15" ht="15.4">
+    <row r="253" spans="1:15" ht="16">
       <c r="A253" s="7" t="s">
         <v>4</v>
       </c>
@@ -14184,7 +14181,7 @@
       </c>
       <c r="O253" s="11"/>
     </row>
-    <row r="254" spans="1:15" ht="15.4">
+    <row r="254" spans="1:15" ht="16">
       <c r="A254" s="7" t="s">
         <v>4</v>
       </c>
@@ -14229,7 +14226,7 @@
       </c>
       <c r="O254" s="11"/>
     </row>
-    <row r="255" spans="1:15" ht="15.4">
+    <row r="255" spans="1:15" ht="16">
       <c r="A255" s="7" t="s">
         <v>4</v>
       </c>
@@ -14274,7 +14271,7 @@
       </c>
       <c r="O255" s="11"/>
     </row>
-    <row r="256" spans="1:15" ht="15.4">
+    <row r="256" spans="1:15" ht="16">
       <c r="A256" s="7" t="s">
         <v>4</v>
       </c>
@@ -14319,7 +14316,7 @@
       </c>
       <c r="O256" s="11"/>
     </row>
-    <row r="257" spans="1:15" ht="15.4">
+    <row r="257" spans="1:15" ht="16">
       <c r="A257" s="7" t="s">
         <v>4</v>
       </c>
@@ -14364,7 +14361,7 @@
       </c>
       <c r="O257" s="11"/>
     </row>
-    <row r="258" spans="1:15" ht="15.4">
+    <row r="258" spans="1:15" ht="16">
       <c r="A258" s="7" t="s">
         <v>4</v>
       </c>
@@ -14409,7 +14406,7 @@
       </c>
       <c r="O258" s="11"/>
     </row>
-    <row r="259" spans="1:15" ht="15.4">
+    <row r="259" spans="1:15" ht="16">
       <c r="A259" s="7" t="s">
         <v>4</v>
       </c>
@@ -14454,7 +14451,7 @@
       </c>
       <c r="O259" s="11"/>
     </row>
-    <row r="260" spans="1:15" ht="15.4">
+    <row r="260" spans="1:15" ht="16">
       <c r="A260" s="7" t="s">
         <v>4</v>
       </c>
@@ -14499,7 +14496,7 @@
       </c>
       <c r="O260" s="11"/>
     </row>
-    <row r="261" spans="1:15" ht="15.4">
+    <row r="261" spans="1:15" ht="16">
       <c r="A261" s="7" t="s">
         <v>4</v>
       </c>
@@ -14544,7 +14541,7 @@
       </c>
       <c r="O261" s="11"/>
     </row>
-    <row r="262" spans="1:15" ht="15.4">
+    <row r="262" spans="1:15" ht="16">
       <c r="A262" s="7" t="s">
         <v>4</v>
       </c>
@@ -14589,7 +14586,7 @@
       </c>
       <c r="O262" s="11"/>
     </row>
-    <row r="263" spans="1:15" ht="15.4">
+    <row r="263" spans="1:15" ht="16">
       <c r="A263" s="7" t="s">
         <v>4</v>
       </c>
@@ -14634,7 +14631,7 @@
       </c>
       <c r="O263" s="11"/>
     </row>
-    <row r="264" spans="1:15" ht="15.4">
+    <row r="264" spans="1:15" ht="16">
       <c r="A264" s="7" t="s">
         <v>4</v>
       </c>
@@ -14679,7 +14676,7 @@
       </c>
       <c r="O264" s="11"/>
     </row>
-    <row r="265" spans="1:15" ht="15.4">
+    <row r="265" spans="1:15" ht="16">
       <c r="A265" s="7" t="s">
         <v>4</v>
       </c>
@@ -14724,7 +14721,7 @@
       </c>
       <c r="O265" s="11"/>
     </row>
-    <row r="266" spans="1:15" ht="15.4">
+    <row r="266" spans="1:15" ht="16">
       <c r="A266" s="7" t="s">
         <v>4</v>
       </c>
@@ -14769,7 +14766,7 @@
       </c>
       <c r="O266" s="11"/>
     </row>
-    <row r="267" spans="1:15" ht="15.4">
+    <row r="267" spans="1:15" ht="16">
       <c r="A267" s="7" t="s">
         <v>4</v>
       </c>
@@ -14814,7 +14811,7 @@
       </c>
       <c r="O267" s="11"/>
     </row>
-    <row r="268" spans="1:15" ht="15.4">
+    <row r="268" spans="1:15" ht="16">
       <c r="A268" s="7" t="s">
         <v>4</v>
       </c>
@@ -14859,7 +14856,7 @@
       </c>
       <c r="O268" s="11"/>
     </row>
-    <row r="269" spans="1:15" ht="15.4">
+    <row r="269" spans="1:15" ht="16">
       <c r="A269" s="7" t="s">
         <v>4</v>
       </c>
@@ -14904,7 +14901,7 @@
       </c>
       <c r="O269" s="11"/>
     </row>
-    <row r="270" spans="1:15" ht="15.4">
+    <row r="270" spans="1:15" ht="16">
       <c r="A270" s="7" t="s">
         <v>4</v>
       </c>
@@ -14949,7 +14946,7 @@
       </c>
       <c r="O270" s="11"/>
     </row>
-    <row r="271" spans="1:15" ht="15.4">
+    <row r="271" spans="1:15" ht="16">
       <c r="A271" s="7" t="s">
         <v>4</v>
       </c>
@@ -14994,7 +14991,7 @@
       </c>
       <c r="O271" s="11"/>
     </row>
-    <row r="272" spans="1:15" ht="15.4">
+    <row r="272" spans="1:15" ht="16">
       <c r="A272" s="7" t="s">
         <v>4</v>
       </c>
@@ -15039,7 +15036,7 @@
       </c>
       <c r="O272" s="11"/>
     </row>
-    <row r="273" spans="1:15" ht="15.4">
+    <row r="273" spans="1:15" ht="16">
       <c r="A273" s="7" t="s">
         <v>4</v>
       </c>
@@ -15084,7 +15081,7 @@
       </c>
       <c r="O273" s="11"/>
     </row>
-    <row r="274" spans="1:15" ht="15.4">
+    <row r="274" spans="1:15" ht="16">
       <c r="A274" s="7" t="s">
         <v>4</v>
       </c>
@@ -15129,7 +15126,7 @@
       </c>
       <c r="O274" s="11"/>
     </row>
-    <row r="275" spans="1:15" ht="15.4">
+    <row r="275" spans="1:15" ht="16">
       <c r="A275" s="7" t="s">
         <v>4</v>
       </c>
@@ -15174,7 +15171,7 @@
       </c>
       <c r="O275" s="11"/>
     </row>
-    <row r="276" spans="1:15" ht="15.4">
+    <row r="276" spans="1:15" ht="16">
       <c r="A276" s="7" t="s">
         <v>4</v>
       </c>
@@ -15219,7 +15216,7 @@
       </c>
       <c r="O276" s="11"/>
     </row>
-    <row r="277" spans="1:15" ht="15.4">
+    <row r="277" spans="1:15" ht="16">
       <c r="A277" s="7" t="s">
         <v>4</v>
       </c>
@@ -15264,7 +15261,7 @@
       </c>
       <c r="O277" s="11"/>
     </row>
-    <row r="278" spans="1:15" ht="15.4">
+    <row r="278" spans="1:15" ht="16">
       <c r="A278" s="7" t="s">
         <v>3</v>
       </c>
@@ -15309,7 +15306,7 @@
       </c>
       <c r="O278" s="10"/>
     </row>
-    <row r="279" spans="1:15" ht="15.4">
+    <row r="279" spans="1:15" ht="16">
       <c r="A279" s="7" t="s">
         <v>3</v>
       </c>
@@ -15354,7 +15351,7 @@
       </c>
       <c r="O279" s="10"/>
     </row>
-    <row r="280" spans="1:15" ht="15.4">
+    <row r="280" spans="1:15" ht="16">
       <c r="A280" s="7" t="s">
         <v>3</v>
       </c>
@@ -15399,7 +15396,7 @@
       </c>
       <c r="O280" s="10"/>
     </row>
-    <row r="281" spans="1:15" ht="15.4">
+    <row r="281" spans="1:15" ht="16">
       <c r="A281" s="7" t="s">
         <v>3</v>
       </c>
@@ -15444,7 +15441,7 @@
       </c>
       <c r="O281" s="10"/>
     </row>
-    <row r="282" spans="1:15" ht="15.4">
+    <row r="282" spans="1:15" ht="16">
       <c r="A282" s="7" t="s">
         <v>3</v>
       </c>
@@ -15489,7 +15486,7 @@
       </c>
       <c r="O282" s="10"/>
     </row>
-    <row r="283" spans="1:15" ht="15.4">
+    <row r="283" spans="1:15" ht="16">
       <c r="A283" s="7" t="s">
         <v>3</v>
       </c>
@@ -15534,7 +15531,7 @@
       </c>
       <c r="O283" s="10"/>
     </row>
-    <row r="284" spans="1:15" ht="15.4">
+    <row r="284" spans="1:15" ht="16">
       <c r="A284" s="7" t="s">
         <v>3</v>
       </c>
@@ -15579,7 +15576,7 @@
       </c>
       <c r="O284" s="10"/>
     </row>
-    <row r="285" spans="1:15" ht="15.4">
+    <row r="285" spans="1:15" ht="16">
       <c r="A285" s="7" t="s">
         <v>3</v>
       </c>
@@ -15624,7 +15621,7 @@
       </c>
       <c r="O285" s="10"/>
     </row>
-    <row r="286" spans="1:15" ht="15.4">
+    <row r="286" spans="1:15" ht="16">
       <c r="A286" s="7" t="s">
         <v>3</v>
       </c>
@@ -15669,7 +15666,7 @@
       </c>
       <c r="O286" s="10"/>
     </row>
-    <row r="287" spans="1:15" ht="15.4">
+    <row r="287" spans="1:15" ht="16">
       <c r="A287" s="7" t="s">
         <v>3</v>
       </c>
@@ -15714,7 +15711,7 @@
       </c>
       <c r="O287" s="10"/>
     </row>
-    <row r="288" spans="1:15" ht="15.4">
+    <row r="288" spans="1:15" ht="16">
       <c r="A288" s="7" t="s">
         <v>3</v>
       </c>
@@ -15759,7 +15756,7 @@
       </c>
       <c r="O288" s="10"/>
     </row>
-    <row r="289" spans="1:15" ht="15.4">
+    <row r="289" spans="1:15" ht="16">
       <c r="A289" s="7" t="s">
         <v>3</v>
       </c>
@@ -15804,7 +15801,7 @@
       </c>
       <c r="O289" s="10"/>
     </row>
-    <row r="290" spans="1:15" ht="15.4">
+    <row r="290" spans="1:15" ht="16">
       <c r="A290" s="7" t="s">
         <v>3</v>
       </c>
@@ -15849,7 +15846,7 @@
       </c>
       <c r="O290" s="10"/>
     </row>
-    <row r="291" spans="1:15" ht="15.4">
+    <row r="291" spans="1:15" ht="16">
       <c r="A291" s="7" t="s">
         <v>3</v>
       </c>
@@ -15894,7 +15891,7 @@
       </c>
       <c r="O291" s="10"/>
     </row>
-    <row r="292" spans="1:15" ht="15.4">
+    <row r="292" spans="1:15" ht="16">
       <c r="A292" s="7" t="s">
         <v>3</v>
       </c>
@@ -15939,7 +15936,7 @@
       </c>
       <c r="O292" s="10"/>
     </row>
-    <row r="293" spans="1:15" ht="15.4">
+    <row r="293" spans="1:15" ht="16">
       <c r="A293" s="7" t="s">
         <v>3</v>
       </c>
@@ -15984,7 +15981,7 @@
       </c>
       <c r="O293" s="10"/>
     </row>
-    <row r="294" spans="1:15" ht="15.4">
+    <row r="294" spans="1:15" ht="16">
       <c r="A294" s="7" t="s">
         <v>3</v>
       </c>
@@ -16029,7 +16026,7 @@
       </c>
       <c r="O294" s="10"/>
     </row>
-    <row r="295" spans="1:15" ht="15.4">
+    <row r="295" spans="1:15" ht="16">
       <c r="A295" s="7" t="s">
         <v>3</v>
       </c>
@@ -16074,7 +16071,7 @@
       </c>
       <c r="O295" s="10"/>
     </row>
-    <row r="296" spans="1:15" ht="15.4">
+    <row r="296" spans="1:15" ht="16">
       <c r="A296" s="7" t="s">
         <v>3</v>
       </c>
@@ -16119,7 +16116,7 @@
       </c>
       <c r="O296" s="10"/>
     </row>
-    <row r="297" spans="1:15" ht="15.4">
+    <row r="297" spans="1:15" ht="16">
       <c r="A297" s="7" t="s">
         <v>3</v>
       </c>
@@ -16164,7 +16161,7 @@
       </c>
       <c r="O297" s="10"/>
     </row>
-    <row r="298" spans="1:15" ht="15.4">
+    <row r="298" spans="1:15" ht="16">
       <c r="A298" s="7" t="s">
         <v>3</v>
       </c>
@@ -16209,7 +16206,7 @@
       </c>
       <c r="O298" s="10"/>
     </row>
-    <row r="299" spans="1:15" ht="15.4">
+    <row r="299" spans="1:15" ht="16">
       <c r="A299" s="7" t="s">
         <v>3</v>
       </c>
@@ -16254,7 +16251,7 @@
       </c>
       <c r="O299" s="10"/>
     </row>
-    <row r="300" spans="1:15" ht="15.4">
+    <row r="300" spans="1:15" ht="16">
       <c r="A300" s="7" t="s">
         <v>3</v>
       </c>
@@ -16299,7 +16296,7 @@
       </c>
       <c r="O300" s="10"/>
     </row>
-    <row r="301" spans="1:15" ht="15.4">
+    <row r="301" spans="1:15" ht="16">
       <c r="A301" s="7" t="s">
         <v>3</v>
       </c>
@@ -16344,7 +16341,7 @@
       </c>
       <c r="O301" s="10"/>
     </row>
-    <row r="302" spans="1:15" ht="15.4">
+    <row r="302" spans="1:15" ht="16">
       <c r="A302" s="7" t="s">
         <v>3</v>
       </c>
@@ -16389,7 +16386,7 @@
       </c>
       <c r="O302" s="10"/>
     </row>
-    <row r="303" spans="1:15" ht="15.4">
+    <row r="303" spans="1:15" ht="16">
       <c r="A303" s="7" t="s">
         <v>3</v>
       </c>
@@ -16434,7 +16431,7 @@
       </c>
       <c r="O303" s="10"/>
     </row>
-    <row r="304" spans="1:15" ht="15.4">
+    <row r="304" spans="1:15" ht="16">
       <c r="A304" s="7" t="s">
         <v>3</v>
       </c>
@@ -16479,7 +16476,7 @@
       </c>
       <c r="O304" s="10"/>
     </row>
-    <row r="305" spans="1:15" ht="15.4">
+    <row r="305" spans="1:15" ht="16">
       <c r="A305" s="7" t="s">
         <v>3</v>
       </c>
@@ -16524,7 +16521,7 @@
       </c>
       <c r="O305" s="10"/>
     </row>
-    <row r="306" spans="1:15" ht="15.4">
+    <row r="306" spans="1:15" ht="16">
       <c r="A306" s="7" t="s">
         <v>3</v>
       </c>
@@ -16569,7 +16566,7 @@
       </c>
       <c r="O306" s="10"/>
     </row>
-    <row r="307" spans="1:15" ht="15.4">
+    <row r="307" spans="1:15" ht="16">
       <c r="A307" s="7" t="s">
         <v>3</v>
       </c>
@@ -16614,7 +16611,7 @@
       </c>
       <c r="O307" s="10"/>
     </row>
-    <row r="308" spans="1:15" ht="15.4">
+    <row r="308" spans="1:15" ht="16">
       <c r="A308" s="7" t="s">
         <v>3</v>
       </c>
@@ -16659,7 +16656,7 @@
       </c>
       <c r="O308" s="10"/>
     </row>
-    <row r="309" spans="1:15" ht="15.4">
+    <row r="309" spans="1:15" ht="16">
       <c r="A309" s="7" t="s">
         <v>3</v>
       </c>
@@ -16704,7 +16701,7 @@
       </c>
       <c r="O309" s="10"/>
     </row>
-    <row r="310" spans="1:15" ht="15.4">
+    <row r="310" spans="1:15" ht="16">
       <c r="A310" s="7" t="s">
         <v>3</v>
       </c>
@@ -16749,7 +16746,7 @@
       </c>
       <c r="O310" s="10"/>
     </row>
-    <row r="311" spans="1:15" ht="15.4">
+    <row r="311" spans="1:15" ht="16">
       <c r="A311" s="7" t="s">
         <v>3</v>
       </c>
@@ -16794,7 +16791,7 @@
       </c>
       <c r="O311" s="10"/>
     </row>
-    <row r="312" spans="1:15" ht="15.4">
+    <row r="312" spans="1:15" ht="16">
       <c r="A312" s="7" t="s">
         <v>3</v>
       </c>
@@ -16839,7 +16836,7 @@
       </c>
       <c r="O312" s="10"/>
     </row>
-    <row r="313" spans="1:15" ht="15.4">
+    <row r="313" spans="1:15" ht="16">
       <c r="A313" s="7" t="s">
         <v>3</v>
       </c>
@@ -16884,7 +16881,7 @@
       </c>
       <c r="O313" s="10"/>
     </row>
-    <row r="314" spans="1:15" ht="15.4">
+    <row r="314" spans="1:15" ht="16">
       <c r="A314" s="7" t="s">
         <v>3</v>
       </c>
@@ -16929,7 +16926,7 @@
       </c>
       <c r="O314" s="10"/>
     </row>
-    <row r="315" spans="1:15" ht="15.4">
+    <row r="315" spans="1:15" ht="16">
       <c r="A315" s="7" t="s">
         <v>3</v>
       </c>
@@ -16974,7 +16971,7 @@
       </c>
       <c r="O315" s="10"/>
     </row>
-    <row r="316" spans="1:15" ht="15.4">
+    <row r="316" spans="1:15" ht="16">
       <c r="A316" s="7" t="s">
         <v>3</v>
       </c>
@@ -17019,7 +17016,7 @@
       </c>
       <c r="O316" s="10"/>
     </row>
-    <row r="317" spans="1:15" ht="15.4">
+    <row r="317" spans="1:15" ht="16">
       <c r="A317" s="7" t="s">
         <v>3</v>
       </c>
@@ -17064,7 +17061,7 @@
       </c>
       <c r="O317" s="10"/>
     </row>
-    <row r="318" spans="1:15" ht="15.4">
+    <row r="318" spans="1:15" ht="16">
       <c r="A318" s="7" t="s">
         <v>3</v>
       </c>
@@ -17109,7 +17106,7 @@
       </c>
       <c r="O318" s="10"/>
     </row>
-    <row r="319" spans="1:15" ht="15.4">
+    <row r="319" spans="1:15" ht="16">
       <c r="A319" s="7" t="s">
         <v>3</v>
       </c>
@@ -17154,7 +17151,7 @@
       </c>
       <c r="O319" s="10"/>
     </row>
-    <row r="320" spans="1:15" ht="15.4">
+    <row r="320" spans="1:15" ht="16">
       <c r="A320" s="7" t="s">
         <v>3</v>
       </c>
@@ -17199,7 +17196,7 @@
       </c>
       <c r="O320" s="10"/>
     </row>
-    <row r="321" spans="1:15" ht="15.4">
+    <row r="321" spans="1:15" ht="16">
       <c r="A321" s="7" t="s">
         <v>3</v>
       </c>
@@ -17244,7 +17241,7 @@
       </c>
       <c r="O321" s="10"/>
     </row>
-    <row r="322" spans="1:15" ht="15.4">
+    <row r="322" spans="1:15" ht="16">
       <c r="A322" s="7" t="s">
         <v>3</v>
       </c>
@@ -17289,7 +17286,7 @@
       </c>
       <c r="O322" s="10"/>
     </row>
-    <row r="323" spans="1:15" ht="15.4">
+    <row r="323" spans="1:15" ht="16">
       <c r="A323" s="7" t="s">
         <v>3</v>
       </c>
@@ -17334,7 +17331,7 @@
       </c>
       <c r="O323" s="10"/>
     </row>
-    <row r="324" spans="1:15" ht="15.4">
+    <row r="324" spans="1:15" ht="16">
       <c r="A324" s="7" t="s">
         <v>3</v>
       </c>
@@ -17379,7 +17376,7 @@
       </c>
       <c r="O324" s="10"/>
     </row>
-    <row r="325" spans="1:15" ht="15.4">
+    <row r="325" spans="1:15" ht="16">
       <c r="A325" s="7" t="s">
         <v>3</v>
       </c>
@@ -17424,7 +17421,7 @@
       </c>
       <c r="O325" s="10"/>
     </row>
-    <row r="326" spans="1:15" ht="15.4">
+    <row r="326" spans="1:15" ht="16">
       <c r="A326" s="7" t="s">
         <v>3</v>
       </c>
@@ -17469,7 +17466,7 @@
       </c>
       <c r="O326" s="10"/>
     </row>
-    <row r="327" spans="1:15" ht="15.4">
+    <row r="327" spans="1:15" ht="16">
       <c r="A327" s="7" t="s">
         <v>3</v>
       </c>
@@ -17514,7 +17511,7 @@
       </c>
       <c r="O327" s="10"/>
     </row>
-    <row r="328" spans="1:15" ht="15.4">
+    <row r="328" spans="1:15" ht="16">
       <c r="A328" s="7" t="s">
         <v>3</v>
       </c>
@@ -17559,7 +17556,7 @@
       </c>
       <c r="O328" s="10"/>
     </row>
-    <row r="329" spans="1:15" ht="15.4">
+    <row r="329" spans="1:15" ht="16">
       <c r="A329" s="7" t="s">
         <v>3</v>
       </c>
@@ -17604,7 +17601,7 @@
       </c>
       <c r="O329" s="10"/>
     </row>
-    <row r="330" spans="1:15" ht="15.4">
+    <row r="330" spans="1:15" ht="16">
       <c r="A330" s="7" t="s">
         <v>3</v>
       </c>
@@ -17649,7 +17646,7 @@
       </c>
       <c r="O330" s="10"/>
     </row>
-    <row r="331" spans="1:15" ht="15.4">
+    <row r="331" spans="1:15" ht="16">
       <c r="A331" s="7" t="s">
         <v>3</v>
       </c>
@@ -17694,7 +17691,7 @@
       </c>
       <c r="O331" s="10"/>
     </row>
-    <row r="332" spans="1:15" ht="15.4">
+    <row r="332" spans="1:15" ht="16">
       <c r="A332" s="7" t="s">
         <v>3</v>
       </c>
@@ -17739,7 +17736,7 @@
       </c>
       <c r="O332" s="10"/>
     </row>
-    <row r="333" spans="1:15" ht="15.4">
+    <row r="333" spans="1:15" ht="16">
       <c r="A333" s="7" t="s">
         <v>3</v>
       </c>
@@ -17784,7 +17781,7 @@
       </c>
       <c r="O333" s="10"/>
     </row>
-    <row r="334" spans="1:15" ht="15.4">
+    <row r="334" spans="1:15" ht="16">
       <c r="A334" s="7" t="s">
         <v>3</v>
       </c>
@@ -17829,7 +17826,7 @@
       </c>
       <c r="O334" s="10"/>
     </row>
-    <row r="335" spans="1:15" ht="15.4">
+    <row r="335" spans="1:15" ht="16">
       <c r="A335" s="7" t="s">
         <v>3</v>
       </c>
@@ -17874,7 +17871,7 @@
       </c>
       <c r="O335" s="10"/>
     </row>
-    <row r="336" spans="1:15" ht="15.4">
+    <row r="336" spans="1:15" ht="16">
       <c r="A336" s="7" t="s">
         <v>3</v>
       </c>
@@ -17919,7 +17916,7 @@
       </c>
       <c r="O336" s="10"/>
     </row>
-    <row r="337" spans="1:15" ht="15.4">
+    <row r="337" spans="1:15" ht="16">
       <c r="A337" s="7" t="s">
         <v>3</v>
       </c>
@@ -17964,7 +17961,7 @@
       </c>
       <c r="O337" s="10"/>
     </row>
-    <row r="338" spans="1:15" ht="15.4">
+    <row r="338" spans="1:15" ht="16">
       <c r="A338" s="7" t="s">
         <v>3</v>
       </c>
@@ -18009,7 +18006,7 @@
       </c>
       <c r="O338" s="10"/>
     </row>
-    <row r="339" spans="1:15" ht="15.4">
+    <row r="339" spans="1:15" ht="16">
       <c r="A339" s="7" t="s">
         <v>3</v>
       </c>
@@ -18054,7 +18051,7 @@
       </c>
       <c r="O339" s="10"/>
     </row>
-    <row r="340" spans="1:15" ht="15.4">
+    <row r="340" spans="1:15" ht="16">
       <c r="A340" s="7" t="s">
         <v>3</v>
       </c>
@@ -18099,7 +18096,7 @@
       </c>
       <c r="O340" s="10"/>
     </row>
-    <row r="341" spans="1:15" ht="15.4">
+    <row r="341" spans="1:15" ht="16">
       <c r="A341" s="7" t="s">
         <v>3</v>
       </c>
@@ -18144,7 +18141,7 @@
       </c>
       <c r="O341" s="10"/>
     </row>
-    <row r="342" spans="1:15" ht="15.4">
+    <row r="342" spans="1:15" ht="16">
       <c r="A342" s="7" t="s">
         <v>3</v>
       </c>
@@ -18189,7 +18186,7 @@
       </c>
       <c r="O342" s="10"/>
     </row>
-    <row r="343" spans="1:15" ht="15.4">
+    <row r="343" spans="1:15" ht="16">
       <c r="A343" s="7" t="s">
         <v>3</v>
       </c>
@@ -18234,7 +18231,7 @@
       </c>
       <c r="O343" s="10"/>
     </row>
-    <row r="344" spans="1:15" ht="15.4">
+    <row r="344" spans="1:15" ht="16">
       <c r="A344" s="7" t="s">
         <v>3</v>
       </c>
@@ -18279,7 +18276,7 @@
       </c>
       <c r="O344" s="10"/>
     </row>
-    <row r="345" spans="1:15" ht="15.4">
+    <row r="345" spans="1:15" ht="16">
       <c r="A345" s="7" t="s">
         <v>3</v>
       </c>
@@ -18324,7 +18321,7 @@
       </c>
       <c r="O345" s="10"/>
     </row>
-    <row r="346" spans="1:15" ht="15.4">
+    <row r="346" spans="1:15" ht="16">
       <c r="A346" s="7" t="s">
         <v>3</v>
       </c>
@@ -18369,7 +18366,7 @@
       </c>
       <c r="O346" s="10"/>
     </row>
-    <row r="347" spans="1:15" ht="15.4">
+    <row r="347" spans="1:15" ht="16">
       <c r="A347" s="7" t="s">
         <v>3</v>
       </c>
@@ -18414,7 +18411,7 @@
       </c>
       <c r="O347" s="10"/>
     </row>
-    <row r="348" spans="1:15" ht="15.4">
+    <row r="348" spans="1:15" ht="16">
       <c r="A348" s="7" t="s">
         <v>3</v>
       </c>
@@ -18459,7 +18456,7 @@
       </c>
       <c r="O348" s="10"/>
     </row>
-    <row r="349" spans="1:15" ht="15.4">
+    <row r="349" spans="1:15" ht="16">
       <c r="A349" s="7" t="s">
         <v>3</v>
       </c>
@@ -18504,7 +18501,7 @@
       </c>
       <c r="O349" s="10"/>
     </row>
-    <row r="350" spans="1:15" ht="15.4">
+    <row r="350" spans="1:15" ht="16">
       <c r="A350" s="7" t="s">
         <v>3</v>
       </c>
@@ -18549,7 +18546,7 @@
       </c>
       <c r="O350" s="10"/>
     </row>
-    <row r="351" spans="1:15" ht="15.4">
+    <row r="351" spans="1:15" ht="16">
       <c r="A351" s="7" t="s">
         <v>3</v>
       </c>
@@ -18594,7 +18591,7 @@
       </c>
       <c r="O351" s="10"/>
     </row>
-    <row r="352" spans="1:15" ht="15.4">
+    <row r="352" spans="1:15" ht="16">
       <c r="A352" s="7" t="s">
         <v>55</v>
       </c>
@@ -18637,7 +18634,7 @@
       </c>
       <c r="O352" s="8"/>
     </row>
-    <row r="353" spans="1:15" ht="15.4">
+    <row r="353" spans="1:15" ht="16">
       <c r="A353" s="7" t="s">
         <v>55</v>
       </c>
@@ -18680,7 +18677,7 @@
       </c>
       <c r="O353" s="8"/>
     </row>
-    <row r="354" spans="1:15" ht="15.4">
+    <row r="354" spans="1:15" ht="16">
       <c r="A354" s="7" t="s">
         <v>55</v>
       </c>
@@ -18723,7 +18720,7 @@
       </c>
       <c r="O354" s="8"/>
     </row>
-    <row r="355" spans="1:15" ht="15.4">
+    <row r="355" spans="1:15" ht="16">
       <c r="A355" s="7" t="s">
         <v>55</v>
       </c>
@@ -18766,7 +18763,7 @@
       </c>
       <c r="O355" s="8"/>
     </row>
-    <row r="356" spans="1:15" ht="15.4">
+    <row r="356" spans="1:15" ht="16">
       <c r="A356" s="7" t="s">
         <v>55</v>
       </c>
@@ -18809,7 +18806,7 @@
       </c>
       <c r="O356" s="8"/>
     </row>
-    <row r="357" spans="1:15" ht="15.4">
+    <row r="357" spans="1:15" ht="16">
       <c r="A357" s="7" t="s">
         <v>55</v>
       </c>
@@ -18852,7 +18849,7 @@
       </c>
       <c r="O357" s="8"/>
     </row>
-    <row r="358" spans="1:15" ht="15.4">
+    <row r="358" spans="1:15" ht="16">
       <c r="A358" s="7" t="s">
         <v>55</v>
       </c>
@@ -18895,7 +18892,7 @@
       </c>
       <c r="O358" s="8"/>
     </row>
-    <row r="359" spans="1:15" ht="15.4">
+    <row r="359" spans="1:15" ht="16">
       <c r="A359" s="7" t="s">
         <v>55</v>
       </c>
@@ -18938,7 +18935,7 @@
       </c>
       <c r="O359" s="8"/>
     </row>
-    <row r="360" spans="1:15" ht="15.4">
+    <row r="360" spans="1:15" ht="16">
       <c r="A360" s="7" t="s">
         <v>55</v>
       </c>
@@ -18981,7 +18978,7 @@
       </c>
       <c r="O360" s="8"/>
     </row>
-    <row r="361" spans="1:15" ht="15.4">
+    <row r="361" spans="1:15" ht="16">
       <c r="A361" s="7" t="s">
         <v>55</v>
       </c>
@@ -19024,7 +19021,7 @@
       </c>
       <c r="O361" s="8"/>
     </row>
-    <row r="362" spans="1:15" ht="15.4">
+    <row r="362" spans="1:15" ht="16">
       <c r="A362" s="7" t="s">
         <v>55</v>
       </c>
@@ -19067,7 +19064,7 @@
       </c>
       <c r="O362" s="8"/>
     </row>
-    <row r="363" spans="1:15" ht="15.4">
+    <row r="363" spans="1:15" ht="16">
       <c r="A363" s="7" t="s">
         <v>55</v>
       </c>
@@ -19110,7 +19107,7 @@
       </c>
       <c r="O363" s="8"/>
     </row>
-    <row r="364" spans="1:15" ht="15.4">
+    <row r="364" spans="1:15" ht="16">
       <c r="A364" s="7" t="s">
         <v>55</v>
       </c>
@@ -19153,7 +19150,7 @@
       </c>
       <c r="O364" s="8"/>
     </row>
-    <row r="365" spans="1:15" ht="15.4">
+    <row r="365" spans="1:15" ht="16">
       <c r="A365" s="7" t="s">
         <v>55</v>
       </c>
@@ -19196,7 +19193,7 @@
       </c>
       <c r="O365" s="8"/>
     </row>
-    <row r="366" spans="1:15" ht="15.4">
+    <row r="366" spans="1:15" ht="16">
       <c r="A366" s="7" t="s">
         <v>55</v>
       </c>
@@ -19239,7 +19236,7 @@
       </c>
       <c r="O366" s="8"/>
     </row>
-    <row r="367" spans="1:15" ht="15.4">
+    <row r="367" spans="1:15" ht="16">
       <c r="A367" s="7" t="s">
         <v>55</v>
       </c>
@@ -19282,7 +19279,7 @@
       </c>
       <c r="O367" s="8"/>
     </row>
-    <row r="368" spans="1:15" ht="15.4">
+    <row r="368" spans="1:15" ht="16">
       <c r="A368" s="7" t="s">
         <v>55</v>
       </c>
@@ -19325,7 +19322,7 @@
       </c>
       <c r="O368" s="8"/>
     </row>
-    <row r="369" spans="1:15" ht="15.4">
+    <row r="369" spans="1:15" ht="16">
       <c r="A369" s="7" t="s">
         <v>55</v>
       </c>
@@ -19368,7 +19365,7 @@
       </c>
       <c r="O369" s="8"/>
     </row>
-    <row r="370" spans="1:15" ht="15.4">
+    <row r="370" spans="1:15" ht="16">
       <c r="A370" s="7" t="s">
         <v>55</v>
       </c>
@@ -19411,7 +19408,7 @@
       </c>
       <c r="O370" s="8"/>
     </row>
-    <row r="371" spans="1:15" ht="15.4">
+    <row r="371" spans="1:15" ht="16">
       <c r="A371" s="7" t="s">
         <v>55</v>
       </c>
@@ -19454,7 +19451,7 @@
       </c>
       <c r="O371" s="8"/>
     </row>
-    <row r="372" spans="1:15" ht="15.4">
+    <row r="372" spans="1:15" ht="16">
       <c r="A372" s="7" t="s">
         <v>55</v>
       </c>
@@ -19497,7 +19494,7 @@
       </c>
       <c r="O372" s="8"/>
     </row>
-    <row r="373" spans="1:15" ht="15.4">
+    <row r="373" spans="1:15" ht="16">
       <c r="A373" s="7" t="s">
         <v>55</v>
       </c>
@@ -19540,7 +19537,7 @@
       </c>
       <c r="O373" s="8"/>
     </row>
-    <row r="374" spans="1:15" ht="15.4">
+    <row r="374" spans="1:15" ht="16">
       <c r="A374" s="7" t="s">
         <v>55</v>
       </c>
@@ -19583,7 +19580,7 @@
       </c>
       <c r="O374" s="8"/>
     </row>
-    <row r="375" spans="1:15" ht="15.4">
+    <row r="375" spans="1:15" ht="16">
       <c r="A375" s="7" t="s">
         <v>55</v>
       </c>
@@ -19626,7 +19623,7 @@
       </c>
       <c r="O375" s="8"/>
     </row>
-    <row r="376" spans="1:15" ht="15.4">
+    <row r="376" spans="1:15" ht="16">
       <c r="A376" s="7" t="s">
         <v>55</v>
       </c>
@@ -19669,7 +19666,7 @@
       </c>
       <c r="O376" s="8"/>
     </row>
-    <row r="377" spans="1:15" ht="15.4">
+    <row r="377" spans="1:15" ht="16">
       <c r="A377" s="7" t="s">
         <v>55</v>
       </c>
@@ -19712,7 +19709,7 @@
       </c>
       <c r="O377" s="8"/>
     </row>
-    <row r="378" spans="1:15" ht="15.4">
+    <row r="378" spans="1:15" ht="16">
       <c r="A378" s="7" t="s">
         <v>55</v>
       </c>
@@ -19755,7 +19752,7 @@
       </c>
       <c r="O378" s="8"/>
     </row>
-    <row r="379" spans="1:15" ht="15.4">
+    <row r="379" spans="1:15" ht="16">
       <c r="A379" s="7" t="s">
         <v>55</v>
       </c>
@@ -19798,7 +19795,7 @@
       </c>
       <c r="O379" s="8"/>
     </row>
-    <row r="380" spans="1:15" ht="15.4">
+    <row r="380" spans="1:15" ht="16">
       <c r="A380" s="7" t="s">
         <v>55</v>
       </c>
@@ -19841,7 +19838,7 @@
       </c>
       <c r="O380" s="8"/>
     </row>
-    <row r="381" spans="1:15" ht="15.4">
+    <row r="381" spans="1:15" ht="16">
       <c r="A381" s="7" t="s">
         <v>55</v>
       </c>
@@ -19884,7 +19881,7 @@
       </c>
       <c r="O381" s="8"/>
     </row>
-    <row r="382" spans="1:15" ht="15.4">
+    <row r="382" spans="1:15" ht="16">
       <c r="A382" s="7" t="s">
         <v>55</v>
       </c>
@@ -19927,7 +19924,7 @@
       </c>
       <c r="O382" s="8"/>
     </row>
-    <row r="383" spans="1:15" ht="15.4">
+    <row r="383" spans="1:15" ht="16">
       <c r="A383" s="7" t="s">
         <v>55</v>
       </c>
@@ -19970,7 +19967,7 @@
       </c>
       <c r="O383" s="8"/>
     </row>
-    <row r="384" spans="1:15" ht="15.4">
+    <row r="384" spans="1:15" ht="16">
       <c r="A384" s="7" t="s">
         <v>55</v>
       </c>
@@ -20013,7 +20010,7 @@
       </c>
       <c r="O384" s="8"/>
     </row>
-    <row r="385" spans="1:15" ht="15.4">
+    <row r="385" spans="1:15" ht="16">
       <c r="A385" s="7" t="s">
         <v>55</v>
       </c>
@@ -20056,7 +20053,7 @@
       </c>
       <c r="O385" s="8"/>
     </row>
-    <row r="386" spans="1:15" ht="15.4">
+    <row r="386" spans="1:15" ht="16">
       <c r="A386" s="7" t="s">
         <v>55</v>
       </c>
@@ -20099,7 +20096,7 @@
       </c>
       <c r="O386" s="8"/>
     </row>
-    <row r="387" spans="1:15" ht="15.4">
+    <row r="387" spans="1:15" ht="16">
       <c r="A387" s="7" t="s">
         <v>55</v>
       </c>
@@ -20142,7 +20139,7 @@
       </c>
       <c r="O387" s="8"/>
     </row>
-    <row r="388" spans="1:15" ht="15.4">
+    <row r="388" spans="1:15" ht="16">
       <c r="A388" s="7" t="s">
         <v>55</v>
       </c>
@@ -20185,7 +20182,7 @@
       </c>
       <c r="O388" s="8"/>
     </row>
-    <row r="389" spans="1:15" ht="15.4">
+    <row r="389" spans="1:15" ht="16">
       <c r="A389" s="7" t="s">
         <v>55</v>
       </c>
@@ -20228,7 +20225,7 @@
       </c>
       <c r="O389" s="8"/>
     </row>
-    <row r="390" spans="1:15" ht="15.4">
+    <row r="390" spans="1:15" ht="16">
       <c r="A390" s="7" t="s">
         <v>55</v>
       </c>
@@ -20271,7 +20268,7 @@
       </c>
       <c r="O390" s="8"/>
     </row>
-    <row r="391" spans="1:15" ht="15.4">
+    <row r="391" spans="1:15" ht="16">
       <c r="A391" s="7" t="s">
         <v>55</v>
       </c>
@@ -20314,7 +20311,7 @@
       </c>
       <c r="O391" s="8"/>
     </row>
-    <row r="392" spans="1:15" ht="15.4">
+    <row r="392" spans="1:15" ht="16">
       <c r="A392" s="7" t="s">
         <v>55</v>
       </c>
@@ -20357,7 +20354,7 @@
       </c>
       <c r="O392" s="8"/>
     </row>
-    <row r="393" spans="1:15" ht="15.4">
+    <row r="393" spans="1:15" ht="16">
       <c r="A393" s="7" t="s">
         <v>55</v>
       </c>
@@ -20400,7 +20397,7 @@
       </c>
       <c r="O393" s="8"/>
     </row>
-    <row r="394" spans="1:15" ht="15.4">
+    <row r="394" spans="1:15" ht="16">
       <c r="A394" s="7" t="s">
         <v>55</v>
       </c>
@@ -20443,7 +20440,7 @@
       </c>
       <c r="O394" s="8"/>
     </row>
-    <row r="395" spans="1:15" ht="15.4">
+    <row r="395" spans="1:15" ht="16">
       <c r="A395" s="7" t="s">
         <v>55</v>
       </c>
@@ -20486,7 +20483,7 @@
       </c>
       <c r="O395" s="8"/>
     </row>
-    <row r="396" spans="1:15" ht="15.4">
+    <row r="396" spans="1:15" ht="16">
       <c r="A396" s="77" t="s">
         <v>147</v>
       </c>
@@ -20533,7 +20530,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="15.4">
+    <row r="397" spans="1:15" ht="16">
       <c r="A397" s="77" t="s">
         <v>147</v>
       </c>
@@ -20580,7 +20577,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="15.4">
+    <row r="398" spans="1:15" ht="16">
       <c r="A398" s="77" t="s">
         <v>147</v>
       </c>
@@ -20627,7 +20624,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="15.4">
+    <row r="399" spans="1:15" ht="16">
       <c r="A399" s="77" t="s">
         <v>147</v>
       </c>
@@ -20674,7 +20671,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="15.4">
+    <row r="400" spans="1:15" ht="16">
       <c r="A400" s="77" t="s">
         <v>147</v>
       </c>
@@ -20721,7 +20718,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="15.4">
+    <row r="401" spans="1:15" ht="16">
       <c r="A401" s="77" t="s">
         <v>147</v>
       </c>
@@ -20768,7 +20765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="15.4">
+    <row r="402" spans="1:15" ht="16">
       <c r="A402" s="77" t="s">
         <v>147</v>
       </c>
@@ -20815,7 +20812,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="15.4">
+    <row r="403" spans="1:15" ht="16">
       <c r="A403" s="77" t="s">
         <v>147</v>
       </c>
@@ -20862,7 +20859,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="15.4">
+    <row r="404" spans="1:15" ht="16">
       <c r="A404" s="77" t="s">
         <v>147</v>
       </c>
@@ -20909,7 +20906,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="15.4">
+    <row r="405" spans="1:15" ht="16">
       <c r="A405" s="77" t="s">
         <v>147</v>
       </c>
@@ -20956,7 +20953,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="15.4">
+    <row r="406" spans="1:15" ht="16">
       <c r="A406" s="77" t="s">
         <v>147</v>
       </c>
@@ -21003,7 +21000,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="15.4">
+    <row r="407" spans="1:15" ht="16">
       <c r="A407" s="77" t="s">
         <v>147</v>
       </c>
@@ -21050,7 +21047,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="15.4">
+    <row r="408" spans="1:15" ht="16">
       <c r="A408" s="77" t="s">
         <v>147</v>
       </c>
@@ -21097,7 +21094,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="15.4">
+    <row r="409" spans="1:15" ht="16">
       <c r="A409" s="77" t="s">
         <v>147</v>
       </c>
@@ -21144,7 +21141,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="15.4">
+    <row r="410" spans="1:15" ht="16">
       <c r="A410" s="77" t="s">
         <v>147</v>
       </c>
@@ -21191,7 +21188,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="15.4">
+    <row r="411" spans="1:15" ht="16">
       <c r="A411" s="77" t="s">
         <v>147</v>
       </c>
@@ -21238,7 +21235,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="15.4">
+    <row r="412" spans="1:15" ht="16">
       <c r="A412" s="77" t="s">
         <v>147</v>
       </c>
@@ -21285,7 +21282,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="15.4">
+    <row r="413" spans="1:15" ht="16">
       <c r="A413" s="77" t="s">
         <v>147</v>
       </c>
@@ -21332,7 +21329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="15.4">
+    <row r="414" spans="1:15" ht="16">
       <c r="A414" s="77" t="s">
         <v>147</v>
       </c>
@@ -21379,7 +21376,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="15.4">
+    <row r="415" spans="1:15" ht="16">
       <c r="A415" s="77" t="s">
         <v>147</v>
       </c>
@@ -21426,7 +21423,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="15.4">
+    <row r="416" spans="1:15" ht="16">
       <c r="A416" s="7" t="s">
         <v>21</v>
       </c>
@@ -21469,7 +21466,7 @@
       </c>
       <c r="O416" s="10"/>
     </row>
-    <row r="417" spans="1:15" ht="15.4">
+    <row r="417" spans="1:15" ht="16">
       <c r="A417" s="7" t="s">
         <v>21</v>
       </c>
@@ -21512,7 +21509,7 @@
       </c>
       <c r="O417" s="10"/>
     </row>
-    <row r="418" spans="1:15" ht="15.4">
+    <row r="418" spans="1:15" ht="16">
       <c r="A418" s="7" t="s">
         <v>21</v>
       </c>
@@ -21555,7 +21552,7 @@
       </c>
       <c r="O418" s="10"/>
     </row>
-    <row r="419" spans="1:15" ht="15.4">
+    <row r="419" spans="1:15" ht="16">
       <c r="A419" s="7" t="s">
         <v>21</v>
       </c>
@@ -21598,7 +21595,7 @@
       </c>
       <c r="O419" s="10"/>
     </row>
-    <row r="420" spans="1:15" ht="15.4">
+    <row r="420" spans="1:15" ht="16">
       <c r="A420" s="7" t="s">
         <v>21</v>
       </c>
@@ -21641,7 +21638,7 @@
       </c>
       <c r="O420" s="10"/>
     </row>
-    <row r="421" spans="1:15" ht="15.4">
+    <row r="421" spans="1:15" ht="16">
       <c r="A421" s="7" t="s">
         <v>21</v>
       </c>
@@ -21684,7 +21681,7 @@
       </c>
       <c r="O421" s="10"/>
     </row>
-    <row r="422" spans="1:15" ht="15.4">
+    <row r="422" spans="1:15" ht="16">
       <c r="A422" s="7" t="s">
         <v>21</v>
       </c>
@@ -21727,7 +21724,7 @@
       </c>
       <c r="O422" s="10"/>
     </row>
-    <row r="423" spans="1:15" ht="15.4">
+    <row r="423" spans="1:15" ht="16">
       <c r="A423" s="7" t="s">
         <v>21</v>
       </c>
@@ -21770,7 +21767,7 @@
       </c>
       <c r="O423" s="10"/>
     </row>
-    <row r="424" spans="1:15" ht="15.4">
+    <row r="424" spans="1:15" ht="16">
       <c r="A424" s="7" t="s">
         <v>21</v>
       </c>
@@ -21813,7 +21810,7 @@
       </c>
       <c r="O424" s="10"/>
     </row>
-    <row r="425" spans="1:15" ht="15.4">
+    <row r="425" spans="1:15" ht="16">
       <c r="A425" s="7" t="s">
         <v>21</v>
       </c>
@@ -21856,7 +21853,7 @@
       </c>
       <c r="O425" s="10"/>
     </row>
-    <row r="426" spans="1:15" ht="15.4">
+    <row r="426" spans="1:15" ht="16">
       <c r="A426" s="7" t="s">
         <v>21</v>
       </c>
@@ -21899,7 +21896,7 @@
       </c>
       <c r="O426" s="10"/>
     </row>
-    <row r="427" spans="1:15" ht="15.4">
+    <row r="427" spans="1:15" ht="16">
       <c r="A427" s="7" t="s">
         <v>21</v>
       </c>
@@ -21942,7 +21939,7 @@
       </c>
       <c r="O427" s="10"/>
     </row>
-    <row r="428" spans="1:15" ht="15.4">
+    <row r="428" spans="1:15" ht="16">
       <c r="A428" s="7" t="s">
         <v>21</v>
       </c>
@@ -21985,7 +21982,7 @@
       </c>
       <c r="O428" s="10"/>
     </row>
-    <row r="429" spans="1:15" ht="15.4">
+    <row r="429" spans="1:15" ht="16">
       <c r="A429" s="7" t="s">
         <v>21</v>
       </c>
@@ -22028,7 +22025,7 @@
       </c>
       <c r="O429" s="10"/>
     </row>
-    <row r="430" spans="1:15" ht="15.4">
+    <row r="430" spans="1:15" ht="16">
       <c r="A430" s="7" t="s">
         <v>21</v>
       </c>
@@ -22071,7 +22068,7 @@
       </c>
       <c r="O430" s="10"/>
     </row>
-    <row r="431" spans="1:15" ht="15.4">
+    <row r="431" spans="1:15" ht="16">
       <c r="A431" s="7" t="s">
         <v>21</v>
       </c>
@@ -22114,7 +22111,7 @@
       </c>
       <c r="O431" s="10"/>
     </row>
-    <row r="432" spans="1:15" ht="15.4">
+    <row r="432" spans="1:15" ht="16">
       <c r="A432" s="7" t="s">
         <v>19</v>
       </c>
@@ -22157,7 +22154,7 @@
       </c>
       <c r="O432" s="8"/>
     </row>
-    <row r="433" spans="1:15" ht="15.4">
+    <row r="433" spans="1:15" ht="16">
       <c r="A433" s="7" t="s">
         <v>19</v>
       </c>
@@ -22200,7 +22197,7 @@
       </c>
       <c r="O433" s="8"/>
     </row>
-    <row r="434" spans="1:15" ht="15.4">
+    <row r="434" spans="1:15" ht="16">
       <c r="A434" s="7" t="s">
         <v>19</v>
       </c>
@@ -22243,7 +22240,7 @@
       </c>
       <c r="O434" s="8"/>
     </row>
-    <row r="435" spans="1:15" ht="15.4">
+    <row r="435" spans="1:15" ht="16">
       <c r="A435" s="7" t="s">
         <v>19</v>
       </c>
@@ -22286,7 +22283,7 @@
       </c>
       <c r="O435" s="8"/>
     </row>
-    <row r="436" spans="1:15" ht="15.4">
+    <row r="436" spans="1:15" ht="16">
       <c r="A436" s="7" t="s">
         <v>19</v>
       </c>
@@ -22329,7 +22326,7 @@
       </c>
       <c r="O436" s="8"/>
     </row>
-    <row r="437" spans="1:15" ht="15.4">
+    <row r="437" spans="1:15" ht="16">
       <c r="A437" s="7" t="s">
         <v>19</v>
       </c>
@@ -22372,7 +22369,7 @@
       </c>
       <c r="O437" s="8"/>
     </row>
-    <row r="438" spans="1:15" ht="15.4">
+    <row r="438" spans="1:15" ht="16">
       <c r="A438" s="7" t="s">
         <v>22</v>
       </c>
@@ -22415,7 +22412,7 @@
       </c>
       <c r="O438" s="10"/>
     </row>
-    <row r="439" spans="1:15" ht="15.4">
+    <row r="439" spans="1:15" ht="16">
       <c r="A439" s="7" t="s">
         <v>22</v>
       </c>
@@ -22458,7 +22455,7 @@
       </c>
       <c r="O439" s="10"/>
     </row>
-    <row r="440" spans="1:15" ht="15.4">
+    <row r="440" spans="1:15" ht="16">
       <c r="A440" s="7" t="s">
         <v>22</v>
       </c>
@@ -22501,7 +22498,7 @@
       </c>
       <c r="O440" s="10"/>
     </row>
-    <row r="441" spans="1:15" ht="15.4">
+    <row r="441" spans="1:15" ht="16">
       <c r="A441" s="7" t="s">
         <v>22</v>
       </c>
@@ -22544,7 +22541,7 @@
       </c>
       <c r="O441" s="10"/>
     </row>
-    <row r="442" spans="1:15" ht="15.4">
+    <row r="442" spans="1:15" ht="16">
       <c r="A442" s="7" t="s">
         <v>22</v>
       </c>
@@ -22587,7 +22584,7 @@
       </c>
       <c r="O442" s="10"/>
     </row>
-    <row r="443" spans="1:15" ht="15.4">
+    <row r="443" spans="1:15" ht="16">
       <c r="A443" s="7" t="s">
         <v>22</v>
       </c>
@@ -22630,7 +22627,7 @@
       </c>
       <c r="O443" s="10"/>
     </row>
-    <row r="444" spans="1:15" ht="15.4">
+    <row r="444" spans="1:15" ht="16">
       <c r="A444" s="7" t="s">
         <v>22</v>
       </c>
@@ -22673,7 +22670,7 @@
       </c>
       <c r="O444" s="10"/>
     </row>
-    <row r="445" spans="1:15" ht="15.4">
+    <row r="445" spans="1:15" ht="16">
       <c r="A445" s="7" t="s">
         <v>22</v>
       </c>
@@ -22716,7 +22713,7 @@
       </c>
       <c r="O445" s="10"/>
     </row>
-    <row r="446" spans="1:15" ht="15.4">
+    <row r="446" spans="1:15" ht="16">
       <c r="A446" s="7" t="s">
         <v>22</v>
       </c>
@@ -22759,7 +22756,7 @@
       </c>
       <c r="O446" s="10"/>
     </row>
-    <row r="447" spans="1:15" ht="15.4">
+    <row r="447" spans="1:15" ht="16">
       <c r="A447" s="7" t="s">
         <v>22</v>
       </c>
@@ -22802,7 +22799,7 @@
       </c>
       <c r="O447" s="10"/>
     </row>
-    <row r="448" spans="1:15" ht="15.4">
+    <row r="448" spans="1:15" ht="16">
       <c r="A448" s="7" t="s">
         <v>22</v>
       </c>
@@ -22845,7 +22842,7 @@
       </c>
       <c r="O448" s="10"/>
     </row>
-    <row r="449" spans="1:15" ht="15.4">
+    <row r="449" spans="1:15" ht="16">
       <c r="A449" s="7" t="s">
         <v>22</v>
       </c>
@@ -22888,7 +22885,7 @@
       </c>
       <c r="O449" s="10"/>
     </row>
-    <row r="450" spans="1:15" ht="15.4">
+    <row r="450" spans="1:15" ht="16">
       <c r="A450" s="7" t="s">
         <v>22</v>
       </c>
@@ -22931,7 +22928,7 @@
       </c>
       <c r="O450" s="10"/>
     </row>
-    <row r="451" spans="1:15" ht="15.4">
+    <row r="451" spans="1:15" ht="16">
       <c r="A451" s="7" t="s">
         <v>22</v>
       </c>
@@ -22974,7 +22971,7 @@
       </c>
       <c r="O451" s="10"/>
     </row>
-    <row r="452" spans="1:15" ht="15.4">
+    <row r="452" spans="1:15" ht="16">
       <c r="A452" s="7" t="s">
         <v>22</v>
       </c>
@@ -23017,7 +23014,7 @@
       </c>
       <c r="O452" s="10"/>
     </row>
-    <row r="453" spans="1:15" ht="15.4">
+    <row r="453" spans="1:15" ht="16">
       <c r="A453" s="7" t="s">
         <v>22</v>
       </c>
@@ -23060,7 +23057,7 @@
       </c>
       <c r="O453" s="10"/>
     </row>
-    <row r="454" spans="1:15" ht="15.4">
+    <row r="454" spans="1:15" ht="16">
       <c r="A454" s="7" t="s">
         <v>22</v>
       </c>
@@ -23103,7 +23100,7 @@
       </c>
       <c r="O454" s="10"/>
     </row>
-    <row r="455" spans="1:15" ht="15.4">
+    <row r="455" spans="1:15" ht="16">
       <c r="A455" s="7" t="s">
         <v>22</v>
       </c>
@@ -23146,7 +23143,7 @@
       </c>
       <c r="O455" s="10"/>
     </row>
-    <row r="456" spans="1:15" ht="15.4">
+    <row r="456" spans="1:15" ht="16">
       <c r="A456" s="7" t="s">
         <v>22</v>
       </c>
@@ -23189,7 +23186,7 @@
       </c>
       <c r="O456" s="10"/>
     </row>
-    <row r="457" spans="1:15" ht="15.4">
+    <row r="457" spans="1:15" ht="16">
       <c r="A457" s="7" t="s">
         <v>22</v>
       </c>
@@ -23232,7 +23229,7 @@
       </c>
       <c r="O457" s="10"/>
     </row>
-    <row r="458" spans="1:15" ht="15.4">
+    <row r="458" spans="1:15" ht="16">
       <c r="A458" s="7" t="s">
         <v>22</v>
       </c>
@@ -23275,7 +23272,7 @@
       </c>
       <c r="O458" s="10"/>
     </row>
-    <row r="459" spans="1:15" ht="15.4">
+    <row r="459" spans="1:15" ht="16">
       <c r="A459" s="7" t="s">
         <v>22</v>
       </c>
@@ -23318,7 +23315,7 @@
       </c>
       <c r="O459" s="10"/>
     </row>
-    <row r="460" spans="1:15" ht="15.4">
+    <row r="460" spans="1:15" ht="16">
       <c r="A460" s="7" t="s">
         <v>22</v>
       </c>
@@ -23361,7 +23358,7 @@
       </c>
       <c r="O460" s="10"/>
     </row>
-    <row r="461" spans="1:15" ht="15.4">
+    <row r="461" spans="1:15" ht="16">
       <c r="A461" s="7" t="s">
         <v>22</v>
       </c>
@@ -23404,7 +23401,7 @@
       </c>
       <c r="O461" s="10"/>
     </row>
-    <row r="462" spans="1:15" ht="15.4">
+    <row r="462" spans="1:15" ht="16">
       <c r="A462" s="7" t="s">
         <v>22</v>
       </c>
@@ -23447,7 +23444,7 @@
       </c>
       <c r="O462" s="10"/>
     </row>
-    <row r="463" spans="1:15" ht="15.4">
+    <row r="463" spans="1:15" ht="16">
       <c r="A463" s="7" t="s">
         <v>22</v>
       </c>
@@ -23490,7 +23487,7 @@
       </c>
       <c r="O463" s="10"/>
     </row>
-    <row r="464" spans="1:15" ht="15.4">
+    <row r="464" spans="1:15" ht="16">
       <c r="A464" s="7" t="s">
         <v>22</v>
       </c>
@@ -23533,7 +23530,7 @@
       </c>
       <c r="O464" s="10"/>
     </row>
-    <row r="465" spans="1:15" ht="15.4">
+    <row r="465" spans="1:15" ht="16">
       <c r="A465" s="7" t="s">
         <v>22</v>
       </c>
@@ -23576,7 +23573,7 @@
       </c>
       <c r="O465" s="10"/>
     </row>
-    <row r="466" spans="1:15" ht="15.4">
+    <row r="466" spans="1:15" ht="16">
       <c r="A466" s="7" t="s">
         <v>22</v>
       </c>
@@ -23619,7 +23616,7 @@
       </c>
       <c r="O466" s="10"/>
     </row>
-    <row r="467" spans="1:15" ht="15.4">
+    <row r="467" spans="1:15" ht="16">
       <c r="A467" s="7" t="s">
         <v>22</v>
       </c>
@@ -23662,7 +23659,7 @@
       </c>
       <c r="O467" s="10"/>
     </row>
-    <row r="468" spans="1:15" ht="15.4">
+    <row r="468" spans="1:15" ht="16">
       <c r="A468" s="7" t="s">
         <v>22</v>
       </c>
@@ -23705,7 +23702,7 @@
       </c>
       <c r="O468" s="10"/>
     </row>
-    <row r="469" spans="1:15" ht="15.4">
+    <row r="469" spans="1:15" ht="16">
       <c r="A469" s="7" t="s">
         <v>22</v>
       </c>
@@ -23748,7 +23745,7 @@
       </c>
       <c r="O469" s="10"/>
     </row>
-    <row r="470" spans="1:15" ht="15.4">
+    <row r="470" spans="1:15" ht="16">
       <c r="A470" s="7" t="s">
         <v>22</v>
       </c>
@@ -23791,7 +23788,7 @@
       </c>
       <c r="O470" s="10"/>
     </row>
-    <row r="471" spans="1:15" ht="15.4">
+    <row r="471" spans="1:15" ht="16">
       <c r="A471" s="7" t="s">
         <v>22</v>
       </c>
@@ -23834,7 +23831,7 @@
       </c>
       <c r="O471" s="10"/>
     </row>
-    <row r="472" spans="1:15" ht="15.4">
+    <row r="472" spans="1:15" ht="16">
       <c r="A472" s="7" t="s">
         <v>22</v>
       </c>
@@ -23877,7 +23874,7 @@
       </c>
       <c r="O472" s="10"/>
     </row>
-    <row r="473" spans="1:15" ht="15.4">
+    <row r="473" spans="1:15" ht="16">
       <c r="A473" s="7" t="s">
         <v>27</v>
       </c>
@@ -23920,7 +23917,7 @@
       </c>
       <c r="O473" s="21"/>
     </row>
-    <row r="474" spans="1:15" ht="15.4">
+    <row r="474" spans="1:15" ht="16">
       <c r="A474" s="7" t="s">
         <v>27</v>
       </c>
@@ -23963,7 +23960,7 @@
       </c>
       <c r="O474" s="21"/>
     </row>
-    <row r="475" spans="1:15" ht="15.4">
+    <row r="475" spans="1:15" ht="16">
       <c r="A475" s="7" t="s">
         <v>27</v>
       </c>
@@ -24006,7 +24003,7 @@
       </c>
       <c r="O475" s="21"/>
     </row>
-    <row r="476" spans="1:15" ht="15.4">
+    <row r="476" spans="1:15" ht="16">
       <c r="A476" s="7" t="s">
         <v>27</v>
       </c>
@@ -24049,7 +24046,7 @@
       </c>
       <c r="O476" s="22"/>
     </row>
-    <row r="477" spans="1:15" ht="15.4">
+    <row r="477" spans="1:15" ht="16">
       <c r="A477" s="7" t="s">
         <v>27</v>
       </c>
@@ -24092,7 +24089,7 @@
       </c>
       <c r="O477" s="23"/>
     </row>
-    <row r="478" spans="1:15" ht="15.4">
+    <row r="478" spans="1:15" ht="16">
       <c r="A478" s="7" t="s">
         <v>27</v>
       </c>
@@ -24135,7 +24132,7 @@
       </c>
       <c r="O478" s="23"/>
     </row>
-    <row r="479" spans="1:15" ht="15.4">
+    <row r="479" spans="1:15" ht="16">
       <c r="A479" s="7" t="s">
         <v>27</v>
       </c>
@@ -24178,7 +24175,7 @@
       </c>
       <c r="O479" s="23"/>
     </row>
-    <row r="480" spans="1:15" ht="15.4">
+    <row r="480" spans="1:15" ht="16">
       <c r="A480" s="7" t="s">
         <v>27</v>
       </c>
@@ -24221,7 +24218,7 @@
       </c>
       <c r="O480" s="23"/>
     </row>
-    <row r="481" spans="1:15" ht="15.4">
+    <row r="481" spans="1:15" ht="16">
       <c r="A481" s="7" t="s">
         <v>27</v>
       </c>
@@ -24264,7 +24261,7 @@
       </c>
       <c r="O481" s="23"/>
     </row>
-    <row r="482" spans="1:15" ht="15.4">
+    <row r="482" spans="1:15" ht="16">
       <c r="A482" s="7" t="s">
         <v>27</v>
       </c>
@@ -24307,7 +24304,7 @@
       </c>
       <c r="O482" s="23"/>
     </row>
-    <row r="483" spans="1:15" ht="15.4">
+    <row r="483" spans="1:15" ht="16">
       <c r="A483" s="7" t="s">
         <v>27</v>
       </c>
@@ -24350,7 +24347,7 @@
       </c>
       <c r="O483" s="23"/>
     </row>
-    <row r="484" spans="1:15" ht="15.4">
+    <row r="484" spans="1:15" ht="16">
       <c r="A484" s="7" t="s">
         <v>27</v>
       </c>
@@ -24393,7 +24390,7 @@
       </c>
       <c r="O484" s="23"/>
     </row>
-    <row r="485" spans="1:15" ht="15.4">
+    <row r="485" spans="1:15" ht="16">
       <c r="A485" s="7" t="s">
         <v>27</v>
       </c>
@@ -24436,7 +24433,7 @@
       </c>
       <c r="O485" s="23"/>
     </row>
-    <row r="486" spans="1:15" ht="15.4">
+    <row r="486" spans="1:15" ht="16">
       <c r="A486" s="7" t="s">
         <v>27</v>
       </c>
@@ -24479,7 +24476,7 @@
       </c>
       <c r="O486" s="23"/>
     </row>
-    <row r="487" spans="1:15" ht="15.4">
+    <row r="487" spans="1:15" ht="16">
       <c r="A487" s="7" t="s">
         <v>27</v>
       </c>
@@ -24522,7 +24519,7 @@
       </c>
       <c r="O487" s="23"/>
     </row>
-    <row r="488" spans="1:15" ht="15.4">
+    <row r="488" spans="1:15" ht="16">
       <c r="A488" s="7" t="s">
         <v>27</v>
       </c>
@@ -24565,7 +24562,7 @@
       </c>
       <c r="O488" s="23"/>
     </row>
-    <row r="489" spans="1:15" ht="15.4">
+    <row r="489" spans="1:15" ht="16">
       <c r="A489" s="7" t="s">
         <v>27</v>
       </c>
@@ -24608,7 +24605,7 @@
       </c>
       <c r="O489" s="23"/>
     </row>
-    <row r="490" spans="1:15" ht="15.4">
+    <row r="490" spans="1:15" ht="16">
       <c r="A490" s="7" t="s">
         <v>27</v>
       </c>
@@ -24651,7 +24648,7 @@
       </c>
       <c r="O490" s="23"/>
     </row>
-    <row r="491" spans="1:15" ht="15.4">
+    <row r="491" spans="1:15" ht="16">
       <c r="A491" s="7" t="s">
         <v>27</v>
       </c>
@@ -24694,7 +24691,7 @@
       </c>
       <c r="O491" s="23"/>
     </row>
-    <row r="492" spans="1:15" ht="15.4">
+    <row r="492" spans="1:15" ht="16">
       <c r="A492" s="7" t="s">
         <v>27</v>
       </c>
@@ -24737,7 +24734,7 @@
       </c>
       <c r="O492" s="23"/>
     </row>
-    <row r="493" spans="1:15" ht="15.4">
+    <row r="493" spans="1:15" ht="16">
       <c r="A493" s="7" t="s">
         <v>27</v>
       </c>
@@ -24780,7 +24777,7 @@
       </c>
       <c r="O493" s="23"/>
     </row>
-    <row r="494" spans="1:15" ht="15.4">
+    <row r="494" spans="1:15" ht="16">
       <c r="A494" s="7" t="s">
         <v>27</v>
       </c>
@@ -24823,7 +24820,7 @@
       </c>
       <c r="O494" s="23"/>
     </row>
-    <row r="495" spans="1:15" ht="15.4">
+    <row r="495" spans="1:15" ht="16">
       <c r="A495" s="7" t="s">
         <v>27</v>
       </c>
@@ -24866,7 +24863,7 @@
       </c>
       <c r="O495" s="23"/>
     </row>
-    <row r="496" spans="1:15" ht="15.4">
+    <row r="496" spans="1:15" ht="16">
       <c r="A496" s="7" t="s">
         <v>27</v>
       </c>
@@ -24909,7 +24906,7 @@
       </c>
       <c r="O496" s="23"/>
     </row>
-    <row r="497" spans="1:15" ht="15.4">
+    <row r="497" spans="1:15" ht="16">
       <c r="A497" s="7" t="s">
         <v>27</v>
       </c>
@@ -24952,7 +24949,7 @@
       </c>
       <c r="O497" s="23"/>
     </row>
-    <row r="498" spans="1:15" ht="15.4">
+    <row r="498" spans="1:15" ht="16">
       <c r="A498" s="7" t="s">
         <v>27</v>
       </c>
@@ -24995,7 +24992,7 @@
       </c>
       <c r="O498" s="23"/>
     </row>
-    <row r="499" spans="1:15" ht="15.4">
+    <row r="499" spans="1:15" ht="16">
       <c r="A499" s="7" t="s">
         <v>27</v>
       </c>
@@ -25038,7 +25035,7 @@
       </c>
       <c r="O499" s="23"/>
     </row>
-    <row r="500" spans="1:15" ht="15.4">
+    <row r="500" spans="1:15" ht="16">
       <c r="A500" s="7" t="s">
         <v>27</v>
       </c>
@@ -25081,7 +25078,7 @@
       </c>
       <c r="O500" s="23"/>
     </row>
-    <row r="501" spans="1:15" ht="15.4">
+    <row r="501" spans="1:15" ht="16">
       <c r="A501" s="7" t="s">
         <v>27</v>
       </c>
@@ -25124,7 +25121,7 @@
       </c>
       <c r="O501" s="23"/>
     </row>
-    <row r="502" spans="1:15" ht="15.4">
+    <row r="502" spans="1:15" ht="16">
       <c r="A502" s="7" t="s">
         <v>27</v>
       </c>
@@ -25167,7 +25164,7 @@
       </c>
       <c r="O502" s="23"/>
     </row>
-    <row r="503" spans="1:15" ht="15.4">
+    <row r="503" spans="1:15" ht="16">
       <c r="A503" s="7" t="s">
         <v>27</v>
       </c>
@@ -25210,7 +25207,7 @@
       </c>
       <c r="O503" s="23"/>
     </row>
-    <row r="504" spans="1:15" ht="15.4">
+    <row r="504" spans="1:15" ht="16">
       <c r="A504" s="7" t="s">
         <v>27</v>
       </c>
@@ -25253,7 +25250,7 @@
       </c>
       <c r="O504" s="23"/>
     </row>
-    <row r="505" spans="1:15" ht="15.4">
+    <row r="505" spans="1:15" ht="16">
       <c r="A505" s="7" t="s">
         <v>27</v>
       </c>
@@ -25296,7 +25293,7 @@
       </c>
       <c r="O505" s="23"/>
     </row>
-    <row r="506" spans="1:15" ht="15.4">
+    <row r="506" spans="1:15" ht="16">
       <c r="A506" s="7" t="s">
         <v>27</v>
       </c>
@@ -25339,7 +25336,7 @@
       </c>
       <c r="O506" s="23"/>
     </row>
-    <row r="507" spans="1:15" ht="15.4">
+    <row r="507" spans="1:15" ht="16">
       <c r="A507" s="7" t="s">
         <v>27</v>
       </c>
@@ -25382,7 +25379,7 @@
       </c>
       <c r="O507" s="23"/>
     </row>
-    <row r="508" spans="1:15" ht="15.4">
+    <row r="508" spans="1:15" ht="16">
       <c r="A508" s="7" t="s">
         <v>27</v>
       </c>
@@ -25425,7 +25422,7 @@
       </c>
       <c r="O508" s="23"/>
     </row>
-    <row r="509" spans="1:15" ht="15.4">
+    <row r="509" spans="1:15" ht="16">
       <c r="A509" s="7" t="s">
         <v>27</v>
       </c>
@@ -25468,7 +25465,7 @@
       </c>
       <c r="O509" s="23"/>
     </row>
-    <row r="510" spans="1:15" ht="15.4">
+    <row r="510" spans="1:15" ht="16">
       <c r="A510" s="7" t="s">
         <v>27</v>
       </c>
@@ -25511,7 +25508,7 @@
       </c>
       <c r="O510" s="23"/>
     </row>
-    <row r="511" spans="1:15" ht="15.4">
+    <row r="511" spans="1:15" ht="16">
       <c r="A511" s="7" t="s">
         <v>27</v>
       </c>
@@ -25554,7 +25551,7 @@
       </c>
       <c r="O511" s="23"/>
     </row>
-    <row r="512" spans="1:15" ht="15.4">
+    <row r="512" spans="1:15" ht="16">
       <c r="A512" s="7" t="s">
         <v>27</v>
       </c>
@@ -25597,7 +25594,7 @@
       </c>
       <c r="O512" s="23"/>
     </row>
-    <row r="513" spans="1:15" ht="15.4">
+    <row r="513" spans="1:15" ht="16">
       <c r="A513" s="7" t="s">
         <v>28</v>
       </c>
@@ -25640,7 +25637,7 @@
       </c>
       <c r="O513" s="8"/>
     </row>
-    <row r="514" spans="1:15" ht="15.4">
+    <row r="514" spans="1:15" ht="16">
       <c r="A514" s="7" t="s">
         <v>28</v>
       </c>
@@ -25683,7 +25680,7 @@
       </c>
       <c r="O514" s="8"/>
     </row>
-    <row r="515" spans="1:15" ht="15.4">
+    <row r="515" spans="1:15" ht="16">
       <c r="A515" s="7" t="s">
         <v>28</v>
       </c>
@@ -25726,7 +25723,7 @@
       </c>
       <c r="O515" s="8"/>
     </row>
-    <row r="516" spans="1:15" ht="15.4">
+    <row r="516" spans="1:15" ht="16">
       <c r="A516" s="7" t="s">
         <v>28</v>
       </c>
@@ -25769,7 +25766,7 @@
       </c>
       <c r="O516" s="8"/>
     </row>
-    <row r="517" spans="1:15" ht="15.4">
+    <row r="517" spans="1:15" ht="16">
       <c r="A517" s="7" t="s">
         <v>28</v>
       </c>
@@ -25812,7 +25809,7 @@
       </c>
       <c r="O517" s="8"/>
     </row>
-    <row r="518" spans="1:15" ht="15.4">
+    <row r="518" spans="1:15" ht="16">
       <c r="A518" s="7" t="s">
         <v>28</v>
       </c>
@@ -25857,7 +25854,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="15.4">
+    <row r="519" spans="1:15" ht="16">
       <c r="A519" s="7" t="s">
         <v>28</v>
       </c>
@@ -25900,7 +25897,7 @@
       </c>
       <c r="O519" s="8"/>
     </row>
-    <row r="520" spans="1:15" ht="15.4">
+    <row r="520" spans="1:15" ht="16">
       <c r="A520" s="7" t="s">
         <v>28</v>
       </c>
@@ -25943,7 +25940,7 @@
       </c>
       <c r="O520" s="8"/>
     </row>
-    <row r="521" spans="1:15" ht="15.4">
+    <row r="521" spans="1:15" ht="16">
       <c r="A521" s="7" t="s">
         <v>28</v>
       </c>
@@ -25986,7 +25983,7 @@
       </c>
       <c r="O521" s="8"/>
     </row>
-    <row r="522" spans="1:15" ht="15.4">
+    <row r="522" spans="1:15" ht="16">
       <c r="A522" s="7" t="s">
         <v>28</v>
       </c>
@@ -26029,7 +26026,7 @@
       </c>
       <c r="O522" s="8"/>
     </row>
-    <row r="523" spans="1:15" ht="15.4">
+    <row r="523" spans="1:15" ht="16">
       <c r="A523" s="7" t="s">
         <v>28</v>
       </c>
@@ -26072,7 +26069,7 @@
       </c>
       <c r="O523" s="8"/>
     </row>
-    <row r="524" spans="1:15" ht="15.4">
+    <row r="524" spans="1:15" ht="16">
       <c r="A524" s="7" t="s">
         <v>28</v>
       </c>
@@ -26115,7 +26112,7 @@
       </c>
       <c r="O524" s="8"/>
     </row>
-    <row r="525" spans="1:15" ht="15.4">
+    <row r="525" spans="1:15" ht="16">
       <c r="A525" s="7" t="s">
         <v>28</v>
       </c>
@@ -26158,7 +26155,7 @@
       </c>
       <c r="O525" s="8"/>
     </row>
-    <row r="526" spans="1:15" ht="15.4">
+    <row r="526" spans="1:15" ht="16">
       <c r="A526" s="7" t="s">
         <v>28</v>
       </c>
@@ -26201,7 +26198,7 @@
       </c>
       <c r="O526" s="8"/>
     </row>
-    <row r="527" spans="1:15" ht="15.4">
+    <row r="527" spans="1:15" ht="16">
       <c r="A527" s="7" t="s">
         <v>28</v>
       </c>
@@ -26244,7 +26241,7 @@
       </c>
       <c r="O527" s="8"/>
     </row>
-    <row r="528" spans="1:15" ht="15.4">
+    <row r="528" spans="1:15" ht="16">
       <c r="A528" s="7" t="s">
         <v>28</v>
       </c>
@@ -26287,7 +26284,7 @@
       </c>
       <c r="O528" s="8"/>
     </row>
-    <row r="529" spans="1:15" ht="15.4">
+    <row r="529" spans="1:15" ht="16">
       <c r="A529" s="7" t="s">
         <v>28</v>
       </c>
@@ -26330,7 +26327,7 @@
       </c>
       <c r="O529" s="8"/>
     </row>
-    <row r="530" spans="1:15" ht="15.4">
+    <row r="530" spans="1:15" ht="16">
       <c r="A530" s="7" t="s">
         <v>28</v>
       </c>
@@ -26373,7 +26370,7 @@
       </c>
       <c r="O530" s="8"/>
     </row>
-    <row r="531" spans="1:15" ht="15.4">
+    <row r="531" spans="1:15" ht="16">
       <c r="A531" s="7" t="s">
         <v>28</v>
       </c>
@@ -26418,7 +26415,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="15.4">
+    <row r="532" spans="1:15" ht="16">
       <c r="A532" s="7" t="s">
         <v>28</v>
       </c>
@@ -26461,7 +26458,7 @@
       </c>
       <c r="O532" s="8"/>
     </row>
-    <row r="533" spans="1:15" ht="15.4">
+    <row r="533" spans="1:15" ht="16">
       <c r="A533" s="7" t="s">
         <v>28</v>
       </c>
@@ -26504,7 +26501,7 @@
       </c>
       <c r="O533" s="8"/>
     </row>
-    <row r="534" spans="1:15" ht="15.4">
+    <row r="534" spans="1:15" ht="16">
       <c r="A534" s="7" t="s">
         <v>28</v>
       </c>
@@ -26547,7 +26544,7 @@
       </c>
       <c r="O534" s="8"/>
     </row>
-    <row r="535" spans="1:15" ht="15.4">
+    <row r="535" spans="1:15" ht="16">
       <c r="A535" s="7" t="s">
         <v>28</v>
       </c>
@@ -26592,7 +26589,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="536" spans="1:15" ht="15.4">
+    <row r="536" spans="1:15" ht="16">
       <c r="A536" s="7" t="s">
         <v>28</v>
       </c>
@@ -26635,7 +26632,7 @@
       </c>
       <c r="O536" s="8"/>
     </row>
-    <row r="537" spans="1:15" ht="15.4">
+    <row r="537" spans="1:15" ht="16">
       <c r="A537" s="7" t="s">
         <v>28</v>
       </c>
@@ -26678,7 +26675,7 @@
       </c>
       <c r="O537" s="8"/>
     </row>
-    <row r="538" spans="1:15" ht="15.4">
+    <row r="538" spans="1:15" ht="16">
       <c r="A538" s="7" t="s">
         <v>28</v>
       </c>
@@ -26721,7 +26718,7 @@
       </c>
       <c r="O538" s="8"/>
     </row>
-    <row r="539" spans="1:15" ht="15.4">
+    <row r="539" spans="1:15" ht="16">
       <c r="A539" s="7" t="s">
         <v>28</v>
       </c>
@@ -26764,7 +26761,7 @@
       </c>
       <c r="O539" s="8"/>
     </row>
-    <row r="540" spans="1:15" ht="15.4">
+    <row r="540" spans="1:15" ht="16">
       <c r="A540" s="7" t="s">
         <v>28</v>
       </c>
@@ -26807,7 +26804,7 @@
       </c>
       <c r="O540" s="8"/>
     </row>
-    <row r="541" spans="1:15" ht="15.4">
+    <row r="541" spans="1:15" ht="16">
       <c r="A541" s="7" t="s">
         <v>28</v>
       </c>
@@ -26850,7 +26847,7 @@
       </c>
       <c r="O541" s="8"/>
     </row>
-    <row r="542" spans="1:15" ht="15.4">
+    <row r="542" spans="1:15" ht="16">
       <c r="A542" s="7" t="s">
         <v>28</v>
       </c>
@@ -26893,7 +26890,7 @@
       </c>
       <c r="O542" s="8"/>
     </row>
-    <row r="543" spans="1:15" ht="15.4">
+    <row r="543" spans="1:15" ht="16">
       <c r="A543" s="7" t="s">
         <v>28</v>
       </c>
@@ -26936,7 +26933,7 @@
       </c>
       <c r="O543" s="8"/>
     </row>
-    <row r="544" spans="1:15" ht="15.4">
+    <row r="544" spans="1:15" ht="16">
       <c r="A544" s="7" t="s">
         <v>28</v>
       </c>
@@ -26979,7 +26976,7 @@
       </c>
       <c r="O544" s="8"/>
     </row>
-    <row r="545" spans="1:15" ht="15.4">
+    <row r="545" spans="1:15" ht="16">
       <c r="A545" s="7" t="s">
         <v>28</v>
       </c>
@@ -27022,7 +27019,7 @@
       </c>
       <c r="O545" s="8"/>
     </row>
-    <row r="546" spans="1:15" ht="15.4">
+    <row r="546" spans="1:15" ht="16">
       <c r="A546" s="7" t="s">
         <v>28</v>
       </c>
@@ -27065,7 +27062,7 @@
       </c>
       <c r="O546" s="8"/>
     </row>
-    <row r="547" spans="1:15" ht="15.4">
+    <row r="547" spans="1:15" ht="16">
       <c r="A547" s="7" t="s">
         <v>28</v>
       </c>
@@ -27108,7 +27105,7 @@
       </c>
       <c r="O547" s="8"/>
     </row>
-    <row r="548" spans="1:15" ht="15.4">
+    <row r="548" spans="1:15" ht="16">
       <c r="A548" s="7" t="s">
         <v>28</v>
       </c>
@@ -27151,7 +27148,7 @@
       </c>
       <c r="O548" s="8"/>
     </row>
-    <row r="549" spans="1:15" ht="15.4">
+    <row r="549" spans="1:15" ht="16">
       <c r="A549" s="7" t="s">
         <v>28</v>
       </c>
@@ -27194,7 +27191,7 @@
       </c>
       <c r="O549" s="8"/>
     </row>
-    <row r="550" spans="1:15" ht="15.4">
+    <row r="550" spans="1:15" ht="16">
       <c r="A550" s="7" t="s">
         <v>28</v>
       </c>
@@ -27237,7 +27234,7 @@
       </c>
       <c r="O550" s="8"/>
     </row>
-    <row r="551" spans="1:15" ht="15.4">
+    <row r="551" spans="1:15" ht="16">
       <c r="A551" s="18" t="s">
         <v>28</v>
       </c>
@@ -27280,7 +27277,7 @@
       </c>
       <c r="O551" s="8"/>
     </row>
-    <row r="552" spans="1:15" ht="15.4">
+    <row r="552" spans="1:15" ht="16">
       <c r="A552" s="18" t="s">
         <v>28</v>
       </c>
@@ -27323,7 +27320,7 @@
       </c>
       <c r="O552" s="8"/>
     </row>
-    <row r="553" spans="1:15" ht="15.4">
+    <row r="553" spans="1:15" ht="16">
       <c r="A553" s="18" t="s">
         <v>28</v>
       </c>
@@ -27366,7 +27363,7 @@
       </c>
       <c r="O553" s="8"/>
     </row>
-    <row r="554" spans="1:15" ht="15.4">
+    <row r="554" spans="1:15" ht="16">
       <c r="A554" s="18" t="s">
         <v>28</v>
       </c>
@@ -27409,7 +27406,7 @@
       </c>
       <c r="O554" s="8"/>
     </row>
-    <row r="555" spans="1:15" ht="15.4">
+    <row r="555" spans="1:15" ht="16">
       <c r="A555" s="7" t="s">
         <v>148</v>
       </c>
@@ -27452,7 +27449,7 @@
       </c>
       <c r="O555" s="10"/>
     </row>
-    <row r="556" spans="1:15" ht="15.4">
+    <row r="556" spans="1:15" ht="16">
       <c r="A556" s="7" t="s">
         <v>148</v>
       </c>
@@ -27495,7 +27492,7 @@
       </c>
       <c r="O556" s="10"/>
     </row>
-    <row r="557" spans="1:15" ht="15.4">
+    <row r="557" spans="1:15" ht="16">
       <c r="A557" s="7" t="s">
         <v>148</v>
       </c>
@@ -27538,7 +27535,7 @@
       </c>
       <c r="O557" s="10"/>
     </row>
-    <row r="558" spans="1:15" ht="15.4">
+    <row r="558" spans="1:15" ht="16">
       <c r="A558" s="7" t="s">
         <v>148</v>
       </c>
@@ -27581,7 +27578,7 @@
       </c>
       <c r="O558" s="10"/>
     </row>
-    <row r="559" spans="1:15" ht="15.4">
+    <row r="559" spans="1:15" ht="16">
       <c r="A559" s="7" t="s">
         <v>148</v>
       </c>
@@ -27624,7 +27621,7 @@
       </c>
       <c r="O559" s="10"/>
     </row>
-    <row r="560" spans="1:15" ht="15.4">
+    <row r="560" spans="1:15" ht="16">
       <c r="A560" s="7" t="s">
         <v>148</v>
       </c>
@@ -27667,7 +27664,7 @@
       </c>
       <c r="O560" s="10"/>
     </row>
-    <row r="561" spans="1:15" ht="15.4">
+    <row r="561" spans="1:15" ht="16">
       <c r="A561" s="7" t="s">
         <v>148</v>
       </c>
@@ -27710,7 +27707,7 @@
       </c>
       <c r="O561" s="10"/>
     </row>
-    <row r="562" spans="1:15" ht="15.4">
+    <row r="562" spans="1:15" ht="16">
       <c r="A562" s="7" t="s">
         <v>148</v>
       </c>
@@ -27753,7 +27750,7 @@
       </c>
       <c r="O562" s="10"/>
     </row>
-    <row r="563" spans="1:15" ht="15.4">
+    <row r="563" spans="1:15" ht="16">
       <c r="A563" s="7" t="s">
         <v>148</v>
       </c>
@@ -27796,7 +27793,7 @@
       </c>
       <c r="O563" s="10"/>
     </row>
-    <row r="564" spans="1:15" ht="15.4">
+    <row r="564" spans="1:15" ht="16">
       <c r="A564" s="7" t="s">
         <v>10</v>
       </c>
@@ -27839,7 +27836,7 @@
       </c>
       <c r="O564" s="10"/>
     </row>
-    <row r="565" spans="1:15" ht="15.4">
+    <row r="565" spans="1:15" ht="16">
       <c r="A565" s="7" t="s">
         <v>10</v>
       </c>
@@ -27882,7 +27879,7 @@
       </c>
       <c r="O565" s="10"/>
     </row>
-    <row r="566" spans="1:15" ht="15.4">
+    <row r="566" spans="1:15" ht="16">
       <c r="A566" s="7" t="s">
         <v>10</v>
       </c>
@@ -27925,7 +27922,7 @@
       </c>
       <c r="O566" s="10"/>
     </row>
-    <row r="567" spans="1:15" ht="15.4">
+    <row r="567" spans="1:15" ht="16">
       <c r="A567" s="7" t="s">
         <v>10</v>
       </c>
@@ -27970,7 +27967,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="15.4">
+    <row r="568" spans="1:15" ht="16">
       <c r="A568" s="7" t="s">
         <v>11</v>
       </c>
@@ -28013,7 +28010,7 @@
       </c>
       <c r="O568" s="10"/>
     </row>
-    <row r="569" spans="1:15" ht="15.4">
+    <row r="569" spans="1:15" ht="16">
       <c r="A569" s="18" t="s">
         <v>34</v>
       </c>
@@ -28056,7 +28053,7 @@
       </c>
       <c r="O569" s="10"/>
     </row>
-    <row r="570" spans="1:15" ht="15.4">
+    <row r="570" spans="1:15" ht="16">
       <c r="A570" s="7" t="s">
         <v>34</v>
       </c>
@@ -28099,7 +28096,7 @@
       </c>
       <c r="O570" s="10"/>
     </row>
-    <row r="571" spans="1:15" ht="15.4">
+    <row r="571" spans="1:15" ht="16">
       <c r="A571" s="7" t="s">
         <v>34</v>
       </c>
@@ -28142,7 +28139,7 @@
       </c>
       <c r="O571" s="10"/>
     </row>
-    <row r="572" spans="1:15" ht="15.4">
+    <row r="572" spans="1:15" ht="16">
       <c r="A572" s="7" t="s">
         <v>34</v>
       </c>
@@ -28185,7 +28182,7 @@
       </c>
       <c r="O572" s="10"/>
     </row>
-    <row r="573" spans="1:15" ht="15.4">
+    <row r="573" spans="1:15" ht="16">
       <c r="A573" s="7" t="s">
         <v>34</v>
       </c>
@@ -28228,7 +28225,7 @@
       </c>
       <c r="O573" s="10"/>
     </row>
-    <row r="574" spans="1:15" ht="15.4">
+    <row r="574" spans="1:15" ht="16">
       <c r="A574" s="7" t="s">
         <v>34</v>
       </c>
@@ -28271,7 +28268,7 @@
       </c>
       <c r="O574" s="10"/>
     </row>
-    <row r="575" spans="1:15" ht="15.4">
+    <row r="575" spans="1:15" ht="16">
       <c r="A575" s="7" t="s">
         <v>34</v>
       </c>
@@ -28314,7 +28311,7 @@
       </c>
       <c r="O575" s="10"/>
     </row>
-    <row r="576" spans="1:15" ht="15.4">
+    <row r="576" spans="1:15" ht="16">
       <c r="A576" s="7" t="s">
         <v>34</v>
       </c>
@@ -28357,7 +28354,7 @@
       </c>
       <c r="O576" s="10"/>
     </row>
-    <row r="577" spans="1:15" ht="15.4">
+    <row r="577" spans="1:15" ht="16">
       <c r="A577" s="7" t="s">
         <v>34</v>
       </c>
@@ -28400,7 +28397,7 @@
       </c>
       <c r="O577" s="10"/>
     </row>
-    <row r="578" spans="1:15" ht="15.4">
+    <row r="578" spans="1:15" ht="16">
       <c r="A578" s="7" t="s">
         <v>34</v>
       </c>
@@ -28443,7 +28440,7 @@
       </c>
       <c r="O578" s="10"/>
     </row>
-    <row r="579" spans="1:15" ht="15.4">
+    <row r="579" spans="1:15" ht="16">
       <c r="A579" s="7" t="s">
         <v>34</v>
       </c>
@@ -28486,7 +28483,7 @@
       </c>
       <c r="O579" s="10"/>
     </row>
-    <row r="580" spans="1:15" ht="15.4">
+    <row r="580" spans="1:15" ht="16">
       <c r="A580" s="7" t="s">
         <v>34</v>
       </c>
@@ -28529,7 +28526,7 @@
       </c>
       <c r="O580" s="10"/>
     </row>
-    <row r="581" spans="1:15" ht="15.4">
+    <row r="581" spans="1:15" ht="16">
       <c r="A581" s="7" t="s">
         <v>34</v>
       </c>
@@ -28572,7 +28569,7 @@
       </c>
       <c r="O581" s="10"/>
     </row>
-    <row r="582" spans="1:15" ht="15.4">
+    <row r="582" spans="1:15" ht="16">
       <c r="A582" s="7" t="s">
         <v>34</v>
       </c>
@@ -28615,7 +28612,7 @@
       </c>
       <c r="O582" s="10"/>
     </row>
-    <row r="583" spans="1:15" ht="15.4">
+    <row r="583" spans="1:15" ht="16">
       <c r="A583" s="7" t="s">
         <v>34</v>
       </c>
@@ -28658,7 +28655,7 @@
       </c>
       <c r="O583" s="10"/>
     </row>
-    <row r="584" spans="1:15" ht="15.4">
+    <row r="584" spans="1:15" ht="16">
       <c r="A584" s="7" t="s">
         <v>34</v>
       </c>
@@ -28701,7 +28698,7 @@
       </c>
       <c r="O584" s="10"/>
     </row>
-    <row r="585" spans="1:15" ht="15.4">
+    <row r="585" spans="1:15" ht="16">
       <c r="A585" s="77" t="s">
         <v>34</v>
       </c>
@@ -28746,7 +28743,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="15.4">
+    <row r="586" spans="1:15" ht="16">
       <c r="A586" s="77" t="s">
         <v>34</v>
       </c>
@@ -28791,7 +28788,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="15.4">
+    <row r="587" spans="1:15" ht="16">
       <c r="A587" s="77" t="s">
         <v>34</v>
       </c>
@@ -28836,7 +28833,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="15.4">
+    <row r="588" spans="1:15" ht="16">
       <c r="A588" s="77" t="s">
         <v>34</v>
       </c>
@@ -28881,7 +28878,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="589" spans="1:15" ht="15.4">
+    <row r="589" spans="1:15" ht="16">
       <c r="A589" s="77" t="s">
         <v>34</v>
       </c>
@@ -28926,7 +28923,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="15.4">
+    <row r="590" spans="1:15" ht="16">
       <c r="A590" s="77" t="s">
         <v>34</v>
       </c>
@@ -28971,7 +28968,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="15.4">
+    <row r="591" spans="1:15" ht="16">
       <c r="A591" s="77" t="s">
         <v>34</v>
       </c>
@@ -29016,7 +29013,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="15.4">
+    <row r="592" spans="1:15" ht="16">
       <c r="A592" s="77" t="s">
         <v>34</v>
       </c>
@@ -29061,7 +29058,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="15.4">
+    <row r="593" spans="1:15" ht="16">
       <c r="A593" s="77" t="s">
         <v>34</v>
       </c>
@@ -29106,7 +29103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="15.4">
+    <row r="594" spans="1:15" ht="16">
       <c r="A594" s="77" t="s">
         <v>34</v>
       </c>
@@ -29151,7 +29148,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="15.4">
+    <row r="595" spans="1:15" ht="16">
       <c r="A595" s="77" t="s">
         <v>34</v>
       </c>
@@ -29196,7 +29193,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="15.4">
+    <row r="596" spans="1:15" ht="16">
       <c r="A596" s="77" t="s">
         <v>34</v>
       </c>
@@ -29241,7 +29238,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="15.4">
+    <row r="597" spans="1:15" ht="16">
       <c r="A597" s="77" t="s">
         <v>34</v>
       </c>
@@ -29286,7 +29283,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="15.4">
+    <row r="598" spans="1:15" ht="16">
       <c r="A598" s="77" t="s">
         <v>34</v>
       </c>
@@ -29331,7 +29328,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="15.4">
+    <row r="599" spans="1:15" ht="16">
       <c r="A599" s="77" t="s">
         <v>34</v>
       </c>
@@ -29376,7 +29373,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="15.4">
+    <row r="600" spans="1:15" ht="16">
       <c r="A600" s="77" t="s">
         <v>34</v>
       </c>
@@ -29421,7 +29418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="15.4">
+    <row r="601" spans="1:15" ht="16">
       <c r="A601" s="7" t="s">
         <v>34</v>
       </c>
@@ -29464,7 +29461,7 @@
       </c>
       <c r="O601" s="10"/>
     </row>
-    <row r="602" spans="1:15" ht="15.4">
+    <row r="602" spans="1:15" ht="16">
       <c r="A602" s="7" t="s">
         <v>34</v>
       </c>
@@ -29507,7 +29504,7 @@
       </c>
       <c r="O602" s="10"/>
     </row>
-    <row r="603" spans="1:15" ht="15.4">
+    <row r="603" spans="1:15" ht="16">
       <c r="A603" s="7" t="s">
         <v>34</v>
       </c>
@@ -29550,7 +29547,7 @@
       </c>
       <c r="O603" s="10"/>
     </row>
-    <row r="604" spans="1:15" ht="15.4">
+    <row r="604" spans="1:15" ht="16">
       <c r="A604" s="7" t="s">
         <v>34</v>
       </c>
@@ -29593,7 +29590,7 @@
       </c>
       <c r="O604" s="10"/>
     </row>
-    <row r="605" spans="1:15" ht="15.4">
+    <row r="605" spans="1:15" ht="16">
       <c r="A605" s="7" t="s">
         <v>34</v>
       </c>
@@ -29636,7 +29633,7 @@
       </c>
       <c r="O605" s="10"/>
     </row>
-    <row r="606" spans="1:15" ht="15.4">
+    <row r="606" spans="1:15" ht="16">
       <c r="A606" s="7" t="s">
         <v>34</v>
       </c>
@@ -29679,7 +29676,7 @@
       </c>
       <c r="O606" s="10"/>
     </row>
-    <row r="607" spans="1:15" ht="15.4">
+    <row r="607" spans="1:15" ht="16">
       <c r="A607" s="7" t="s">
         <v>34</v>
       </c>
@@ -29722,7 +29719,7 @@
       </c>
       <c r="O607" s="10"/>
     </row>
-    <row r="608" spans="1:15" ht="15.4">
+    <row r="608" spans="1:15" ht="16">
       <c r="A608" s="7" t="s">
         <v>34</v>
       </c>
@@ -29765,7 +29762,7 @@
       </c>
       <c r="O608" s="10"/>
     </row>
-    <row r="609" spans="1:15" ht="15.4">
+    <row r="609" spans="1:15" ht="16">
       <c r="A609" s="7" t="s">
         <v>34</v>
       </c>
@@ -29808,7 +29805,7 @@
       </c>
       <c r="O609" s="10"/>
     </row>
-    <row r="610" spans="1:15" ht="15.4">
+    <row r="610" spans="1:15" ht="16">
       <c r="A610" s="7" t="s">
         <v>34</v>
       </c>
@@ -29851,7 +29848,7 @@
       </c>
       <c r="O610" s="10"/>
     </row>
-    <row r="611" spans="1:15" ht="15.4">
+    <row r="611" spans="1:15" ht="16">
       <c r="A611" s="7" t="s">
         <v>34</v>
       </c>
@@ -29894,7 +29891,7 @@
       </c>
       <c r="O611" s="10"/>
     </row>
-    <row r="612" spans="1:15" ht="15.4">
+    <row r="612" spans="1:15" ht="16">
       <c r="A612" s="7" t="s">
         <v>34</v>
       </c>
@@ -29937,7 +29934,7 @@
       </c>
       <c r="O612" s="10"/>
     </row>
-    <row r="613" spans="1:15" ht="15.4">
+    <row r="613" spans="1:15" ht="16">
       <c r="A613" s="7" t="s">
         <v>108</v>
       </c>
@@ -29982,7 +29979,7 @@
       </c>
       <c r="O613" s="8"/>
     </row>
-    <row r="614" spans="1:15" ht="15.4">
+    <row r="614" spans="1:15" ht="16">
       <c r="A614" s="7" t="s">
         <v>108</v>
       </c>
@@ -30027,7 +30024,7 @@
       </c>
       <c r="O614" s="8"/>
     </row>
-    <row r="615" spans="1:15" ht="15.4">
+    <row r="615" spans="1:15" ht="16">
       <c r="A615" s="7" t="s">
         <v>108</v>
       </c>
@@ -30072,7 +30069,7 @@
       </c>
       <c r="O615" s="8"/>
     </row>
-    <row r="616" spans="1:15" ht="15.4">
+    <row r="616" spans="1:15" ht="16">
       <c r="A616" s="7" t="s">
         <v>108</v>
       </c>
@@ -30117,7 +30114,7 @@
       </c>
       <c r="O616" s="8"/>
     </row>
-    <row r="617" spans="1:15" ht="15.4">
+    <row r="617" spans="1:15" ht="16">
       <c r="A617" s="7" t="s">
         <v>108</v>
       </c>
@@ -30162,7 +30159,7 @@
       </c>
       <c r="O617" s="8"/>
     </row>
-    <row r="618" spans="1:15" ht="15.4">
+    <row r="618" spans="1:15" ht="16">
       <c r="A618" s="7" t="s">
         <v>108</v>
       </c>
@@ -30207,7 +30204,7 @@
       </c>
       <c r="O618" s="8"/>
     </row>
-    <row r="619" spans="1:15" ht="15.4">
+    <row r="619" spans="1:15" ht="16">
       <c r="A619" s="7" t="s">
         <v>108</v>
       </c>
@@ -30252,7 +30249,7 @@
       </c>
       <c r="O619" s="8"/>
     </row>
-    <row r="620" spans="1:15" ht="15.4">
+    <row r="620" spans="1:15" ht="16">
       <c r="A620" s="7" t="s">
         <v>108</v>
       </c>
@@ -30297,7 +30294,7 @@
       </c>
       <c r="O620" s="8"/>
     </row>
-    <row r="621" spans="1:15" ht="15.4">
+    <row r="621" spans="1:15" ht="16">
       <c r="A621" s="7" t="s">
         <v>108</v>
       </c>
@@ -30342,7 +30339,7 @@
       </c>
       <c r="O621" s="8"/>
     </row>
-    <row r="622" spans="1:15" ht="15.4">
+    <row r="622" spans="1:15" ht="16">
       <c r="A622" s="7" t="s">
         <v>108</v>
       </c>
@@ -30387,7 +30384,7 @@
       </c>
       <c r="O622" s="8"/>
     </row>
-    <row r="623" spans="1:15" ht="15.4">
+    <row r="623" spans="1:15" ht="16">
       <c r="A623" s="7" t="s">
         <v>108</v>
       </c>
@@ -30432,7 +30429,7 @@
       </c>
       <c r="O623" s="8"/>
     </row>
-    <row r="624" spans="1:15" ht="15.4">
+    <row r="624" spans="1:15" ht="16">
       <c r="A624" s="7" t="s">
         <v>108</v>
       </c>
@@ -30477,7 +30474,7 @@
       </c>
       <c r="O624" s="8"/>
     </row>
-    <row r="625" spans="1:15" ht="15.4">
+    <row r="625" spans="1:15" ht="16">
       <c r="A625" s="7" t="s">
         <v>108</v>
       </c>
@@ -30522,7 +30519,7 @@
       </c>
       <c r="O625" s="8"/>
     </row>
-    <row r="626" spans="1:15" ht="15.4">
+    <row r="626" spans="1:15" ht="16">
       <c r="A626" s="7" t="s">
         <v>108</v>
       </c>
@@ -30567,7 +30564,7 @@
       </c>
       <c r="O626" s="8"/>
     </row>
-    <row r="627" spans="1:15" ht="15.4">
+    <row r="627" spans="1:15" ht="16">
       <c r="A627" s="7" t="s">
         <v>108</v>
       </c>
@@ -30612,7 +30609,7 @@
       </c>
       <c r="O627" s="8"/>
     </row>
-    <row r="628" spans="1:15" ht="15.4">
+    <row r="628" spans="1:15" ht="16">
       <c r="A628" s="7" t="s">
         <v>108</v>
       </c>
@@ -30657,7 +30654,7 @@
       </c>
       <c r="O628" s="8"/>
     </row>
-    <row r="629" spans="1:15" ht="15.4">
+    <row r="629" spans="1:15" ht="16">
       <c r="A629" s="7" t="s">
         <v>108</v>
       </c>
@@ -30702,7 +30699,7 @@
       </c>
       <c r="O629" s="8"/>
     </row>
-    <row r="630" spans="1:15" ht="15.4">
+    <row r="630" spans="1:15" ht="16">
       <c r="A630" s="7" t="s">
         <v>108</v>
       </c>
@@ -30747,7 +30744,7 @@
       </c>
       <c r="O630" s="8"/>
     </row>
-    <row r="631" spans="1:15" ht="15.4">
+    <row r="631" spans="1:15" ht="16">
       <c r="A631" s="7" t="s">
         <v>108</v>
       </c>
@@ -30792,7 +30789,7 @@
       </c>
       <c r="O631" s="8"/>
     </row>
-    <row r="632" spans="1:15" ht="15.4">
+    <row r="632" spans="1:15" ht="16">
       <c r="A632" s="7" t="s">
         <v>108</v>
       </c>
@@ -30837,7 +30834,7 @@
       </c>
       <c r="O632" s="8"/>
     </row>
-    <row r="633" spans="1:15" ht="15.4">
+    <row r="633" spans="1:15" ht="16">
       <c r="A633" s="7" t="s">
         <v>108</v>
       </c>
@@ -30882,7 +30879,7 @@
       </c>
       <c r="O633" s="8"/>
     </row>
-    <row r="634" spans="1:15" ht="15.4">
+    <row r="634" spans="1:15" ht="16">
       <c r="A634" s="7" t="s">
         <v>108</v>
       </c>
@@ -30927,7 +30924,7 @@
       </c>
       <c r="O634" s="8"/>
     </row>
-    <row r="635" spans="1:15" ht="15.4">
+    <row r="635" spans="1:15" ht="16">
       <c r="A635" s="7" t="s">
         <v>108</v>
       </c>
@@ -30972,7 +30969,7 @@
       </c>
       <c r="O635" s="8"/>
     </row>
-    <row r="636" spans="1:15" ht="15.4">
+    <row r="636" spans="1:15" ht="16">
       <c r="A636" s="7" t="s">
         <v>108</v>
       </c>
@@ -31017,7 +31014,7 @@
       </c>
       <c r="O636" s="8"/>
     </row>
-    <row r="637" spans="1:15" ht="15.4">
+    <row r="637" spans="1:15" ht="16">
       <c r="A637" s="7" t="s">
         <v>108</v>
       </c>
@@ -31062,7 +31059,7 @@
       </c>
       <c r="O637" s="8"/>
     </row>
-    <row r="638" spans="1:15" ht="15.4">
+    <row r="638" spans="1:15" ht="16">
       <c r="A638" s="7" t="s">
         <v>108</v>
       </c>
@@ -31107,7 +31104,7 @@
       </c>
       <c r="O638" s="8"/>
     </row>
-    <row r="639" spans="1:15" ht="15.4">
+    <row r="639" spans="1:15" ht="16">
       <c r="A639" s="7" t="s">
         <v>108</v>
       </c>
@@ -31152,7 +31149,7 @@
       </c>
       <c r="O639" s="8"/>
     </row>
-    <row r="640" spans="1:15" ht="15.4">
+    <row r="640" spans="1:15" ht="16">
       <c r="A640" s="7" t="s">
         <v>108</v>
       </c>
@@ -31197,7 +31194,7 @@
       </c>
       <c r="O640" s="8"/>
     </row>
-    <row r="641" spans="1:15" ht="15.4">
+    <row r="641" spans="1:15" ht="16">
       <c r="A641" s="7" t="s">
         <v>108</v>
       </c>
@@ -31242,7 +31239,7 @@
       </c>
       <c r="O641" s="8"/>
     </row>
-    <row r="642" spans="1:15" ht="15.4">
+    <row r="642" spans="1:15" ht="16">
       <c r="A642" s="7" t="s">
         <v>108</v>
       </c>
@@ -31287,7 +31284,7 @@
       </c>
       <c r="O642" s="8"/>
     </row>
-    <row r="643" spans="1:15" ht="15.4">
+    <row r="643" spans="1:15" ht="16">
       <c r="A643" s="7" t="s">
         <v>108</v>
       </c>
@@ -31332,7 +31329,7 @@
       </c>
       <c r="O643" s="8"/>
     </row>
-    <row r="644" spans="1:15" ht="15.4">
+    <row r="644" spans="1:15" ht="16">
       <c r="A644" s="7" t="s">
         <v>108</v>
       </c>
@@ -31377,7 +31374,7 @@
       </c>
       <c r="O644" s="8"/>
     </row>
-    <row r="645" spans="1:15" ht="15.4">
+    <row r="645" spans="1:15" ht="16">
       <c r="A645" s="7" t="s">
         <v>108</v>
       </c>
@@ -31422,7 +31419,7 @@
       </c>
       <c r="O645" s="8"/>
     </row>
-    <row r="646" spans="1:15" ht="15.4">
+    <row r="646" spans="1:15" ht="16">
       <c r="A646" s="7" t="s">
         <v>108</v>
       </c>
@@ -31467,7 +31464,7 @@
       </c>
       <c r="O646" s="8"/>
     </row>
-    <row r="647" spans="1:15" ht="15.4">
+    <row r="647" spans="1:15" ht="16">
       <c r="A647" s="7" t="s">
         <v>108</v>
       </c>
@@ -31512,7 +31509,7 @@
       </c>
       <c r="O647" s="8"/>
     </row>
-    <row r="648" spans="1:15" ht="15.4">
+    <row r="648" spans="1:15" ht="16">
       <c r="A648" s="7" t="s">
         <v>108</v>
       </c>
@@ -31557,7 +31554,7 @@
       </c>
       <c r="O648" s="8"/>
     </row>
-    <row r="649" spans="1:15" ht="15.4">
+    <row r="649" spans="1:15" ht="16">
       <c r="A649" s="7" t="s">
         <v>108</v>
       </c>
@@ -31602,7 +31599,7 @@
       </c>
       <c r="O649" s="8"/>
     </row>
-    <row r="650" spans="1:15" ht="15.4">
+    <row r="650" spans="1:15" ht="16">
       <c r="A650" s="7" t="s">
         <v>108</v>
       </c>
@@ -31647,7 +31644,7 @@
       </c>
       <c r="O650" s="8"/>
     </row>
-    <row r="651" spans="1:15" ht="15.4">
+    <row r="651" spans="1:15" ht="16">
       <c r="A651" s="7" t="s">
         <v>108</v>
       </c>
@@ -31692,7 +31689,7 @@
       </c>
       <c r="O651" s="8"/>
     </row>
-    <row r="652" spans="1:15" ht="15.4">
+    <row r="652" spans="1:15" ht="16">
       <c r="A652" s="7" t="s">
         <v>108</v>
       </c>
@@ -31737,7 +31734,7 @@
       </c>
       <c r="O652" s="8"/>
     </row>
-    <row r="653" spans="1:15" ht="15.4">
+    <row r="653" spans="1:15" ht="16">
       <c r="A653" s="7" t="s">
         <v>108</v>
       </c>
@@ -31782,7 +31779,7 @@
       </c>
       <c r="O653" s="8"/>
     </row>
-    <row r="654" spans="1:15" ht="15.4">
+    <row r="654" spans="1:15" ht="16">
       <c r="A654" s="7" t="s">
         <v>108</v>
       </c>
@@ -31827,7 +31824,7 @@
       </c>
       <c r="O654" s="8"/>
     </row>
-    <row r="655" spans="1:15" ht="15.4">
+    <row r="655" spans="1:15" ht="16">
       <c r="A655" s="7" t="s">
         <v>108</v>
       </c>
@@ -31872,7 +31869,7 @@
       </c>
       <c r="O655" s="8"/>
     </row>
-    <row r="656" spans="1:15" ht="15.4">
+    <row r="656" spans="1:15" ht="16">
       <c r="A656" s="7" t="s">
         <v>108</v>
       </c>
@@ -31917,7 +31914,7 @@
       </c>
       <c r="O656" s="8"/>
     </row>
-    <row r="657" spans="1:15" ht="15.4">
+    <row r="657" spans="1:15" ht="16">
       <c r="A657" s="7" t="s">
         <v>108</v>
       </c>
@@ -31962,7 +31959,7 @@
       </c>
       <c r="O657" s="8"/>
     </row>
-    <row r="658" spans="1:15" ht="15.4">
+    <row r="658" spans="1:15" ht="16">
       <c r="A658" s="7" t="s">
         <v>108</v>
       </c>
@@ -32007,7 +32004,7 @@
       </c>
       <c r="O658" s="8"/>
     </row>
-    <row r="659" spans="1:15" ht="15.4">
+    <row r="659" spans="1:15" ht="16">
       <c r="A659" s="7" t="s">
         <v>108</v>
       </c>
@@ -32052,7 +32049,7 @@
       </c>
       <c r="O659" s="8"/>
     </row>
-    <row r="660" spans="1:15" ht="15.4">
+    <row r="660" spans="1:15" ht="16">
       <c r="A660" s="7" t="s">
         <v>108</v>
       </c>
@@ -32097,7 +32094,7 @@
       </c>
       <c r="O660" s="8"/>
     </row>
-    <row r="661" spans="1:15" ht="15.4">
+    <row r="661" spans="1:15" ht="16">
       <c r="A661" s="7" t="s">
         <v>108</v>
       </c>
@@ -32142,7 +32139,7 @@
       </c>
       <c r="O661" s="8"/>
     </row>
-    <row r="662" spans="1:15" ht="15.4">
+    <row r="662" spans="1:15" ht="16">
       <c r="A662" s="7" t="s">
         <v>108</v>
       </c>
@@ -32187,7 +32184,7 @@
       </c>
       <c r="O662" s="8"/>
     </row>
-    <row r="663" spans="1:15" ht="15.4">
+    <row r="663" spans="1:15" ht="16">
       <c r="A663" s="7" t="s">
         <v>108</v>
       </c>
@@ -32232,7 +32229,7 @@
       </c>
       <c r="O663" s="8"/>
     </row>
-    <row r="664" spans="1:15" ht="15.4">
+    <row r="664" spans="1:15" ht="16">
       <c r="A664" s="7" t="s">
         <v>108</v>
       </c>
@@ -32277,7 +32274,7 @@
       </c>
       <c r="O664" s="8"/>
     </row>
-    <row r="665" spans="1:15" ht="15.4">
+    <row r="665" spans="1:15" ht="16">
       <c r="A665" s="7" t="s">
         <v>108</v>
       </c>
@@ -32322,7 +32319,7 @@
       </c>
       <c r="O665" s="8"/>
     </row>
-    <row r="666" spans="1:15" ht="15.4">
+    <row r="666" spans="1:15" ht="16">
       <c r="A666" s="7" t="s">
         <v>108</v>
       </c>
@@ -32367,7 +32364,7 @@
       </c>
       <c r="O666" s="8"/>
     </row>
-    <row r="667" spans="1:15" ht="15.4">
+    <row r="667" spans="1:15" ht="16">
       <c r="A667" s="7" t="s">
         <v>108</v>
       </c>
@@ -32412,7 +32409,7 @@
       </c>
       <c r="O667" s="8"/>
     </row>
-    <row r="668" spans="1:15" ht="15.4">
+    <row r="668" spans="1:15" ht="16">
       <c r="A668" s="7" t="s">
         <v>108</v>
       </c>
@@ -32457,7 +32454,7 @@
       </c>
       <c r="O668" s="8"/>
     </row>
-    <row r="669" spans="1:15" ht="15.4">
+    <row r="669" spans="1:15" ht="16">
       <c r="A669" s="7" t="s">
         <v>108</v>
       </c>
@@ -32502,7 +32499,7 @@
       </c>
       <c r="O669" s="8"/>
     </row>
-    <row r="670" spans="1:15" ht="15.4">
+    <row r="670" spans="1:15" ht="16">
       <c r="A670" s="7" t="s">
         <v>108</v>
       </c>
@@ -32547,7 +32544,7 @@
       </c>
       <c r="O670" s="8"/>
     </row>
-    <row r="671" spans="1:15" ht="15.4">
+    <row r="671" spans="1:15" ht="16">
       <c r="A671" s="7" t="s">
         <v>108</v>
       </c>
@@ -32592,7 +32589,7 @@
       </c>
       <c r="O671" s="8"/>
     </row>
-    <row r="672" spans="1:15" ht="15.4">
+    <row r="672" spans="1:15" ht="16">
       <c r="A672" s="7" t="s">
         <v>108</v>
       </c>
@@ -32637,7 +32634,7 @@
       </c>
       <c r="O672" s="8"/>
     </row>
-    <row r="673" spans="1:15" ht="15.4">
+    <row r="673" spans="1:15" ht="16">
       <c r="A673" s="7" t="s">
         <v>108</v>
       </c>
@@ -32682,7 +32679,7 @@
       </c>
       <c r="O673" s="8"/>
     </row>
-    <row r="674" spans="1:15" ht="15.4">
+    <row r="674" spans="1:15" ht="16">
       <c r="A674" s="7" t="s">
         <v>108</v>
       </c>
@@ -32727,7 +32724,7 @@
       </c>
       <c r="O674" s="8"/>
     </row>
-    <row r="675" spans="1:15" ht="15.4">
+    <row r="675" spans="1:15" ht="16">
       <c r="A675" s="7" t="s">
         <v>108</v>
       </c>
@@ -32772,7 +32769,7 @@
       </c>
       <c r="O675" s="8"/>
     </row>
-    <row r="676" spans="1:15" ht="15.4">
+    <row r="676" spans="1:15" ht="16">
       <c r="A676" s="7" t="s">
         <v>108</v>
       </c>
@@ -32817,7 +32814,7 @@
       </c>
       <c r="O676" s="8"/>
     </row>
-    <row r="677" spans="1:15" ht="15.4">
+    <row r="677" spans="1:15" ht="16">
       <c r="A677" s="7" t="s">
         <v>108</v>
       </c>
@@ -32862,7 +32859,7 @@
       </c>
       <c r="O677" s="8"/>
     </row>
-    <row r="678" spans="1:15" ht="15.4">
+    <row r="678" spans="1:15" ht="16">
       <c r="A678" s="7" t="s">
         <v>108</v>
       </c>
@@ -32907,7 +32904,7 @@
       </c>
       <c r="O678" s="8"/>
     </row>
-    <row r="679" spans="1:15" ht="15.4">
+    <row r="679" spans="1:15" ht="16">
       <c r="A679" s="7" t="s">
         <v>108</v>
       </c>
@@ -32952,7 +32949,7 @@
       </c>
       <c r="O679" s="8"/>
     </row>
-    <row r="680" spans="1:15" ht="15.4">
+    <row r="680" spans="1:15" ht="16">
       <c r="A680" s="7" t="s">
         <v>108</v>
       </c>
@@ -32997,7 +32994,7 @@
       </c>
       <c r="O680" s="8"/>
     </row>
-    <row r="681" spans="1:15" ht="15.4">
+    <row r="681" spans="1:15" ht="16">
       <c r="A681" s="7" t="s">
         <v>108</v>
       </c>
@@ -33042,7 +33039,7 @@
       </c>
       <c r="O681" s="8"/>
     </row>
-    <row r="682" spans="1:15" ht="15.4">
+    <row r="682" spans="1:15" ht="16">
       <c r="A682" s="7" t="s">
         <v>108</v>
       </c>
@@ -33087,7 +33084,7 @@
       </c>
       <c r="O682" s="8"/>
     </row>
-    <row r="683" spans="1:15" ht="15.4">
+    <row r="683" spans="1:15" ht="16">
       <c r="A683" s="7" t="s">
         <v>108</v>
       </c>
@@ -33132,7 +33129,7 @@
       </c>
       <c r="O683" s="8"/>
     </row>
-    <row r="684" spans="1:15" ht="15.4">
+    <row r="684" spans="1:15" ht="16">
       <c r="A684" s="7" t="s">
         <v>108</v>
       </c>
@@ -33177,7 +33174,7 @@
       </c>
       <c r="O684" s="8"/>
     </row>
-    <row r="685" spans="1:15" ht="15.4">
+    <row r="685" spans="1:15" ht="16">
       <c r="A685" s="7" t="s">
         <v>108</v>
       </c>
@@ -33222,7 +33219,7 @@
       </c>
       <c r="O685" s="8"/>
     </row>
-    <row r="686" spans="1:15" ht="15.4">
+    <row r="686" spans="1:15" ht="16">
       <c r="A686" s="18" t="s">
         <v>110</v>
       </c>
@@ -33267,7 +33264,7 @@
       </c>
       <c r="O686" s="8"/>
     </row>
-    <row r="687" spans="1:15" ht="15.4">
+    <row r="687" spans="1:15" ht="16">
       <c r="A687" s="18" t="s">
         <v>110</v>
       </c>
@@ -33312,7 +33309,7 @@
       </c>
       <c r="O687" s="8"/>
     </row>
-    <row r="688" spans="1:15" ht="15.4">
+    <row r="688" spans="1:15" ht="16">
       <c r="A688" s="18" t="s">
         <v>110</v>
       </c>
@@ -33357,7 +33354,7 @@
       </c>
       <c r="O688" s="8"/>
     </row>
-    <row r="689" spans="1:15" ht="15.4">
+    <row r="689" spans="1:15" ht="16">
       <c r="A689" s="18" t="s">
         <v>110</v>
       </c>
@@ -33402,7 +33399,7 @@
       </c>
       <c r="O689" s="8"/>
     </row>
-    <row r="690" spans="1:15" ht="15.4">
+    <row r="690" spans="1:15" ht="16">
       <c r="A690" s="18" t="s">
         <v>110</v>
       </c>
@@ -33447,7 +33444,7 @@
       </c>
       <c r="O690" s="8"/>
     </row>
-    <row r="691" spans="1:15" ht="15.4">
+    <row r="691" spans="1:15" ht="16">
       <c r="A691" s="18" t="s">
         <v>110</v>
       </c>
@@ -33492,7 +33489,7 @@
       </c>
       <c r="O691" s="8"/>
     </row>
-    <row r="692" spans="1:15" ht="15.4">
+    <row r="692" spans="1:15" ht="16">
       <c r="A692" s="18" t="s">
         <v>110</v>
       </c>
@@ -33537,7 +33534,7 @@
       </c>
       <c r="O692" s="8"/>
     </row>
-    <row r="693" spans="1:15" ht="15.4">
+    <row r="693" spans="1:15" ht="16">
       <c r="A693" s="18" t="s">
         <v>110</v>
       </c>
@@ -33582,7 +33579,7 @@
       </c>
       <c r="O693" s="8"/>
     </row>
-    <row r="694" spans="1:15" ht="15.4">
+    <row r="694" spans="1:15" ht="16">
       <c r="A694" s="18" t="s">
         <v>110</v>
       </c>
@@ -33627,7 +33624,7 @@
       </c>
       <c r="O694" s="8"/>
     </row>
-    <row r="695" spans="1:15" ht="15.4">
+    <row r="695" spans="1:15" ht="16">
       <c r="A695" s="18" t="s">
         <v>110</v>
       </c>
@@ -33672,7 +33669,7 @@
       </c>
       <c r="O695" s="8"/>
     </row>
-    <row r="696" spans="1:15" ht="15.4">
+    <row r="696" spans="1:15" ht="16">
       <c r="A696" s="18" t="s">
         <v>110</v>
       </c>
@@ -33717,7 +33714,7 @@
       </c>
       <c r="O696" s="8"/>
     </row>
-    <row r="697" spans="1:15" ht="15.4">
+    <row r="697" spans="1:15" ht="16">
       <c r="A697" s="18" t="s">
         <v>110</v>
       </c>
@@ -33762,7 +33759,7 @@
       </c>
       <c r="O697" s="8"/>
     </row>
-    <row r="698" spans="1:15" ht="15.4">
+    <row r="698" spans="1:15" ht="16">
       <c r="A698" s="18" t="s">
         <v>110</v>
       </c>
@@ -33807,7 +33804,7 @@
       </c>
       <c r="O698" s="8"/>
     </row>
-    <row r="699" spans="1:15" ht="15.4">
+    <row r="699" spans="1:15" ht="16">
       <c r="A699" s="18" t="s">
         <v>110</v>
       </c>
@@ -33852,7 +33849,7 @@
       </c>
       <c r="O699" s="8"/>
     </row>
-    <row r="700" spans="1:15" ht="15.4">
+    <row r="700" spans="1:15" ht="16">
       <c r="A700" s="18" t="s">
         <v>110</v>
       </c>
@@ -33897,7 +33894,7 @@
       </c>
       <c r="O700" s="8"/>
     </row>
-    <row r="701" spans="1:15" ht="15.4">
+    <row r="701" spans="1:15" ht="16">
       <c r="A701" s="18" t="s">
         <v>110</v>
       </c>
@@ -33942,7 +33939,7 @@
       </c>
       <c r="O701" s="8"/>
     </row>
-    <row r="702" spans="1:15" ht="15.4">
+    <row r="702" spans="1:15" ht="16">
       <c r="A702" s="18" t="s">
         <v>110</v>
       </c>
@@ -33987,7 +33984,7 @@
       </c>
       <c r="O702" s="8"/>
     </row>
-    <row r="703" spans="1:15" ht="15.4">
+    <row r="703" spans="1:15" ht="16">
       <c r="A703" s="18" t="s">
         <v>110</v>
       </c>
@@ -34032,7 +34029,7 @@
       </c>
       <c r="O703" s="8"/>
     </row>
-    <row r="704" spans="1:15" ht="15.4">
+    <row r="704" spans="1:15" ht="16">
       <c r="A704" s="18" t="s">
         <v>110</v>
       </c>
@@ -34077,7 +34074,7 @@
       </c>
       <c r="O704" s="8"/>
     </row>
-    <row r="705" spans="1:15" ht="15.4">
+    <row r="705" spans="1:15" ht="16">
       <c r="A705" s="18" t="s">
         <v>110</v>
       </c>
@@ -34122,7 +34119,7 @@
       </c>
       <c r="O705" s="8"/>
     </row>
-    <row r="706" spans="1:15" ht="15.4">
+    <row r="706" spans="1:15" ht="16">
       <c r="A706" s="84" t="s">
         <v>110</v>
       </c>
@@ -34169,7 +34166,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="707" spans="1:15" ht="15.4">
+    <row r="707" spans="1:15" ht="16">
       <c r="A707" s="84" t="s">
         <v>110</v>
       </c>
@@ -34216,7 +34213,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="708" spans="1:15" ht="15.4">
+    <row r="708" spans="1:15" ht="16">
       <c r="A708" s="84" t="s">
         <v>110</v>
       </c>
@@ -34263,7 +34260,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="709" spans="1:15" ht="15.4">
+    <row r="709" spans="1:15" ht="16">
       <c r="A709" s="84" t="s">
         <v>110</v>
       </c>
@@ -34310,7 +34307,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="15.4">
+    <row r="710" spans="1:15" ht="16">
       <c r="A710" s="84" t="s">
         <v>110</v>
       </c>
@@ -34357,7 +34354,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="711" spans="1:15" ht="15.4">
+    <row r="711" spans="1:15" ht="16">
       <c r="A711" s="84" t="s">
         <v>110</v>
       </c>
@@ -34404,7 +34401,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="712" spans="1:15" ht="15.4">
+    <row r="712" spans="1:15" ht="16">
       <c r="A712" s="84" t="s">
         <v>110</v>
       </c>
@@ -34451,7 +34448,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="713" spans="1:15" ht="15.4">
+    <row r="713" spans="1:15" ht="16">
       <c r="A713" s="84" t="s">
         <v>110</v>
       </c>
@@ -34498,7 +34495,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="714" spans="1:15" ht="15.4">
+    <row r="714" spans="1:15" ht="16">
       <c r="A714" s="84" t="s">
         <v>110</v>
       </c>
@@ -34545,7 +34542,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="15.4">
+    <row r="715" spans="1:15" ht="16">
       <c r="A715" s="84" t="s">
         <v>110</v>
       </c>
@@ -34592,7 +34589,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="716" spans="1:15" ht="15.4">
+    <row r="716" spans="1:15" ht="16">
       <c r="A716" s="84" t="s">
         <v>110</v>
       </c>
@@ -34639,7 +34636,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="717" spans="1:15" ht="15.4">
+    <row r="717" spans="1:15" ht="16">
       <c r="A717" s="84" t="s">
         <v>110</v>
       </c>
@@ -34686,7 +34683,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="718" spans="1:15" ht="15.4">
+    <row r="718" spans="1:15" ht="16">
       <c r="A718" s="84" t="s">
         <v>110</v>
       </c>
@@ -34733,7 +34730,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="719" spans="1:15" ht="15.4">
+    <row r="719" spans="1:15" ht="16">
       <c r="A719" s="84" t="s">
         <v>110</v>
       </c>
@@ -34780,7 +34777,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="720" spans="1:15" ht="15.4">
+    <row r="720" spans="1:15" ht="16">
       <c r="A720" s="84" t="s">
         <v>110</v>
       </c>
@@ -34827,7 +34824,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="721" spans="1:16" ht="15.4">
+    <row r="721" spans="1:16" ht="16">
       <c r="A721" s="84" t="s">
         <v>110</v>
       </c>
@@ -34874,7 +34871,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="722" spans="1:16" ht="15.4">
+    <row r="722" spans="1:16" ht="16">
       <c r="A722" s="84" t="s">
         <v>110</v>
       </c>
@@ -34921,7 +34918,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="723" spans="1:16" ht="15.4">
+    <row r="723" spans="1:16" ht="16">
       <c r="A723" s="84" t="s">
         <v>110</v>
       </c>
@@ -34968,7 +34965,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="724" spans="1:16" ht="15.4">
+    <row r="724" spans="1:16" ht="16">
       <c r="A724" s="84" t="s">
         <v>110</v>
       </c>
@@ -35015,7 +35012,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="725" spans="1:16" ht="15.4">
+    <row r="725" spans="1:16" ht="16">
       <c r="A725" s="7" t="s">
         <v>23</v>
       </c>
@@ -35061,7 +35058,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="726" spans="1:16" ht="15.4">
+    <row r="726" spans="1:16" ht="16">
       <c r="A726" s="7" t="s">
         <v>23</v>
       </c>
@@ -35107,7 +35104,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="727" spans="1:16" ht="15.4">
+    <row r="727" spans="1:16" ht="16">
       <c r="A727" s="7" t="s">
         <v>23</v>
       </c>
@@ -35153,7 +35150,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="728" spans="1:16" ht="15.4">
+    <row r="728" spans="1:16" ht="16">
       <c r="A728" s="7" t="s">
         <v>23</v>
       </c>
@@ -35199,7 +35196,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="729" spans="1:16" ht="15.4">
+    <row r="729" spans="1:16" ht="16">
       <c r="A729" s="7" t="s">
         <v>23</v>
       </c>
@@ -35245,7 +35242,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="730" spans="1:16" ht="15.4">
+    <row r="730" spans="1:16" ht="16">
       <c r="A730" s="7" t="s">
         <v>23</v>
       </c>
@@ -35291,7 +35288,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="731" spans="1:16" ht="15.4">
+    <row r="731" spans="1:16" ht="16">
       <c r="A731" s="7" t="s">
         <v>23</v>
       </c>
@@ -35337,7 +35334,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="732" spans="1:16" ht="15.4">
+    <row r="732" spans="1:16" ht="16">
       <c r="A732" s="7" t="s">
         <v>23</v>
       </c>
@@ -35383,7 +35380,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="733" spans="1:16" ht="15.4">
+    <row r="733" spans="1:16" ht="16">
       <c r="A733" s="7" t="s">
         <v>23</v>
       </c>
@@ -35429,7 +35426,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="734" spans="1:16" ht="15.4">
+    <row r="734" spans="1:16" ht="16">
       <c r="A734" s="7" t="s">
         <v>23</v>
       </c>
@@ -35475,7 +35472,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="735" spans="1:16" ht="15.4">
+    <row r="735" spans="1:16" ht="16">
       <c r="A735" s="7" t="s">
         <v>23</v>
       </c>
@@ -35521,7 +35518,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="736" spans="1:16" ht="15.4">
+    <row r="736" spans="1:16" ht="16">
       <c r="A736" s="7" t="s">
         <v>23</v>
       </c>
@@ -35567,7 +35564,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="737" spans="1:16" ht="15.4">
+    <row r="737" spans="1:16" ht="16">
       <c r="A737" s="7" t="s">
         <v>23</v>
       </c>
@@ -35613,7 +35610,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="738" spans="1:16" ht="15.4">
+    <row r="738" spans="1:16" ht="16">
       <c r="A738" s="7" t="s">
         <v>23</v>
       </c>
@@ -35659,7 +35656,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="739" spans="1:16" ht="15.4">
+    <row r="739" spans="1:16" ht="16">
       <c r="A739" s="7" t="s">
         <v>23</v>
       </c>
@@ -35705,7 +35702,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="740" spans="1:16" ht="15.4">
+    <row r="740" spans="1:16" ht="16">
       <c r="A740" s="7" t="s">
         <v>23</v>
       </c>
@@ -35751,7 +35748,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="741" spans="1:16" ht="15.4">
+    <row r="741" spans="1:16" ht="16">
       <c r="A741" s="7" t="s">
         <v>23</v>
       </c>
@@ -35797,7 +35794,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="742" spans="1:16" ht="15.4">
+    <row r="742" spans="1:16" ht="16">
       <c r="A742" s="7" t="s">
         <v>23</v>
       </c>
@@ -35843,7 +35840,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="743" spans="1:16" ht="15.4">
+    <row r="743" spans="1:16" ht="16">
       <c r="A743" s="7" t="s">
         <v>23</v>
       </c>
@@ -35889,7 +35886,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="744" spans="1:16" ht="15.4">
+    <row r="744" spans="1:16" ht="16">
       <c r="A744" s="7" t="s">
         <v>23</v>
       </c>
@@ -35935,7 +35932,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="745" spans="1:16" ht="15.4">
+    <row r="745" spans="1:16" ht="16">
       <c r="A745" s="7" t="s">
         <v>23</v>
       </c>
@@ -35981,7 +35978,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="746" spans="1:16" ht="15.4">
+    <row r="746" spans="1:16" ht="16">
       <c r="A746" s="7" t="s">
         <v>23</v>
       </c>
@@ -36024,10 +36021,10 @@
       </c>
       <c r="O746" s="8"/>
       <c r="P746" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="747" spans="1:16" ht="15.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="747" spans="1:16" ht="16">
       <c r="A747" s="7" t="s">
         <v>23</v>
       </c>
@@ -36070,10 +36067,10 @@
       </c>
       <c r="O747" s="8"/>
       <c r="P747" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="748" spans="1:16" ht="15.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="748" spans="1:16" ht="16">
       <c r="A748" s="7" t="s">
         <v>23</v>
       </c>
@@ -36116,10 +36113,10 @@
       </c>
       <c r="O748" s="8"/>
       <c r="P748" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="749" spans="1:16" ht="15.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="749" spans="1:16" ht="16">
       <c r="A749" s="7" t="s">
         <v>23</v>
       </c>
@@ -36165,7 +36162,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="750" spans="1:16" ht="15.4">
+    <row r="750" spans="1:16" ht="16">
       <c r="A750" s="7" t="s">
         <v>23</v>
       </c>
@@ -36211,7 +36208,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="751" spans="1:16" ht="15.4">
+    <row r="751" spans="1:16" ht="16">
       <c r="A751" s="7" t="s">
         <v>23</v>
       </c>
@@ -36257,7 +36254,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="752" spans="1:16" ht="15.4">
+    <row r="752" spans="1:16" ht="16">
       <c r="A752" s="7" t="s">
         <v>23</v>
       </c>
@@ -36303,7 +36300,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="753" spans="1:16" ht="15.4">
+    <row r="753" spans="1:16" ht="16">
       <c r="A753" s="7" t="s">
         <v>23</v>
       </c>
@@ -36349,7 +36346,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="754" spans="1:16" ht="15.4">
+    <row r="754" spans="1:16" ht="16">
       <c r="A754" s="7" t="s">
         <v>23</v>
       </c>
@@ -36392,10 +36389,10 @@
       </c>
       <c r="O754" s="8"/>
       <c r="P754" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="755" spans="1:16" ht="15.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="755" spans="1:16" ht="16">
       <c r="A755" s="7" t="s">
         <v>23</v>
       </c>
@@ -36438,10 +36435,10 @@
       </c>
       <c r="O755" s="8"/>
       <c r="P755" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="756" spans="1:16" ht="15.4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="756" spans="1:16" ht="16">
       <c r="A756" s="7" t="s">
         <v>23</v>
       </c>
@@ -36487,7 +36484,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="757" spans="1:16" ht="15.4">
+    <row r="757" spans="1:16" ht="16">
       <c r="A757" s="7" t="s">
         <v>23</v>
       </c>
@@ -36533,7 +36530,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="758" spans="1:16" ht="15.4">
+    <row r="758" spans="1:16" ht="16">
       <c r="A758" s="7" t="s">
         <v>23</v>
       </c>
@@ -36579,7 +36576,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="759" spans="1:16" ht="15.4">
+    <row r="759" spans="1:16" ht="16">
       <c r="A759" s="7" t="s">
         <v>23</v>
       </c>
@@ -36625,7 +36622,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="760" spans="1:16" ht="15.4">
+    <row r="760" spans="1:16" ht="16">
       <c r="A760" s="7" t="s">
         <v>23</v>
       </c>
@@ -36671,7 +36668,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="761" spans="1:16" ht="15.4">
+    <row r="761" spans="1:16" ht="16">
       <c r="A761" s="7" t="s">
         <v>23</v>
       </c>
@@ -36717,7 +36714,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="762" spans="1:16" ht="15.4">
+    <row r="762" spans="1:16" ht="16">
       <c r="A762" s="7" t="s">
         <v>23</v>
       </c>
@@ -36763,7 +36760,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="763" spans="1:16" ht="15.4">
+    <row r="763" spans="1:16" ht="16">
       <c r="A763" s="7" t="s">
         <v>23</v>
       </c>
@@ -36809,7 +36806,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="764" spans="1:16" ht="15.4">
+    <row r="764" spans="1:16" ht="16">
       <c r="A764" s="7" t="s">
         <v>23</v>
       </c>
@@ -36855,7 +36852,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="765" spans="1:16" ht="15.4">
+    <row r="765" spans="1:16" ht="16">
       <c r="A765" s="7" t="s">
         <v>23</v>
       </c>
@@ -36901,7 +36898,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="766" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="766" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A766" s="102" t="s">
         <v>73</v>
       </c>
@@ -36949,7 +36946,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="767" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="767" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A767" s="102" t="s">
         <v>73</v>
       </c>
@@ -36997,7 +36994,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="768" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="768" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A768" s="102" t="s">
         <v>73</v>
       </c>
@@ -37045,7 +37042,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="769" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="769" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A769" s="102" t="s">
         <v>73</v>
       </c>
@@ -37093,7 +37090,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="770" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="770" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A770" s="102" t="s">
         <v>73</v>
       </c>
@@ -37141,7 +37138,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="771" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="771" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A771" s="102" t="s">
         <v>73</v>
       </c>
@@ -37189,7 +37186,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="772" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="772" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A772" s="102" t="s">
         <v>73</v>
       </c>
@@ -37237,7 +37234,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="773" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="773" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A773" s="102" t="s">
         <v>73</v>
       </c>
@@ -37285,7 +37282,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="774" spans="1:16" s="112" customFormat="1" ht="15.75">
+    <row r="774" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A774" s="102" t="s">
         <v>73</v>
       </c>
@@ -37330,10 +37327,10 @@
       </c>
       <c r="O774" s="103"/>
       <c r="P774" s="114" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="775" spans="1:16" s="112" customFormat="1" ht="15.75">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="775" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A775" s="102" t="s">
         <v>73</v>
       </c>
@@ -37378,10 +37375,10 @@
       </c>
       <c r="O775" s="103"/>
       <c r="P775" s="114" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="776" spans="1:16" s="112" customFormat="1" ht="15.75">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="776" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A776" s="102" t="s">
         <v>73</v>
       </c>
@@ -37429,7 +37426,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="777" spans="1:16" s="112" customFormat="1" ht="15.75">
+    <row r="777" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A777" s="102" t="s">
         <v>73</v>
       </c>
@@ -37477,7 +37474,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="778" spans="1:16" s="112" customFormat="1" ht="15.75">
+    <row r="778" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A778" s="102" t="s">
         <v>73</v>
       </c>
@@ -37525,7 +37522,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="779" spans="1:16" s="112" customFormat="1" ht="15.75">
+    <row r="779" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A779" s="102" t="s">
         <v>73</v>
       </c>
@@ -37573,7 +37570,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="780" spans="1:16" s="112" customFormat="1" ht="15.75">
+    <row r="780" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A780" s="102" t="s">
         <v>73</v>
       </c>
@@ -37621,7 +37618,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="781" spans="1:16" s="112" customFormat="1" ht="15.75">
+    <row r="781" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A781" s="102" t="s">
         <v>73</v>
       </c>
@@ -37669,7 +37666,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="782" spans="1:16" s="112" customFormat="1" ht="15.75">
+    <row r="782" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A782" s="102" t="s">
         <v>73</v>
       </c>
@@ -37717,7 +37714,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="783" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="783" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A783" s="102" t="s">
         <v>73</v>
       </c>
@@ -37765,7 +37762,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="784" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="784" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A784" s="102" t="s">
         <v>73</v>
       </c>
@@ -37813,7 +37810,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="785" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="785" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A785" s="102" t="s">
         <v>73</v>
       </c>
@@ -37861,7 +37858,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="786" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="786" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A786" s="102" t="s">
         <v>73</v>
       </c>
@@ -37909,7 +37906,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="787" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="787" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A787" s="102" t="s">
         <v>73</v>
       </c>
@@ -37957,7 +37954,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="788" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="788" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A788" s="102" t="s">
         <v>73</v>
       </c>
@@ -38005,7 +38002,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="789" spans="1:16" s="112" customFormat="1" ht="15.4">
+    <row r="789" spans="1:16" s="112" customFormat="1" ht="16">
       <c r="A789" s="102" t="s">
         <v>73</v>
       </c>
@@ -38053,7 +38050,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="790" spans="1:16" ht="15.4">
+    <row r="790" spans="1:16" ht="16">
       <c r="A790" s="7" t="s">
         <v>73</v>
       </c>
@@ -38098,7 +38095,7 @@
       </c>
       <c r="O790" s="8"/>
     </row>
-    <row r="791" spans="1:16" ht="15.4">
+    <row r="791" spans="1:16" ht="16">
       <c r="A791" s="7" t="s">
         <v>73</v>
       </c>
@@ -38143,7 +38140,7 @@
       </c>
       <c r="O791" s="8"/>
     </row>
-    <row r="792" spans="1:16" ht="15.4">
+    <row r="792" spans="1:16" ht="16">
       <c r="A792" s="7" t="s">
         <v>73</v>
       </c>
@@ -38188,7 +38185,7 @@
       </c>
       <c r="O792" s="8"/>
     </row>
-    <row r="793" spans="1:16" ht="15.4">
+    <row r="793" spans="1:16" ht="16">
       <c r="A793" s="7" t="s">
         <v>73</v>
       </c>
@@ -38233,7 +38230,7 @@
       </c>
       <c r="O793" s="8"/>
     </row>
-    <row r="794" spans="1:16" ht="15.4">
+    <row r="794" spans="1:16" ht="16">
       <c r="A794" s="7" t="s">
         <v>73</v>
       </c>
@@ -38278,7 +38275,7 @@
       </c>
       <c r="O794" s="8"/>
     </row>
-    <row r="795" spans="1:16" ht="15.4">
+    <row r="795" spans="1:16" ht="16">
       <c r="A795" s="7" t="s">
         <v>73</v>
       </c>
@@ -38323,7 +38320,7 @@
       </c>
       <c r="O795" s="8"/>
     </row>
-    <row r="796" spans="1:16" ht="15.4">
+    <row r="796" spans="1:16" ht="16">
       <c r="A796" s="7" t="s">
         <v>73</v>
       </c>
@@ -38368,7 +38365,7 @@
       </c>
       <c r="O796" s="8"/>
     </row>
-    <row r="797" spans="1:16" ht="15.4">
+    <row r="797" spans="1:16" ht="16">
       <c r="A797" s="7" t="s">
         <v>73</v>
       </c>
@@ -38413,7 +38410,7 @@
       </c>
       <c r="O797" s="8"/>
     </row>
-    <row r="798" spans="1:16" ht="15.4">
+    <row r="798" spans="1:16" ht="16">
       <c r="A798" s="7" t="s">
         <v>73</v>
       </c>
@@ -38458,7 +38455,7 @@
       </c>
       <c r="O798" s="8"/>
     </row>
-    <row r="799" spans="1:16" ht="15.4">
+    <row r="799" spans="1:16" ht="16">
       <c r="A799" s="7" t="s">
         <v>77</v>
       </c>
@@ -38503,7 +38500,7 @@
       </c>
       <c r="O799" s="8"/>
     </row>
-    <row r="800" spans="1:16" ht="15.4">
+    <row r="800" spans="1:16" ht="16">
       <c r="A800" s="7" t="s">
         <v>77</v>
       </c>
@@ -38548,7 +38545,7 @@
       </c>
       <c r="O800" s="8"/>
     </row>
-    <row r="801" spans="1:15" ht="15.4">
+    <row r="801" spans="1:15" ht="16">
       <c r="A801" s="7" t="s">
         <v>77</v>
       </c>
@@ -38593,7 +38590,7 @@
       </c>
       <c r="O801" s="8"/>
     </row>
-    <row r="802" spans="1:15" ht="15.4">
+    <row r="802" spans="1:15" ht="16">
       <c r="A802" s="7" t="s">
         <v>77</v>
       </c>
@@ -38638,7 +38635,7 @@
       </c>
       <c r="O802" s="8"/>
     </row>
-    <row r="803" spans="1:15" ht="15.4">
+    <row r="803" spans="1:15" ht="16">
       <c r="A803" s="7" t="s">
         <v>77</v>
       </c>
@@ -38683,7 +38680,7 @@
       </c>
       <c r="O803" s="8"/>
     </row>
-    <row r="804" spans="1:15" ht="15.4">
+    <row r="804" spans="1:15" ht="16">
       <c r="A804" s="7" t="s">
         <v>77</v>
       </c>
@@ -38728,7 +38725,7 @@
       </c>
       <c r="O804" s="8"/>
     </row>
-    <row r="805" spans="1:15" ht="15.4">
+    <row r="805" spans="1:15" ht="16">
       <c r="A805" s="7" t="s">
         <v>77</v>
       </c>
@@ -38773,7 +38770,7 @@
       </c>
       <c r="O805" s="8"/>
     </row>
-    <row r="806" spans="1:15" ht="15.4">
+    <row r="806" spans="1:15" ht="16">
       <c r="A806" s="7" t="s">
         <v>77</v>
       </c>
@@ -38818,7 +38815,7 @@
       </c>
       <c r="O806" s="8"/>
     </row>
-    <row r="807" spans="1:15" ht="15.4">
+    <row r="807" spans="1:15" ht="16">
       <c r="A807" s="7" t="s">
         <v>77</v>
       </c>
@@ -38863,7 +38860,7 @@
       </c>
       <c r="O807" s="8"/>
     </row>
-    <row r="808" spans="1:15" ht="15.4">
+    <row r="808" spans="1:15" ht="16">
       <c r="A808" s="7" t="s">
         <v>77</v>
       </c>
@@ -38908,7 +38905,7 @@
       </c>
       <c r="O808" s="8"/>
     </row>
-    <row r="809" spans="1:15" ht="15.4">
+    <row r="809" spans="1:15" ht="16">
       <c r="A809" s="7" t="s">
         <v>77</v>
       </c>
@@ -38953,7 +38950,7 @@
       </c>
       <c r="O809" s="8"/>
     </row>
-    <row r="810" spans="1:15" ht="15.4">
+    <row r="810" spans="1:15" ht="16">
       <c r="A810" s="7" t="s">
         <v>77</v>
       </c>
@@ -38998,7 +38995,7 @@
       </c>
       <c r="O810" s="8"/>
     </row>
-    <row r="811" spans="1:15" ht="15.4">
+    <row r="811" spans="1:15" ht="16">
       <c r="A811" s="7" t="s">
         <v>77</v>
       </c>
@@ -39043,7 +39040,7 @@
       </c>
       <c r="O811" s="8"/>
     </row>
-    <row r="812" spans="1:15" ht="15.4">
+    <row r="812" spans="1:15" ht="16">
       <c r="A812" s="77" t="s">
         <v>77</v>
       </c>
@@ -39090,7 +39087,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="813" spans="1:15" ht="15.4">
+    <row r="813" spans="1:15" ht="16">
       <c r="A813" s="7" t="s">
         <v>77</v>
       </c>
@@ -39135,7 +39132,7 @@
       </c>
       <c r="O813" s="8"/>
     </row>
-    <row r="814" spans="1:15" ht="15.4">
+    <row r="814" spans="1:15" ht="16">
       <c r="A814" s="7" t="s">
         <v>77</v>
       </c>
@@ -39180,7 +39177,7 @@
       </c>
       <c r="O814" s="8"/>
     </row>
-    <row r="815" spans="1:15" ht="15.4">
+    <row r="815" spans="1:15" ht="16">
       <c r="A815" s="7" t="s">
         <v>77</v>
       </c>
@@ -39225,7 +39222,7 @@
       </c>
       <c r="O815" s="8"/>
     </row>
-    <row r="816" spans="1:15" ht="15.4">
+    <row r="816" spans="1:15" ht="16">
       <c r="A816" s="7" t="s">
         <v>77</v>
       </c>
@@ -39270,7 +39267,7 @@
       </c>
       <c r="O816" s="8"/>
     </row>
-    <row r="817" spans="1:15" ht="15.4">
+    <row r="817" spans="1:15" ht="16">
       <c r="A817" s="77" t="s">
         <v>77</v>
       </c>
@@ -39317,7 +39314,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="818" spans="1:15" ht="15.4">
+    <row r="818" spans="1:15" ht="16">
       <c r="A818" s="77" t="s">
         <v>77</v>
       </c>
@@ -39364,7 +39361,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="819" spans="1:15" ht="15.4">
+    <row r="819" spans="1:15" ht="16">
       <c r="A819" s="77" t="s">
         <v>77</v>
       </c>
@@ -39411,7 +39408,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="820" spans="1:15" ht="15.4">
+    <row r="820" spans="1:15" ht="16">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="5"/>
@@ -39449,11 +39446,11 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.71875" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -39641,12 +39638,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.71875" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="5.27734375" customWidth="1"/>
-    <col min="4" max="4" width="10.27734375" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -40056,7 +40053,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="91" t="s">
